--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9977135394321207</v>
+        <v>0.9977135394321208</v>
       </c>
       <c r="D2">
         <v>1.017594426284737</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007508364979319</v>
+        <v>1.007508364979321</v>
       </c>
       <c r="D3">
-        <v>1.025410011893818</v>
+        <v>1.025410011893819</v>
       </c>
       <c r="E3">
-        <v>1.015161888102124</v>
+        <v>1.015161888102126</v>
       </c>
       <c r="F3">
-        <v>1.023607028333205</v>
+        <v>1.023607028333207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049187967844597</v>
+        <v>1.049187967844598</v>
       </c>
       <c r="J3">
-        <v>1.027796416322188</v>
+        <v>1.02779641632219</v>
       </c>
       <c r="K3">
-        <v>1.035727770973274</v>
+        <v>1.035727770973276</v>
       </c>
       <c r="L3">
-        <v>1.025604376772846</v>
+        <v>1.025604376772848</v>
       </c>
       <c r="M3">
-        <v>1.033946506672533</v>
+        <v>1.033946506672535</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013585196161569</v>
+        <v>1.01358519616157</v>
       </c>
       <c r="D4">
         <v>1.030262145596806</v>
       </c>
       <c r="E4">
-        <v>1.020910628522823</v>
+        <v>1.020910628522824</v>
       </c>
       <c r="F4">
-        <v>1.029265372768535</v>
+        <v>1.029265372768536</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.051659187484242</v>
       </c>
       <c r="J4">
-        <v>1.032647661521246</v>
+        <v>1.032647661521247</v>
       </c>
       <c r="K4">
-        <v>1.040008553332843</v>
+        <v>1.040008553332844</v>
       </c>
       <c r="L4">
-        <v>1.030763064925982</v>
+        <v>1.030763064925983</v>
       </c>
       <c r="M4">
         <v>1.039022969046884</v>
@@ -544,7 +544,7 @@
         <v>1.023273940378109</v>
       </c>
       <c r="F5">
-        <v>1.031592844926031</v>
+        <v>1.031592844926032</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.034638824894721</v>
       </c>
       <c r="K5">
-        <v>1.041765327806343</v>
+        <v>1.041765327806344</v>
       </c>
       <c r="L5">
         <v>1.032881587706749</v>
       </c>
       <c r="M5">
-        <v>1.041108929528416</v>
+        <v>1.041108929528417</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016498096082507</v>
+        <v>1.016498096082505</v>
       </c>
       <c r="D6">
-        <v>1.03258875251626</v>
+        <v>1.032588752516259</v>
       </c>
       <c r="E6">
-        <v>1.023667732034425</v>
+        <v>1.023667732034423</v>
       </c>
       <c r="F6">
-        <v>1.031980740749456</v>
+        <v>1.031980740749454</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052839030025054</v>
+        <v>1.052839030025053</v>
       </c>
       <c r="J6">
-        <v>1.034970419497554</v>
+        <v>1.034970419497553</v>
       </c>
       <c r="K6">
-        <v>1.04205787336824</v>
+        <v>1.042057873368238</v>
       </c>
       <c r="L6">
-        <v>1.033234460713422</v>
+        <v>1.03323446071342</v>
       </c>
       <c r="M6">
-        <v>1.041456448318159</v>
+        <v>1.041456448318157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.013618781329789</v>
       </c>
       <c r="D7">
-        <v>1.030288968267938</v>
+        <v>1.030288968267937</v>
       </c>
       <c r="E7">
-        <v>1.020942411941871</v>
+        <v>1.02094241194187</v>
       </c>
       <c r="F7">
         <v>1.02929666902796</v>
@@ -629,10 +629,10 @@
         <v>1.051672808857287</v>
       </c>
       <c r="J7">
-        <v>1.032674452655382</v>
+        <v>1.032674452655381</v>
       </c>
       <c r="K7">
-        <v>1.040032191785389</v>
+        <v>1.040032191785388</v>
       </c>
       <c r="L7">
         <v>1.030791565037917</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001080836152498</v>
+        <v>1.001080836152496</v>
       </c>
       <c r="D8">
-        <v>1.020280500488651</v>
+        <v>1.020280500488649</v>
       </c>
       <c r="E8">
-        <v>1.00908588805623</v>
+        <v>1.009085888056227</v>
       </c>
       <c r="F8">
-        <v>1.017631409990595</v>
+        <v>1.017631409990594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046560765694555</v>
+        <v>1.046560765694553</v>
       </c>
       <c r="J8">
-        <v>1.022657732041572</v>
+        <v>1.02265773204157</v>
       </c>
       <c r="K8">
-        <v>1.031192591954871</v>
+        <v>1.03119259195487</v>
       </c>
       <c r="L8">
-        <v>1.020144175829312</v>
+        <v>1.020144175829309</v>
       </c>
       <c r="M8">
-        <v>1.02857773367542</v>
+        <v>1.028577733675418</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9767391451714892</v>
+        <v>0.9767391451714909</v>
       </c>
       <c r="D9">
-        <v>1.000885397843255</v>
+        <v>1.000885397843257</v>
       </c>
       <c r="E9">
-        <v>0.9861174329244355</v>
+        <v>0.9861174329244371</v>
       </c>
       <c r="F9">
-        <v>0.9950853113642772</v>
+        <v>0.9950853113642789</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036508320400765</v>
+        <v>1.036508320400766</v>
       </c>
       <c r="J9">
-        <v>1.003140916788445</v>
+        <v>1.003140916788446</v>
       </c>
       <c r="K9">
-        <v>1.013964126399931</v>
+        <v>1.013964126399932</v>
       </c>
       <c r="L9">
-        <v>0.9994398336860666</v>
+        <v>0.9994398336860684</v>
       </c>
       <c r="M9">
-        <v>1.008258632429119</v>
+        <v>1.00825863242912</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9585774762358406</v>
+        <v>0.9585774762358421</v>
       </c>
       <c r="D10">
-        <v>0.9864539126286083</v>
+        <v>0.9864539126286096</v>
       </c>
       <c r="E10">
-        <v>0.9690241126305978</v>
+        <v>0.9690241126305996</v>
       </c>
       <c r="F10">
-        <v>0.9783484458996404</v>
+        <v>0.9783484458996419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028926143326441</v>
+        <v>1.028926143326442</v>
       </c>
       <c r="J10">
-        <v>0.9885367236762412</v>
+        <v>0.9885367236762427</v>
       </c>
       <c r="K10">
-        <v>1.001072130280052</v>
+        <v>1.001072130280054</v>
       </c>
       <c r="L10">
-        <v>0.9839761129160158</v>
+        <v>0.9839761129160176</v>
       </c>
       <c r="M10">
-        <v>0.9931199482694117</v>
+        <v>0.9931199482694131</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9501309121897967</v>
+        <v>0.9501309121898017</v>
       </c>
       <c r="D11">
-        <v>0.9797557807562097</v>
+        <v>0.9797557807562141</v>
       </c>
       <c r="E11">
-        <v>0.9610874470206513</v>
+        <v>0.9610874470206564</v>
       </c>
       <c r="F11">
-        <v>0.970589159341901</v>
+        <v>0.9705891593419056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025382065918904</v>
+        <v>1.025382065918906</v>
       </c>
       <c r="J11">
-        <v>0.9817362399276562</v>
+        <v>0.9817362399276611</v>
       </c>
       <c r="K11">
-        <v>0.9950698452770563</v>
+        <v>0.9950698452770604</v>
       </c>
       <c r="L11">
-        <v>0.9767824991781391</v>
+        <v>0.9767824991781444</v>
       </c>
       <c r="M11">
-        <v>0.9860878840489394</v>
+        <v>0.9860878840489439</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9468924492098542</v>
+        <v>0.9468924492098503</v>
       </c>
       <c r="D12">
-        <v>0.9771901652598672</v>
+        <v>0.9771901652598638</v>
       </c>
       <c r="E12">
-        <v>0.9580467172989593</v>
+        <v>0.9580467172989552</v>
       </c>
       <c r="F12">
-        <v>0.9676183652749941</v>
+        <v>0.9676183652749907</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024020756703541</v>
+        <v>1.024020756703539</v>
       </c>
       <c r="J12">
-        <v>0.9791278129206904</v>
+        <v>0.9791278129206865</v>
       </c>
       <c r="K12">
-        <v>0.9927678133119002</v>
+        <v>0.9927678133118967</v>
       </c>
       <c r="L12">
-        <v>0.9740243686567219</v>
+        <v>0.9740243686567179</v>
       </c>
       <c r="M12">
-        <v>0.9833934012731548</v>
+        <v>0.9833934012731512</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9475919341302756</v>
+        <v>0.9475919341302753</v>
       </c>
       <c r="D13">
-        <v>0.977744199836274</v>
+        <v>0.9777441998362741</v>
       </c>
       <c r="E13">
-        <v>0.9587033875476526</v>
+        <v>0.9587033875476523</v>
       </c>
       <c r="F13">
-        <v>0.968259839771291</v>
+        <v>0.9682598397712907</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.024314898545663</v>
       </c>
       <c r="J13">
-        <v>0.9796912598652948</v>
+        <v>0.9796912598652946</v>
       </c>
       <c r="K13">
-        <v>0.9932650635067395</v>
+        <v>0.9932650635067396</v>
       </c>
       <c r="L13">
-        <v>0.9746201037872226</v>
+        <v>0.9746201037872222</v>
       </c>
       <c r="M13">
-        <v>0.9839753093067105</v>
+        <v>0.9839753093067106</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9498653703245752</v>
+        <v>0.9498653703245775</v>
       </c>
       <c r="D14">
-        <v>0.9795453567954454</v>
+        <v>0.9795453567954474</v>
       </c>
       <c r="E14">
-        <v>0.9608380716365882</v>
+        <v>0.9608380716365903</v>
       </c>
       <c r="F14">
-        <v>0.9703454783230446</v>
+        <v>0.9703454783230464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025270492715098</v>
+        <v>1.025270492715099</v>
       </c>
       <c r="J14">
-        <v>0.9815223792864832</v>
+        <v>0.9815223792864851</v>
       </c>
       <c r="K14">
-        <v>0.9948811001193365</v>
+        <v>0.9948811001193383</v>
       </c>
       <c r="L14">
-        <v>0.9765563425223844</v>
+        <v>0.9765563425223864</v>
       </c>
       <c r="M14">
-        <v>0.9858669108232379</v>
+        <v>0.9858669108232396</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9512522638496931</v>
+        <v>0.9512522638496949</v>
       </c>
       <c r="D15">
-        <v>0.9806444794859615</v>
+        <v>0.9806444794859628</v>
       </c>
       <c r="E15">
-        <v>0.9621406216819475</v>
+        <v>0.9621406216819489</v>
       </c>
       <c r="F15">
-        <v>0.9716183664696455</v>
+        <v>0.9716183664696468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025853126845482</v>
+        <v>1.025853126845483</v>
       </c>
       <c r="J15">
-        <v>0.9826393054315299</v>
+        <v>0.9826393054315316</v>
       </c>
       <c r="K15">
-        <v>0.9958668661551108</v>
+        <v>0.995866866155112</v>
       </c>
       <c r="L15">
-        <v>0.9777375309076011</v>
+        <v>0.9777375309076024</v>
       </c>
       <c r="M15">
-        <v>0.9870210967881838</v>
+        <v>0.9870210967881851</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9591246889557523</v>
+        <v>0.9591246889557539</v>
       </c>
       <c r="D16">
-        <v>0.9868881660454801</v>
+        <v>0.9868881660454815</v>
       </c>
       <c r="E16">
-        <v>0.9695385798091096</v>
+        <v>0.9695385798091111</v>
       </c>
       <c r="F16">
-        <v>0.9788516733248941</v>
+        <v>0.9788516733248954</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029155397941142</v>
+        <v>1.029155397941143</v>
       </c>
       <c r="J16">
-        <v>0.9889771369029418</v>
+        <v>0.9889771369029432</v>
       </c>
       <c r="K16">
-        <v>1.001460876822893</v>
+        <v>1.001460876822895</v>
       </c>
       <c r="L16">
-        <v>0.9844421329200832</v>
+        <v>0.9844421329200846</v>
       </c>
       <c r="M16">
-        <v>0.9935757263335753</v>
+        <v>0.9935757263335764</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9638982776016144</v>
+        <v>0.9638982776016151</v>
       </c>
       <c r="D17">
-        <v>0.990677914904424</v>
+        <v>0.9906779149044249</v>
       </c>
       <c r="E17">
-        <v>0.9740279895848104</v>
+        <v>0.9740279895848108</v>
       </c>
       <c r="F17">
-        <v>0.9832443408795315</v>
+        <v>0.9832443408795324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031153332871683</v>
+        <v>1.031153332871684</v>
       </c>
       <c r="J17">
-        <v>0.9928181463491689</v>
+        <v>0.9928181463491698</v>
       </c>
       <c r="K17">
-        <v>1.004851392446731</v>
+        <v>1.004851392446732</v>
       </c>
       <c r="L17">
-        <v>0.9885072604708927</v>
+        <v>0.9885072604708932</v>
       </c>
       <c r="M17">
-        <v>0.9975526773137227</v>
+        <v>0.9975526773137235</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9666274889590173</v>
+        <v>0.9666274889590188</v>
       </c>
       <c r="D18">
-        <v>0.9928458595815143</v>
+        <v>0.9928458595815155</v>
       </c>
       <c r="E18">
-        <v>0.9765959110479191</v>
+        <v>0.9765959110479207</v>
       </c>
       <c r="F18">
-        <v>0.9857580100879433</v>
+        <v>0.9857580100879447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032293959254636</v>
+        <v>1.032293959254637</v>
       </c>
       <c r="J18">
-        <v>0.9950133817754842</v>
+        <v>0.9950133817754856</v>
       </c>
       <c r="K18">
-        <v>1.006789236142737</v>
+        <v>1.006789236142738</v>
       </c>
       <c r="L18">
-        <v>0.9908312402639021</v>
+        <v>0.9908312402639039</v>
       </c>
       <c r="M18">
-        <v>0.999827192232575</v>
+        <v>0.9998271922325765</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675490895812621</v>
+        <v>0.9675490895812617</v>
       </c>
       <c r="D19">
-        <v>0.9935781279009354</v>
+        <v>0.993578127900935</v>
       </c>
       <c r="E19">
-        <v>0.9774632409440924</v>
+        <v>0.9774632409440919</v>
       </c>
       <c r="F19">
-        <v>0.9866071947869413</v>
+        <v>0.9866071947869406</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032678840478548</v>
       </c>
       <c r="J19">
-        <v>0.9957545303960091</v>
+        <v>0.9957545303960087</v>
       </c>
       <c r="K19">
         <v>1.007443495465016</v>
       </c>
       <c r="L19">
-        <v>0.9916159657964458</v>
+        <v>0.9916159657964452</v>
       </c>
       <c r="M19">
-        <v>1.000595371454875</v>
+        <v>1.000595371454874</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9633919084945325</v>
+        <v>0.963391908494531</v>
       </c>
       <c r="D20">
-        <v>0.9902757782388624</v>
+        <v>0.9902757782388613</v>
       </c>
       <c r="E20">
-        <v>0.9735516402072729</v>
+        <v>0.9735516402072713</v>
       </c>
       <c r="F20">
-        <v>0.9827781421647753</v>
+        <v>0.9827781421647741</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030941568895215</v>
+        <v>1.030941568895214</v>
       </c>
       <c r="J20">
-        <v>0.9924107839518185</v>
+        <v>0.9924107839518171</v>
       </c>
       <c r="K20">
-        <v>1.004491799000224</v>
+        <v>1.004491799000222</v>
       </c>
       <c r="L20">
-        <v>0.9880760605728237</v>
+        <v>0.9880760605728222</v>
       </c>
       <c r="M20">
-        <v>0.9971307311354404</v>
+        <v>0.9971307311354392</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9491988134132138</v>
+        <v>0.9491988134132165</v>
       </c>
       <c r="D21">
-        <v>0.9790171970737787</v>
+        <v>0.9790171970737808</v>
       </c>
       <c r="E21">
-        <v>0.9602121323003551</v>
+        <v>0.9602121323003578</v>
       </c>
       <c r="F21">
-        <v>0.9697338644253094</v>
+        <v>0.9697338644253116</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024990385101299</v>
+        <v>1.024990385101301</v>
       </c>
       <c r="J21">
-        <v>0.9809855347342354</v>
+        <v>0.9809855347342378</v>
       </c>
       <c r="K21">
-        <v>0.9944073059229691</v>
+        <v>0.9944073059229713</v>
       </c>
       <c r="L21">
-        <v>0.9759886493423156</v>
+        <v>0.9759886493423184</v>
       </c>
       <c r="M21">
-        <v>0.9853122569028893</v>
+        <v>0.9853122569028918</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396812952520913</v>
+        <v>0.9396812952520912</v>
       </c>
       <c r="D22">
         <v>0.9714824499196206</v>
       </c>
       <c r="E22">
-        <v>0.9512803710379478</v>
+        <v>0.9512803710379477</v>
       </c>
       <c r="F22">
-        <v>0.9610115641121794</v>
+        <v>0.9610115641121796</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         <v>0.9876408338609856</v>
       </c>
       <c r="L22">
-        <v>0.9678829601511703</v>
+        <v>0.96788296015117</v>
       </c>
       <c r="M22">
-        <v>0.9773970828100182</v>
+        <v>0.9773970828100187</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9447883882885059</v>
+        <v>0.9447883882885115</v>
       </c>
       <c r="D23">
-        <v>0.9755240252553602</v>
+        <v>0.9755240252553649</v>
       </c>
       <c r="E23">
-        <v>0.9560717959659807</v>
+        <v>0.9560717959659862</v>
       </c>
       <c r="F23">
-        <v>0.9656894520071341</v>
+        <v>0.9656894520071393</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023135625034698</v>
+        <v>1.023135625034701</v>
       </c>
       <c r="J23">
-        <v>0.9774328142757132</v>
+        <v>0.9774328142757184</v>
       </c>
       <c r="K23">
-        <v>0.9912719949793798</v>
+        <v>0.9912719949793846</v>
       </c>
       <c r="L23">
-        <v>0.9722323996560781</v>
+        <v>0.9722323996560838</v>
       </c>
       <c r="M23">
-        <v>0.9816432880865398</v>
+        <v>0.9816432880865449</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9636208843114749</v>
+        <v>0.9636208843114727</v>
       </c>
       <c r="D24">
-        <v>0.9904576172418731</v>
+        <v>0.990457617241871</v>
       </c>
       <c r="E24">
-        <v>0.9737670376867179</v>
+        <v>0.9737670376867157</v>
       </c>
       <c r="F24">
-        <v>0.9829889463157681</v>
+        <v>0.9829889463157659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031037331943702</v>
+        <v>1.031037331943701</v>
       </c>
       <c r="J24">
-        <v>0.9925949922518356</v>
+        <v>0.9925949922518335</v>
       </c>
       <c r="K24">
-        <v>1.004654406061959</v>
+        <v>1.004654406061957</v>
       </c>
       <c r="L24">
-        <v>0.9882710460930993</v>
+        <v>0.9882710460930971</v>
       </c>
       <c r="M24">
-        <v>0.9973215292571268</v>
+        <v>0.9973215292571249</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,16 +1292,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9833373302384166</v>
+        <v>0.983337330238416</v>
       </c>
       <c r="D25">
-        <v>1.006137311326964</v>
+        <v>1.006137311326963</v>
       </c>
       <c r="E25">
-        <v>0.992336800191557</v>
+        <v>0.9923368001915559</v>
       </c>
       <c r="F25">
         <v>1.001183784914276</v>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9977135394321208</v>
+        <v>0.9977135394321207</v>
       </c>
       <c r="D2">
         <v>1.017594426284737</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007508364979321</v>
+        <v>1.007508364979319</v>
       </c>
       <c r="D3">
-        <v>1.025410011893819</v>
+        <v>1.025410011893818</v>
       </c>
       <c r="E3">
-        <v>1.015161888102126</v>
+        <v>1.015161888102124</v>
       </c>
       <c r="F3">
-        <v>1.023607028333207</v>
+        <v>1.023607028333205</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049187967844598</v>
+        <v>1.049187967844597</v>
       </c>
       <c r="J3">
-        <v>1.02779641632219</v>
+        <v>1.027796416322188</v>
       </c>
       <c r="K3">
-        <v>1.035727770973276</v>
+        <v>1.035727770973274</v>
       </c>
       <c r="L3">
-        <v>1.025604376772848</v>
+        <v>1.025604376772846</v>
       </c>
       <c r="M3">
-        <v>1.033946506672535</v>
+        <v>1.033946506672533</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01358519616157</v>
+        <v>1.013585196161569</v>
       </c>
       <c r="D4">
         <v>1.030262145596806</v>
       </c>
       <c r="E4">
-        <v>1.020910628522824</v>
+        <v>1.020910628522823</v>
       </c>
       <c r="F4">
-        <v>1.029265372768536</v>
+        <v>1.029265372768535</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.051659187484242</v>
       </c>
       <c r="J4">
-        <v>1.032647661521247</v>
+        <v>1.032647661521246</v>
       </c>
       <c r="K4">
-        <v>1.040008553332844</v>
+        <v>1.040008553332843</v>
       </c>
       <c r="L4">
-        <v>1.030763064925983</v>
+        <v>1.030763064925982</v>
       </c>
       <c r="M4">
         <v>1.039022969046884</v>
@@ -544,7 +544,7 @@
         <v>1.023273940378109</v>
       </c>
       <c r="F5">
-        <v>1.031592844926032</v>
+        <v>1.031592844926031</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.034638824894721</v>
       </c>
       <c r="K5">
-        <v>1.041765327806344</v>
+        <v>1.041765327806343</v>
       </c>
       <c r="L5">
         <v>1.032881587706749</v>
       </c>
       <c r="M5">
-        <v>1.041108929528417</v>
+        <v>1.041108929528416</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016498096082505</v>
+        <v>1.016498096082507</v>
       </c>
       <c r="D6">
-        <v>1.032588752516259</v>
+        <v>1.03258875251626</v>
       </c>
       <c r="E6">
-        <v>1.023667732034423</v>
+        <v>1.023667732034425</v>
       </c>
       <c r="F6">
-        <v>1.031980740749454</v>
+        <v>1.031980740749456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052839030025053</v>
+        <v>1.052839030025054</v>
       </c>
       <c r="J6">
-        <v>1.034970419497553</v>
+        <v>1.034970419497554</v>
       </c>
       <c r="K6">
-        <v>1.042057873368238</v>
+        <v>1.04205787336824</v>
       </c>
       <c r="L6">
-        <v>1.03323446071342</v>
+        <v>1.033234460713422</v>
       </c>
       <c r="M6">
-        <v>1.041456448318157</v>
+        <v>1.041456448318159</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.013618781329789</v>
       </c>
       <c r="D7">
-        <v>1.030288968267937</v>
+        <v>1.030288968267938</v>
       </c>
       <c r="E7">
-        <v>1.02094241194187</v>
+        <v>1.020942411941871</v>
       </c>
       <c r="F7">
         <v>1.02929666902796</v>
@@ -629,10 +629,10 @@
         <v>1.051672808857287</v>
       </c>
       <c r="J7">
-        <v>1.032674452655381</v>
+        <v>1.032674452655382</v>
       </c>
       <c r="K7">
-        <v>1.040032191785388</v>
+        <v>1.040032191785389</v>
       </c>
       <c r="L7">
         <v>1.030791565037917</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001080836152496</v>
+        <v>1.001080836152498</v>
       </c>
       <c r="D8">
-        <v>1.020280500488649</v>
+        <v>1.020280500488651</v>
       </c>
       <c r="E8">
-        <v>1.009085888056227</v>
+        <v>1.00908588805623</v>
       </c>
       <c r="F8">
-        <v>1.017631409990594</v>
+        <v>1.017631409990595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046560765694553</v>
+        <v>1.046560765694555</v>
       </c>
       <c r="J8">
-        <v>1.02265773204157</v>
+        <v>1.022657732041572</v>
       </c>
       <c r="K8">
-        <v>1.03119259195487</v>
+        <v>1.031192591954871</v>
       </c>
       <c r="L8">
-        <v>1.020144175829309</v>
+        <v>1.020144175829312</v>
       </c>
       <c r="M8">
-        <v>1.028577733675418</v>
+        <v>1.02857773367542</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9767391451714909</v>
+        <v>0.9767391451714892</v>
       </c>
       <c r="D9">
-        <v>1.000885397843257</v>
+        <v>1.000885397843255</v>
       </c>
       <c r="E9">
-        <v>0.9861174329244371</v>
+        <v>0.9861174329244355</v>
       </c>
       <c r="F9">
-        <v>0.9950853113642789</v>
+        <v>0.9950853113642772</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036508320400766</v>
+        <v>1.036508320400765</v>
       </c>
       <c r="J9">
-        <v>1.003140916788446</v>
+        <v>1.003140916788445</v>
       </c>
       <c r="K9">
-        <v>1.013964126399932</v>
+        <v>1.013964126399931</v>
       </c>
       <c r="L9">
-        <v>0.9994398336860684</v>
+        <v>0.9994398336860666</v>
       </c>
       <c r="M9">
-        <v>1.00825863242912</v>
+        <v>1.008258632429119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9585774762358421</v>
+        <v>0.9585774762358406</v>
       </c>
       <c r="D10">
-        <v>0.9864539126286096</v>
+        <v>0.9864539126286083</v>
       </c>
       <c r="E10">
-        <v>0.9690241126305996</v>
+        <v>0.9690241126305978</v>
       </c>
       <c r="F10">
-        <v>0.9783484458996419</v>
+        <v>0.9783484458996404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028926143326442</v>
+        <v>1.028926143326441</v>
       </c>
       <c r="J10">
-        <v>0.9885367236762427</v>
+        <v>0.9885367236762412</v>
       </c>
       <c r="K10">
-        <v>1.001072130280054</v>
+        <v>1.001072130280052</v>
       </c>
       <c r="L10">
-        <v>0.9839761129160176</v>
+        <v>0.9839761129160158</v>
       </c>
       <c r="M10">
-        <v>0.9931199482694131</v>
+        <v>0.9931199482694117</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9501309121898017</v>
+        <v>0.9501309121897967</v>
       </c>
       <c r="D11">
-        <v>0.9797557807562141</v>
+        <v>0.9797557807562097</v>
       </c>
       <c r="E11">
-        <v>0.9610874470206564</v>
+        <v>0.9610874470206513</v>
       </c>
       <c r="F11">
-        <v>0.9705891593419056</v>
+        <v>0.970589159341901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025382065918906</v>
+        <v>1.025382065918904</v>
       </c>
       <c r="J11">
-        <v>0.9817362399276611</v>
+        <v>0.9817362399276562</v>
       </c>
       <c r="K11">
-        <v>0.9950698452770604</v>
+        <v>0.9950698452770563</v>
       </c>
       <c r="L11">
-        <v>0.9767824991781444</v>
+        <v>0.9767824991781391</v>
       </c>
       <c r="M11">
-        <v>0.9860878840489439</v>
+        <v>0.9860878840489394</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9468924492098503</v>
+        <v>0.9468924492098542</v>
       </c>
       <c r="D12">
-        <v>0.9771901652598638</v>
+        <v>0.9771901652598672</v>
       </c>
       <c r="E12">
-        <v>0.9580467172989552</v>
+        <v>0.9580467172989593</v>
       </c>
       <c r="F12">
-        <v>0.9676183652749907</v>
+        <v>0.9676183652749941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024020756703539</v>
+        <v>1.024020756703541</v>
       </c>
       <c r="J12">
-        <v>0.9791278129206865</v>
+        <v>0.9791278129206904</v>
       </c>
       <c r="K12">
-        <v>0.9927678133118967</v>
+        <v>0.9927678133119002</v>
       </c>
       <c r="L12">
-        <v>0.9740243686567179</v>
+        <v>0.9740243686567219</v>
       </c>
       <c r="M12">
-        <v>0.9833934012731512</v>
+        <v>0.9833934012731548</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9475919341302753</v>
+        <v>0.9475919341302756</v>
       </c>
       <c r="D13">
-        <v>0.9777441998362741</v>
+        <v>0.977744199836274</v>
       </c>
       <c r="E13">
-        <v>0.9587033875476523</v>
+        <v>0.9587033875476526</v>
       </c>
       <c r="F13">
-        <v>0.9682598397712907</v>
+        <v>0.968259839771291</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.024314898545663</v>
       </c>
       <c r="J13">
-        <v>0.9796912598652946</v>
+        <v>0.9796912598652948</v>
       </c>
       <c r="K13">
-        <v>0.9932650635067396</v>
+        <v>0.9932650635067395</v>
       </c>
       <c r="L13">
-        <v>0.9746201037872222</v>
+        <v>0.9746201037872226</v>
       </c>
       <c r="M13">
-        <v>0.9839753093067106</v>
+        <v>0.9839753093067105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9498653703245775</v>
+        <v>0.9498653703245752</v>
       </c>
       <c r="D14">
-        <v>0.9795453567954474</v>
+        <v>0.9795453567954454</v>
       </c>
       <c r="E14">
-        <v>0.9608380716365903</v>
+        <v>0.9608380716365882</v>
       </c>
       <c r="F14">
-        <v>0.9703454783230464</v>
+        <v>0.9703454783230446</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025270492715099</v>
+        <v>1.025270492715098</v>
       </c>
       <c r="J14">
-        <v>0.9815223792864851</v>
+        <v>0.9815223792864832</v>
       </c>
       <c r="K14">
-        <v>0.9948811001193383</v>
+        <v>0.9948811001193365</v>
       </c>
       <c r="L14">
-        <v>0.9765563425223864</v>
+        <v>0.9765563425223844</v>
       </c>
       <c r="M14">
-        <v>0.9858669108232396</v>
+        <v>0.9858669108232379</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9512522638496949</v>
+        <v>0.9512522638496931</v>
       </c>
       <c r="D15">
-        <v>0.9806444794859628</v>
+        <v>0.9806444794859615</v>
       </c>
       <c r="E15">
-        <v>0.9621406216819489</v>
+        <v>0.9621406216819475</v>
       </c>
       <c r="F15">
-        <v>0.9716183664696468</v>
+        <v>0.9716183664696455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025853126845483</v>
+        <v>1.025853126845482</v>
       </c>
       <c r="J15">
-        <v>0.9826393054315316</v>
+        <v>0.9826393054315299</v>
       </c>
       <c r="K15">
-        <v>0.995866866155112</v>
+        <v>0.9958668661551108</v>
       </c>
       <c r="L15">
-        <v>0.9777375309076024</v>
+        <v>0.9777375309076011</v>
       </c>
       <c r="M15">
-        <v>0.9870210967881851</v>
+        <v>0.9870210967881838</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9591246889557539</v>
+        <v>0.9591246889557523</v>
       </c>
       <c r="D16">
-        <v>0.9868881660454815</v>
+        <v>0.9868881660454801</v>
       </c>
       <c r="E16">
-        <v>0.9695385798091111</v>
+        <v>0.9695385798091096</v>
       </c>
       <c r="F16">
-        <v>0.9788516733248954</v>
+        <v>0.9788516733248941</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029155397941143</v>
+        <v>1.029155397941142</v>
       </c>
       <c r="J16">
-        <v>0.9889771369029432</v>
+        <v>0.9889771369029418</v>
       </c>
       <c r="K16">
-        <v>1.001460876822895</v>
+        <v>1.001460876822893</v>
       </c>
       <c r="L16">
-        <v>0.9844421329200846</v>
+        <v>0.9844421329200832</v>
       </c>
       <c r="M16">
-        <v>0.9935757263335764</v>
+        <v>0.9935757263335753</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9638982776016151</v>
+        <v>0.9638982776016144</v>
       </c>
       <c r="D17">
-        <v>0.9906779149044249</v>
+        <v>0.990677914904424</v>
       </c>
       <c r="E17">
-        <v>0.9740279895848108</v>
+        <v>0.9740279895848104</v>
       </c>
       <c r="F17">
-        <v>0.9832443408795324</v>
+        <v>0.9832443408795315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031153332871684</v>
+        <v>1.031153332871683</v>
       </c>
       <c r="J17">
-        <v>0.9928181463491698</v>
+        <v>0.9928181463491689</v>
       </c>
       <c r="K17">
-        <v>1.004851392446732</v>
+        <v>1.004851392446731</v>
       </c>
       <c r="L17">
-        <v>0.9885072604708932</v>
+        <v>0.9885072604708927</v>
       </c>
       <c r="M17">
-        <v>0.9975526773137235</v>
+        <v>0.9975526773137227</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9666274889590188</v>
+        <v>0.9666274889590173</v>
       </c>
       <c r="D18">
-        <v>0.9928458595815155</v>
+        <v>0.9928458595815143</v>
       </c>
       <c r="E18">
-        <v>0.9765959110479207</v>
+        <v>0.9765959110479191</v>
       </c>
       <c r="F18">
-        <v>0.9857580100879447</v>
+        <v>0.9857580100879433</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032293959254637</v>
+        <v>1.032293959254636</v>
       </c>
       <c r="J18">
-        <v>0.9950133817754856</v>
+        <v>0.9950133817754842</v>
       </c>
       <c r="K18">
-        <v>1.006789236142738</v>
+        <v>1.006789236142737</v>
       </c>
       <c r="L18">
-        <v>0.9908312402639039</v>
+        <v>0.9908312402639021</v>
       </c>
       <c r="M18">
-        <v>0.9998271922325765</v>
+        <v>0.999827192232575</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675490895812617</v>
+        <v>0.9675490895812621</v>
       </c>
       <c r="D19">
-        <v>0.993578127900935</v>
+        <v>0.9935781279009354</v>
       </c>
       <c r="E19">
-        <v>0.9774632409440919</v>
+        <v>0.9774632409440924</v>
       </c>
       <c r="F19">
-        <v>0.9866071947869406</v>
+        <v>0.9866071947869413</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032678840478548</v>
       </c>
       <c r="J19">
-        <v>0.9957545303960087</v>
+        <v>0.9957545303960091</v>
       </c>
       <c r="K19">
         <v>1.007443495465016</v>
       </c>
       <c r="L19">
-        <v>0.9916159657964452</v>
+        <v>0.9916159657964458</v>
       </c>
       <c r="M19">
-        <v>1.000595371454874</v>
+        <v>1.000595371454875</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.963391908494531</v>
+        <v>0.9633919084945325</v>
       </c>
       <c r="D20">
-        <v>0.9902757782388613</v>
+        <v>0.9902757782388624</v>
       </c>
       <c r="E20">
-        <v>0.9735516402072713</v>
+        <v>0.9735516402072729</v>
       </c>
       <c r="F20">
-        <v>0.9827781421647741</v>
+        <v>0.9827781421647753</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030941568895214</v>
+        <v>1.030941568895215</v>
       </c>
       <c r="J20">
-        <v>0.9924107839518171</v>
+        <v>0.9924107839518185</v>
       </c>
       <c r="K20">
-        <v>1.004491799000222</v>
+        <v>1.004491799000224</v>
       </c>
       <c r="L20">
-        <v>0.9880760605728222</v>
+        <v>0.9880760605728237</v>
       </c>
       <c r="M20">
-        <v>0.9971307311354392</v>
+        <v>0.9971307311354404</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9491988134132165</v>
+        <v>0.9491988134132138</v>
       </c>
       <c r="D21">
-        <v>0.9790171970737808</v>
+        <v>0.9790171970737787</v>
       </c>
       <c r="E21">
-        <v>0.9602121323003578</v>
+        <v>0.9602121323003551</v>
       </c>
       <c r="F21">
-        <v>0.9697338644253116</v>
+        <v>0.9697338644253094</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024990385101301</v>
+        <v>1.024990385101299</v>
       </c>
       <c r="J21">
-        <v>0.9809855347342378</v>
+        <v>0.9809855347342354</v>
       </c>
       <c r="K21">
-        <v>0.9944073059229713</v>
+        <v>0.9944073059229691</v>
       </c>
       <c r="L21">
-        <v>0.9759886493423184</v>
+        <v>0.9759886493423156</v>
       </c>
       <c r="M21">
-        <v>0.9853122569028918</v>
+        <v>0.9853122569028893</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396812952520912</v>
+        <v>0.9396812952520913</v>
       </c>
       <c r="D22">
         <v>0.9714824499196206</v>
       </c>
       <c r="E22">
-        <v>0.9512803710379477</v>
+        <v>0.9512803710379478</v>
       </c>
       <c r="F22">
-        <v>0.9610115641121796</v>
+        <v>0.9610115641121794</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         <v>0.9876408338609856</v>
       </c>
       <c r="L22">
-        <v>0.96788296015117</v>
+        <v>0.9678829601511703</v>
       </c>
       <c r="M22">
-        <v>0.9773970828100187</v>
+        <v>0.9773970828100182</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9447883882885115</v>
+        <v>0.9447883882885059</v>
       </c>
       <c r="D23">
-        <v>0.9755240252553649</v>
+        <v>0.9755240252553602</v>
       </c>
       <c r="E23">
-        <v>0.9560717959659862</v>
+        <v>0.9560717959659807</v>
       </c>
       <c r="F23">
-        <v>0.9656894520071393</v>
+        <v>0.9656894520071341</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023135625034701</v>
+        <v>1.023135625034698</v>
       </c>
       <c r="J23">
-        <v>0.9774328142757184</v>
+        <v>0.9774328142757132</v>
       </c>
       <c r="K23">
-        <v>0.9912719949793846</v>
+        <v>0.9912719949793798</v>
       </c>
       <c r="L23">
-        <v>0.9722323996560838</v>
+        <v>0.9722323996560781</v>
       </c>
       <c r="M23">
-        <v>0.9816432880865449</v>
+        <v>0.9816432880865398</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9636208843114727</v>
+        <v>0.9636208843114749</v>
       </c>
       <c r="D24">
-        <v>0.990457617241871</v>
+        <v>0.9904576172418731</v>
       </c>
       <c r="E24">
-        <v>0.9737670376867157</v>
+        <v>0.9737670376867179</v>
       </c>
       <c r="F24">
-        <v>0.9829889463157659</v>
+        <v>0.9829889463157681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031037331943701</v>
+        <v>1.031037331943702</v>
       </c>
       <c r="J24">
-        <v>0.9925949922518335</v>
+        <v>0.9925949922518356</v>
       </c>
       <c r="K24">
-        <v>1.004654406061957</v>
+        <v>1.004654406061959</v>
       </c>
       <c r="L24">
-        <v>0.9882710460930971</v>
+        <v>0.9882710460930993</v>
       </c>
       <c r="M24">
-        <v>0.9973215292571249</v>
+        <v>0.9973215292571268</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,16 +1292,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.983337330238416</v>
+        <v>0.9833373302384166</v>
       </c>
       <c r="D25">
-        <v>1.006137311326963</v>
+        <v>1.006137311326964</v>
       </c>
       <c r="E25">
-        <v>0.9923368001915559</v>
+        <v>0.992336800191557</v>
       </c>
       <c r="F25">
         <v>1.001183784914276</v>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9977135394321207</v>
+        <v>0.9977754326187152</v>
       </c>
       <c r="D2">
-        <v>1.017594426284737</v>
+        <v>1.017645434556147</v>
       </c>
       <c r="E2">
-        <v>1.005904597506709</v>
+        <v>1.005966068064405</v>
       </c>
       <c r="F2">
-        <v>1.014504617064026</v>
+        <v>1.014557128397292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045179367221367</v>
+        <v>1.045209064951039</v>
       </c>
       <c r="J2">
-        <v>1.019962853877258</v>
+        <v>1.020022884310642</v>
       </c>
       <c r="K2">
-        <v>1.028813966168698</v>
+        <v>1.028864294385081</v>
       </c>
       <c r="L2">
-        <v>1.017282280289563</v>
+        <v>1.017342907149788</v>
       </c>
       <c r="M2">
-        <v>1.025765511321507</v>
+        <v>1.025817317192771</v>
+      </c>
+      <c r="N2">
+        <v>1.008311286894862</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007508364979319</v>
+        <v>1.007555894236495</v>
       </c>
       <c r="D3">
-        <v>1.025410011893818</v>
+        <v>1.025449241491735</v>
       </c>
       <c r="E3">
-        <v>1.015161888102124</v>
+        <v>1.015209155147797</v>
       </c>
       <c r="F3">
-        <v>1.023607028333205</v>
+        <v>1.02364733123199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049187967844597</v>
+        <v>1.049210835235175</v>
       </c>
       <c r="J3">
-        <v>1.027796416322188</v>
+        <v>1.027842676065859</v>
       </c>
       <c r="K3">
-        <v>1.035727770973274</v>
+        <v>1.03576652905367</v>
       </c>
       <c r="L3">
-        <v>1.025604376772846</v>
+        <v>1.025651061340325</v>
       </c>
       <c r="M3">
-        <v>1.033946506672533</v>
+        <v>1.033986323033067</v>
+      </c>
+      <c r="N3">
+        <v>1.01460659562255</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013585196161569</v>
+        <v>1.013624171678846</v>
       </c>
       <c r="D4">
-        <v>1.030262145596806</v>
+        <v>1.03029434398035</v>
       </c>
       <c r="E4">
-        <v>1.020910628522823</v>
+        <v>1.020949419224326</v>
       </c>
       <c r="F4">
-        <v>1.029265372768535</v>
+        <v>1.029298411107043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051659187484242</v>
+        <v>1.051677970532553</v>
       </c>
       <c r="J4">
-        <v>1.032647661521246</v>
+        <v>1.032685675748523</v>
       </c>
       <c r="K4">
-        <v>1.040008553332843</v>
+        <v>1.040040390741476</v>
       </c>
       <c r="L4">
-        <v>1.030763064925982</v>
+        <v>1.03080141086237</v>
       </c>
       <c r="M4">
-        <v>1.039022969046884</v>
+        <v>1.039055636110131</v>
+      </c>
+      <c r="N4">
+        <v>1.018486180374148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016082114197107</v>
+        <v>1.016117649916384</v>
       </c>
       <c r="D5">
-        <v>1.032256469435368</v>
+        <v>1.032285836708558</v>
       </c>
       <c r="E5">
-        <v>1.023273940378109</v>
+        <v>1.023309318604556</v>
       </c>
       <c r="F5">
-        <v>1.031592844926031</v>
+        <v>1.031622963167728</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052670736601533</v>
+        <v>1.052687873513486</v>
       </c>
       <c r="J5">
-        <v>1.034638824894721</v>
+        <v>1.03467351361334</v>
       </c>
       <c r="K5">
-        <v>1.041765327806343</v>
+        <v>1.041794375561663</v>
       </c>
       <c r="L5">
-        <v>1.032881587706749</v>
+        <v>1.032916572662973</v>
       </c>
       <c r="M5">
-        <v>1.041108929528416</v>
+        <v>1.041138719564308</v>
+      </c>
+      <c r="N5">
+        <v>1.020073961994926</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016498096082507</v>
+        <v>1.016533062855732</v>
       </c>
       <c r="D6">
-        <v>1.03258875251626</v>
+        <v>1.032617651323052</v>
       </c>
       <c r="E6">
-        <v>1.023667732034425</v>
+        <v>1.023702545624636</v>
       </c>
       <c r="F6">
-        <v>1.031980740749456</v>
+        <v>1.032010376077039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052839030025054</v>
+        <v>1.052855894458891</v>
       </c>
       <c r="J6">
-        <v>1.034970419497554</v>
+        <v>1.035004557635184</v>
       </c>
       <c r="K6">
-        <v>1.04205787336824</v>
+        <v>1.042086459345126</v>
       </c>
       <c r="L6">
-        <v>1.033234460713422</v>
+        <v>1.033268889332442</v>
       </c>
       <c r="M6">
-        <v>1.041456448318159</v>
+        <v>1.041485762379434</v>
+      </c>
+      <c r="N6">
+        <v>1.020338111136402</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013618781329789</v>
+        <v>1.013657710295836</v>
       </c>
       <c r="D7">
-        <v>1.030288968267938</v>
+        <v>1.030321128351408</v>
       </c>
       <c r="E7">
-        <v>1.020942411941871</v>
+        <v>1.02098115647643</v>
       </c>
       <c r="F7">
-        <v>1.02929666902796</v>
+        <v>1.029329667843433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051672808857287</v>
+        <v>1.051691569642385</v>
       </c>
       <c r="J7">
-        <v>1.032674452655382</v>
+        <v>1.03271242191532</v>
       </c>
       <c r="K7">
-        <v>1.040032191785389</v>
+        <v>1.040063991466624</v>
       </c>
       <c r="L7">
-        <v>1.030791565037917</v>
+        <v>1.030829865519289</v>
       </c>
       <c r="M7">
-        <v>1.039051026384797</v>
+        <v>1.039083654520572</v>
+      </c>
+      <c r="N7">
+        <v>1.018507562143182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001080836152498</v>
+        <v>1.001137707680744</v>
       </c>
       <c r="D8">
-        <v>1.020280500488651</v>
+        <v>1.020327394975381</v>
       </c>
       <c r="E8">
-        <v>1.00908588805623</v>
+        <v>1.009142397382617</v>
       </c>
       <c r="F8">
-        <v>1.017631409990595</v>
+        <v>1.017679651969466</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046560765694555</v>
+        <v>1.046588079479327</v>
       </c>
       <c r="J8">
-        <v>1.022657732041572</v>
+        <v>1.022712958854106</v>
       </c>
       <c r="K8">
-        <v>1.031192591954871</v>
+        <v>1.031238882461777</v>
       </c>
       <c r="L8">
-        <v>1.020144175829312</v>
+        <v>1.02019993695276</v>
       </c>
       <c r="M8">
-        <v>1.02857773367542</v>
+        <v>1.028625350265227</v>
+      </c>
+      <c r="N8">
+        <v>1.010481033983611</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9767391451714892</v>
+        <v>0.976834503322321</v>
       </c>
       <c r="D9">
-        <v>1.000885397843255</v>
+        <v>1.000963710154676</v>
       </c>
       <c r="E9">
-        <v>0.9861174329244355</v>
+        <v>0.9862118470758219</v>
       </c>
       <c r="F9">
-        <v>0.9950853113642772</v>
+        <v>0.9951663036559742</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036508320400765</v>
+        <v>1.036553801728633</v>
       </c>
       <c r="J9">
-        <v>1.003140916788445</v>
+        <v>1.003232678003104</v>
       </c>
       <c r="K9">
-        <v>1.013964126399931</v>
+        <v>1.014041171160474</v>
       </c>
       <c r="L9">
-        <v>0.9994398336860666</v>
+        <v>0.999532660111474</v>
       </c>
       <c r="M9">
-        <v>1.008258632429119</v>
+        <v>1.008338294070757</v>
+      </c>
+      <c r="N9">
+        <v>0.9946827104949973</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9585774762358406</v>
+        <v>0.9587053383475045</v>
       </c>
       <c r="D10">
-        <v>0.9864539126286083</v>
+        <v>0.9865585638609415</v>
       </c>
       <c r="E10">
-        <v>0.9690241126305978</v>
+        <v>0.9691503307207456</v>
       </c>
       <c r="F10">
-        <v>0.9783484458996404</v>
+        <v>0.978457138514876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028926143326441</v>
+        <v>1.02898679443607</v>
       </c>
       <c r="J10">
-        <v>0.9885367236762412</v>
+        <v>0.9886588642712477</v>
       </c>
       <c r="K10">
-        <v>1.001072130280052</v>
+        <v>1.001174823922439</v>
       </c>
       <c r="L10">
-        <v>0.9839761129160158</v>
+        <v>0.9840998572781762</v>
       </c>
       <c r="M10">
-        <v>0.9931199482694117</v>
+        <v>0.9932265633850498</v>
+      </c>
+      <c r="N10">
+        <v>0.9827511248202689</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9501309121897967</v>
+        <v>0.9502752096009909</v>
       </c>
       <c r="D11">
-        <v>0.9797557807562097</v>
+        <v>0.9798736840470306</v>
       </c>
       <c r="E11">
-        <v>0.9610874470206513</v>
+        <v>0.9612296763360865</v>
       </c>
       <c r="F11">
-        <v>0.970589159341901</v>
+        <v>0.9707118677368631</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025382065918904</v>
+        <v>1.025450331702081</v>
       </c>
       <c r="J11">
-        <v>0.9817362399276562</v>
+        <v>0.9818735885811798</v>
       </c>
       <c r="K11">
-        <v>0.9950698452770563</v>
+        <v>0.9951854030066467</v>
       </c>
       <c r="L11">
-        <v>0.9767824991781391</v>
+        <v>0.9769217518697557</v>
       </c>
       <c r="M11">
-        <v>0.9860878840489394</v>
+        <v>0.9862080901401939</v>
+      </c>
+      <c r="N11">
+        <v>0.9771690371318568</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9468924492098542</v>
+        <v>0.9470432955439286</v>
       </c>
       <c r="D12">
-        <v>0.9771901652598672</v>
+        <v>0.9773133370130206</v>
       </c>
       <c r="E12">
-        <v>0.9580467172989593</v>
+        <v>0.9581953138208746</v>
       </c>
       <c r="F12">
-        <v>0.9676183652749941</v>
+        <v>0.9677466597460525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024020756703541</v>
+        <v>1.024092046757007</v>
       </c>
       <c r="J12">
-        <v>0.9791278129206904</v>
+        <v>0.9792711943561118</v>
       </c>
       <c r="K12">
-        <v>0.9927678133119002</v>
+        <v>0.9928884782460063</v>
       </c>
       <c r="L12">
-        <v>0.9740243686567219</v>
+        <v>0.9741697786301139</v>
       </c>
       <c r="M12">
-        <v>0.9833934012731548</v>
+        <v>0.9835190159497907</v>
+      </c>
+      <c r="N12">
+        <v>0.9750240406267957</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9475919341302756</v>
+        <v>0.9477413538377986</v>
       </c>
       <c r="D13">
-        <v>0.977744199836274</v>
+        <v>0.9778662244788804</v>
       </c>
       <c r="E13">
-        <v>0.9587033875476526</v>
+        <v>0.9588505976389821</v>
       </c>
       <c r="F13">
-        <v>0.968259839771291</v>
+        <v>0.9683869173116553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024314898545663</v>
+        <v>1.024385530260477</v>
       </c>
       <c r="J13">
-        <v>0.9796912598652948</v>
+        <v>0.9798333284002902</v>
       </c>
       <c r="K13">
-        <v>0.9932650635067395</v>
+        <v>0.993384616771109</v>
       </c>
       <c r="L13">
-        <v>0.9746201037872226</v>
+        <v>0.9747641735102035</v>
       </c>
       <c r="M13">
-        <v>0.9839753093067105</v>
+        <v>0.9840997461056834</v>
+      </c>
+      <c r="N13">
+        <v>0.9754875571474183</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9498653703245752</v>
+        <v>0.9500101993881882</v>
       </c>
       <c r="D14">
-        <v>0.9795453567954454</v>
+        <v>0.9796636880426813</v>
       </c>
       <c r="E14">
-        <v>0.9608380716365882</v>
+        <v>0.960980818120445</v>
       </c>
       <c r="F14">
-        <v>0.9703454783230446</v>
+        <v>0.9704686401813551</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025270492715098</v>
+        <v>1.025339004221306</v>
       </c>
       <c r="J14">
-        <v>0.9815223792864832</v>
+        <v>0.9816602182582038</v>
       </c>
       <c r="K14">
-        <v>0.9948811001193365</v>
+        <v>0.9949970728518649</v>
       </c>
       <c r="L14">
-        <v>0.9765563425223844</v>
+        <v>0.9766960955385374</v>
       </c>
       <c r="M14">
-        <v>0.9858669108232379</v>
+        <v>0.9859875561397941</v>
+      </c>
+      <c r="N14">
+        <v>0.9769932510261016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9512522638496931</v>
+        <v>0.9513943264926454</v>
       </c>
       <c r="D15">
-        <v>0.9806444794859615</v>
+        <v>0.980760583395524</v>
       </c>
       <c r="E15">
-        <v>0.9621406216819475</v>
+        <v>0.9622806765910382</v>
       </c>
       <c r="F15">
-        <v>0.9716183664696455</v>
+        <v>0.9717391688078314</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025853126845482</v>
+        <v>1.025920359342377</v>
       </c>
       <c r="J15">
-        <v>0.9826393054315299</v>
+        <v>0.9827745919575095</v>
       </c>
       <c r="K15">
-        <v>0.9958668661551108</v>
+        <v>0.9959806786826149</v>
       </c>
       <c r="L15">
-        <v>0.9777375309076011</v>
+        <v>0.9778746796076903</v>
       </c>
       <c r="M15">
-        <v>0.9870210967881838</v>
+        <v>0.9871394563373448</v>
+      </c>
+      <c r="N15">
+        <v>0.9779111683751296</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,75 +995,81 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9591246889557523</v>
+        <v>0.9592515170488691</v>
       </c>
       <c r="D16">
-        <v>0.9868881660454801</v>
+        <v>0.9869919820696386</v>
       </c>
       <c r="E16">
-        <v>0.9695385798091096</v>
+        <v>0.9696637890117604</v>
       </c>
       <c r="F16">
-        <v>0.9788516733248941</v>
+        <v>0.9789594843196312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029155397941142</v>
+        <v>1.0292155687605</v>
       </c>
       <c r="J16">
-        <v>0.9889771369029418</v>
+        <v>0.9890983173583107</v>
       </c>
       <c r="K16">
-        <v>1.001460876822893</v>
+        <v>1.001562758834198</v>
       </c>
       <c r="L16">
-        <v>0.9844421329200832</v>
+        <v>0.9845648988525973</v>
       </c>
       <c r="M16">
-        <v>0.9935757263335753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9936814855379495</v>
+      </c>
+      <c r="N16">
+        <v>0.9831120997485435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9638982776016144</v>
+        <v>0.9640162362512898</v>
       </c>
       <c r="D17">
-        <v>0.990677914904424</v>
+        <v>0.9907745596197777</v>
       </c>
       <c r="E17">
-        <v>0.9740279895848104</v>
+        <v>0.974144537268262</v>
       </c>
       <c r="F17">
-        <v>0.9832443408795315</v>
+        <v>0.9833445906392817</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031153332871683</v>
+        <v>1.031209377872373</v>
       </c>
       <c r="J17">
-        <v>0.9928181463491689</v>
+        <v>0.9929310744475967</v>
       </c>
       <c r="K17">
-        <v>1.004851392446731</v>
+        <v>1.004946301160741</v>
       </c>
       <c r="L17">
-        <v>0.9885072604708927</v>
+        <v>0.9886216201909545</v>
       </c>
       <c r="M17">
-        <v>0.9975526773137227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9976510906937222</v>
+      </c>
+      <c r="N17">
+        <v>0.9862573984119094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9666274889590173</v>
+        <v>0.9667404947112465</v>
       </c>
       <c r="D18">
-        <v>0.9928458595815143</v>
+        <v>0.9929384940378202</v>
       </c>
       <c r="E18">
-        <v>0.9765959110479191</v>
+        <v>0.976707615943429</v>
       </c>
       <c r="F18">
-        <v>0.9857580100879433</v>
+        <v>0.9858540383214224</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032293959254636</v>
+        <v>1.032347695518149</v>
       </c>
       <c r="J18">
-        <v>0.9950133817754842</v>
+        <v>0.9951216884325618</v>
       </c>
       <c r="K18">
-        <v>1.006789236142737</v>
+        <v>1.00688024179744</v>
       </c>
       <c r="L18">
-        <v>0.9908312402639021</v>
+        <v>0.9909408950352159</v>
       </c>
       <c r="M18">
-        <v>0.999827192232575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9999215003145391</v>
+      </c>
+      <c r="N18">
+        <v>0.9880526051157746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675490895812621</v>
+        <v>0.9676604416490725</v>
       </c>
       <c r="D19">
-        <v>0.9935781279009354</v>
+        <v>0.9936694224977007</v>
       </c>
       <c r="E19">
-        <v>0.9774632409440924</v>
+        <v>0.9775733279540605</v>
       </c>
       <c r="F19">
-        <v>0.9866071947869413</v>
+        <v>0.9867018136726075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032678840478548</v>
+        <v>1.03273180512101</v>
       </c>
       <c r="J19">
-        <v>0.9957545303960091</v>
+        <v>0.9958612919083089</v>
       </c>
       <c r="K19">
-        <v>1.007443495465016</v>
+        <v>1.00753319649988</v>
       </c>
       <c r="L19">
-        <v>0.9916159657964458</v>
+        <v>0.9917240479338282</v>
       </c>
       <c r="M19">
-        <v>1.000595371454875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.000688308334527</v>
+      </c>
+      <c r="N19">
+        <v>0.9886582877232879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9633919084945325</v>
+        <v>0.9635107953874341</v>
       </c>
       <c r="D20">
-        <v>0.9902757782388624</v>
+        <v>0.9903731740825881</v>
       </c>
       <c r="E20">
-        <v>0.9735516402072729</v>
+        <v>0.9736690950175373</v>
       </c>
       <c r="F20">
-        <v>0.9827781421647753</v>
+        <v>0.9828791831680443</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030941568895215</v>
+        <v>1.030998046201525</v>
       </c>
       <c r="J20">
-        <v>0.9924107839518185</v>
+        <v>0.9925245771182791</v>
       </c>
       <c r="K20">
-        <v>1.004491799000224</v>
+        <v>1.004587438479249</v>
       </c>
       <c r="L20">
-        <v>0.9880760605728237</v>
+        <v>0.9881913012055341</v>
       </c>
       <c r="M20">
-        <v>0.9971307311354404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9972299136489698</v>
+      </c>
+      <c r="N20">
+        <v>0.9859240717315154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9491988134132138</v>
+        <v>0.9493449811799998</v>
       </c>
       <c r="D21">
-        <v>0.9790171970737787</v>
+        <v>0.9791366057180009</v>
       </c>
       <c r="E21">
-        <v>0.9602121323003551</v>
+        <v>0.9603561808062434</v>
       </c>
       <c r="F21">
-        <v>0.9697338644253094</v>
+        <v>0.9698581681254453</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024990385101299</v>
+        <v>1.025059515175916</v>
       </c>
       <c r="J21">
-        <v>0.9809855347342354</v>
+        <v>0.9811246078835842</v>
       </c>
       <c r="K21">
-        <v>0.9944073059229691</v>
+        <v>0.9945243233269676</v>
       </c>
       <c r="L21">
-        <v>0.9759886493423156</v>
+        <v>0.9761296618114721</v>
       </c>
       <c r="M21">
-        <v>0.9853122569028893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9854340080752144</v>
+      </c>
+      <c r="N21">
+        <v>0.9765519207790221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396812952520913</v>
+        <v>0.9398472538795424</v>
       </c>
       <c r="D22">
-        <v>0.9714824499196206</v>
+        <v>0.9716177534698504</v>
       </c>
       <c r="E22">
-        <v>0.9512803710379478</v>
+        <v>0.951443633446298</v>
       </c>
       <c r="F22">
-        <v>0.9610115641121794</v>
+        <v>0.961152751061134</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020985120457423</v>
+        <v>1.021063368452278</v>
       </c>
       <c r="J22">
-        <v>0.9733178106937336</v>
+        <v>0.9734750565565852</v>
       </c>
       <c r="K22">
-        <v>0.9876408338609856</v>
+        <v>0.9877732448606488</v>
       </c>
       <c r="L22">
-        <v>0.9678829601511703</v>
+        <v>0.9680425318704176</v>
       </c>
       <c r="M22">
-        <v>0.9773970828100182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9775351633579706</v>
+      </c>
+      <c r="N22">
+        <v>0.970239072336917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9447883882885059</v>
+        <v>0.9449435669766316</v>
       </c>
       <c r="D23">
-        <v>0.9755240252553602</v>
+        <v>0.9756506785683775</v>
       </c>
       <c r="E23">
-        <v>0.9560717959659807</v>
+        <v>0.9562246007044792</v>
       </c>
       <c r="F23">
-        <v>0.9656894520071341</v>
+        <v>0.9658214421949033</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023135625034698</v>
+        <v>1.02320891272113</v>
       </c>
       <c r="J23">
-        <v>0.9774328142757132</v>
+        <v>0.9775801783490493</v>
       </c>
       <c r="K23">
-        <v>0.9912719949793798</v>
+        <v>0.9913960328003596</v>
       </c>
       <c r="L23">
-        <v>0.9722323996560781</v>
+        <v>0.972381876092958</v>
       </c>
       <c r="M23">
-        <v>0.9816432880865398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9817724785772104</v>
+      </c>
+      <c r="N23">
+        <v>0.9736290893233094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1323,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9636208843114749</v>
+        <v>0.9637393510962432</v>
       </c>
       <c r="D24">
-        <v>0.9904576172418731</v>
+        <v>0.9905546731544334</v>
       </c>
       <c r="E24">
-        <v>0.9737670376867179</v>
+        <v>0.9738840819645357</v>
       </c>
       <c r="F24">
-        <v>0.9829889463157681</v>
+        <v>0.9830896292121479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031037331943702</v>
+        <v>1.031093613610318</v>
       </c>
       <c r="J24">
-        <v>0.9925949922518356</v>
+        <v>0.9927083939433168</v>
       </c>
       <c r="K24">
-        <v>1.004654406061959</v>
+        <v>1.004749714836514</v>
       </c>
       <c r="L24">
-        <v>0.9882710460930993</v>
+        <v>0.9883858880722732</v>
       </c>
       <c r="M24">
-        <v>0.9973215292571268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9974203636831019</v>
+      </c>
+      <c r="N24">
+        <v>0.9860748087768713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9833373302384166</v>
+        <v>0.9834217300151598</v>
       </c>
       <c r="D25">
-        <v>1.006137311326964</v>
+        <v>1.006206703796265</v>
       </c>
       <c r="E25">
-        <v>0.992336800191557</v>
+        <v>0.9924204492961949</v>
       </c>
       <c r="F25">
-        <v>1.001183784914276</v>
+        <v>1.001255445798827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039247313612117</v>
+        <v>1.039287645713458</v>
       </c>
       <c r="J25">
-        <v>1.008438772791851</v>
+        <v>1.0085201961116</v>
       </c>
       <c r="K25">
-        <v>1.018641094713456</v>
+        <v>1.018709426744439</v>
       </c>
       <c r="L25">
-        <v>1.005055253821564</v>
+        <v>1.00513757871562</v>
       </c>
       <c r="M25">
-        <v>1.013763751899947</v>
+        <v>1.013834303800514</v>
+      </c>
+      <c r="N25">
+        <v>0.9989894717496635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9977754326187152</v>
+        <v>1.011399140376787</v>
       </c>
       <c r="D2">
-        <v>1.017645434556147</v>
+        <v>1.025624720076569</v>
       </c>
       <c r="E2">
-        <v>1.005966068064405</v>
+        <v>1.028235889588802</v>
       </c>
       <c r="F2">
-        <v>1.014557128397292</v>
+        <v>1.033225579811903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045209064951039</v>
+        <v>1.045583127278046</v>
       </c>
       <c r="J2">
-        <v>1.020022884310642</v>
+        <v>1.033244169766719</v>
       </c>
       <c r="K2">
-        <v>1.028864294385081</v>
+        <v>1.036738241758323</v>
       </c>
       <c r="L2">
-        <v>1.017342907149788</v>
+        <v>1.039315384583063</v>
       </c>
       <c r="M2">
-        <v>1.025817317192771</v>
+        <v>1.044240651202618</v>
       </c>
       <c r="N2">
-        <v>1.008311286894862</v>
+        <v>1.03471149500255</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007555894236495</v>
+        <v>1.020389644940972</v>
       </c>
       <c r="D3">
-        <v>1.025449241491735</v>
+        <v>1.032502901544204</v>
       </c>
       <c r="E3">
-        <v>1.015209155147797</v>
+        <v>1.036816819599002</v>
       </c>
       <c r="F3">
-        <v>1.02364733123199</v>
+        <v>1.041951351621567</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049210835235175</v>
+        <v>1.048328133920505</v>
       </c>
       <c r="J3">
-        <v>1.027842676065859</v>
+        <v>1.040339489955113</v>
       </c>
       <c r="K3">
-        <v>1.03576652905367</v>
+        <v>1.04273612958471</v>
       </c>
       <c r="L3">
-        <v>1.025651061340325</v>
+        <v>1.046999335468965</v>
       </c>
       <c r="M3">
-        <v>1.033986323033067</v>
+        <v>1.052074184922334</v>
       </c>
       <c r="N3">
-        <v>1.01460659562255</v>
+        <v>1.041816891359456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013624171678846</v>
+        <v>1.026004938062451</v>
       </c>
       <c r="D4">
-        <v>1.03029434398035</v>
+        <v>1.03680039866694</v>
       </c>
       <c r="E4">
-        <v>1.020949419224326</v>
+        <v>1.042182507166109</v>
       </c>
       <c r="F4">
-        <v>1.029298411107043</v>
+        <v>1.047408190118789</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051677970532553</v>
+        <v>1.050028525175312</v>
       </c>
       <c r="J4">
-        <v>1.032685675748523</v>
+        <v>1.044766042000102</v>
       </c>
       <c r="K4">
-        <v>1.040040390741476</v>
+        <v>1.046474071738731</v>
       </c>
       <c r="L4">
-        <v>1.03080141086237</v>
+        <v>1.051797147816296</v>
       </c>
       <c r="M4">
-        <v>1.039055636110131</v>
+        <v>1.056966225720875</v>
       </c>
       <c r="N4">
-        <v>1.018486180374148</v>
+        <v>1.046249729616083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.016117649916384</v>
+        <v>1.028320422143966</v>
       </c>
       <c r="D5">
-        <v>1.032285836708558</v>
+        <v>1.038572702139523</v>
       </c>
       <c r="E5">
-        <v>1.023309318604556</v>
+        <v>1.044396466225497</v>
       </c>
       <c r="F5">
-        <v>1.031622963167728</v>
+        <v>1.049659897863455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052687873513486</v>
+        <v>1.050726227759158</v>
       </c>
       <c r="J5">
-        <v>1.03467351361334</v>
+        <v>1.04659005670948</v>
       </c>
       <c r="K5">
-        <v>1.041794375561663</v>
+        <v>1.048013349206487</v>
       </c>
       <c r="L5">
-        <v>1.032916572662973</v>
+        <v>1.053775114835827</v>
       </c>
       <c r="M5">
-        <v>1.041138719564308</v>
+        <v>1.058983236361159</v>
       </c>
       <c r="N5">
-        <v>1.020073961994926</v>
+        <v>1.048076334635565</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016533062855732</v>
+        <v>1.028706639791094</v>
       </c>
       <c r="D6">
-        <v>1.032617651323052</v>
+        <v>1.038868327139959</v>
       </c>
       <c r="E6">
-        <v>1.023702545624636</v>
+        <v>1.044765829691953</v>
       </c>
       <c r="F6">
-        <v>1.032010376077039</v>
+        <v>1.050035567217516</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052855894458891</v>
+        <v>1.050842397305417</v>
       </c>
       <c r="J6">
-        <v>1.035004557635184</v>
+        <v>1.046894220431971</v>
       </c>
       <c r="K6">
-        <v>1.042086459345126</v>
+        <v>1.048269972406561</v>
       </c>
       <c r="L6">
-        <v>1.033268889332442</v>
+        <v>1.054105008039264</v>
       </c>
       <c r="M6">
-        <v>1.041485762379434</v>
+        <v>1.059319652913582</v>
       </c>
       <c r="N6">
-        <v>1.020338111136402</v>
+        <v>1.04838093030543</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013657710295836</v>
+        <v>1.026036051216711</v>
       </c>
       <c r="D7">
-        <v>1.030321128351408</v>
+        <v>1.03682421243222</v>
       </c>
       <c r="E7">
-        <v>1.02098115647643</v>
+        <v>1.042212250690771</v>
       </c>
       <c r="F7">
-        <v>1.029329667843433</v>
+        <v>1.047438440232053</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051691569642385</v>
+        <v>1.050037914010121</v>
       </c>
       <c r="J7">
-        <v>1.03271242191532</v>
+        <v>1.044790556483244</v>
       </c>
       <c r="K7">
-        <v>1.040063991466624</v>
+        <v>1.04649476335716</v>
       </c>
       <c r="L7">
-        <v>1.030829865519289</v>
+        <v>1.051823727547268</v>
       </c>
       <c r="M7">
-        <v>1.039083654520572</v>
+        <v>1.056993329340369</v>
       </c>
       <c r="N7">
-        <v>1.018507562143182</v>
+        <v>1.046274278912602</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001137707680744</v>
+        <v>1.014481426191173</v>
       </c>
       <c r="D8">
-        <v>1.020327394975381</v>
+        <v>1.027982403987111</v>
       </c>
       <c r="E8">
-        <v>1.009142397382617</v>
+        <v>1.031176385528055</v>
       </c>
       <c r="F8">
-        <v>1.017679651969466</v>
+        <v>1.036215586342211</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046588079479327</v>
+        <v>1.046527152459665</v>
       </c>
       <c r="J8">
-        <v>1.022712958854106</v>
+        <v>1.035677733307783</v>
       </c>
       <c r="K8">
-        <v>1.031238882461777</v>
+        <v>1.038796220470913</v>
       </c>
       <c r="L8">
-        <v>1.02019993695276</v>
+        <v>1.041949984405418</v>
       </c>
       <c r="M8">
-        <v>1.028625350265227</v>
+        <v>1.046926361072656</v>
       </c>
       <c r="N8">
-        <v>1.010481033983611</v>
+        <v>1.037148514482977</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.976834503322321</v>
+        <v>0.9924077138106016</v>
       </c>
       <c r="D9">
-        <v>1.000963710154676</v>
+        <v>1.011111617712519</v>
       </c>
       <c r="E9">
-        <v>0.9862118470758219</v>
+        <v>1.010149523739477</v>
       </c>
       <c r="F9">
-        <v>0.9951663036559742</v>
+        <v>1.014837266412974</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036553801728633</v>
+        <v>1.039708622859664</v>
       </c>
       <c r="J9">
-        <v>1.003232678003104</v>
+        <v>1.018231453692175</v>
       </c>
       <c r="K9">
-        <v>1.014041171160474</v>
+        <v>1.024026952872392</v>
       </c>
       <c r="L9">
-        <v>0.999532660111474</v>
+        <v>1.023080050613937</v>
       </c>
       <c r="M9">
-        <v>1.008338294070757</v>
+        <v>1.027694120086913</v>
       </c>
       <c r="N9">
-        <v>0.9946827104949973</v>
+        <v>1.019677459149198</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9587053383475045</v>
+        <v>0.9762708991224412</v>
       </c>
       <c r="D10">
-        <v>0.9865585638609415</v>
+        <v>0.9988053812488471</v>
       </c>
       <c r="E10">
-        <v>0.9691503307207456</v>
+        <v>0.994824277153871</v>
       </c>
       <c r="F10">
-        <v>0.978457138514876</v>
+        <v>0.9992592630160384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02898679443607</v>
+        <v>1.034654004165551</v>
       </c>
       <c r="J10">
-        <v>0.9886588642712477</v>
+        <v>1.005458673359396</v>
       </c>
       <c r="K10">
-        <v>1.001174823922439</v>
+        <v>1.013196238457162</v>
       </c>
       <c r="L10">
-        <v>0.9840998572781762</v>
+        <v>1.009287613936272</v>
       </c>
       <c r="M10">
-        <v>0.9932265633850498</v>
+        <v>1.013641904589671</v>
       </c>
       <c r="N10">
-        <v>0.9827511248202689</v>
+        <v>1.006886540003288</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9502752096009909</v>
+        <v>0.9688717735449603</v>
       </c>
       <c r="D11">
-        <v>0.9798736840470306</v>
+        <v>0.9931726229072172</v>
       </c>
       <c r="E11">
-        <v>0.9612296763360865</v>
+        <v>0.9878104724878408</v>
       </c>
       <c r="F11">
-        <v>0.9707118677368631</v>
+        <v>0.9921306206026977</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025450331702081</v>
+        <v>1.032321430409223</v>
       </c>
       <c r="J11">
-        <v>0.9818735885811798</v>
+        <v>0.9995994141488928</v>
       </c>
       <c r="K11">
-        <v>0.9951854030066467</v>
+        <v>1.008224452424221</v>
       </c>
       <c r="L11">
-        <v>0.9769217518697557</v>
+        <v>1.002965985695053</v>
       </c>
       <c r="M11">
-        <v>0.9862080901401939</v>
+        <v>1.007202483598285</v>
       </c>
       <c r="N11">
-        <v>0.9771690371318568</v>
+        <v>1.00101895997264</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9470432955439286</v>
+        <v>0.9660537857745488</v>
       </c>
       <c r="D12">
-        <v>0.9773133370130206</v>
+        <v>0.9910292142253321</v>
       </c>
       <c r="E12">
-        <v>0.9581953138208746</v>
+        <v>0.9851414403420137</v>
       </c>
       <c r="F12">
-        <v>0.9677466597460525</v>
+        <v>0.9894180176549653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024092046757007</v>
+        <v>1.031430994966029</v>
       </c>
       <c r="J12">
-        <v>0.9792711943561118</v>
+        <v>0.9973676847479078</v>
       </c>
       <c r="K12">
-        <v>0.9928884782460063</v>
+        <v>1.006330322323141</v>
       </c>
       <c r="L12">
-        <v>0.9741697786301139</v>
+        <v>1.000558952839956</v>
       </c>
       <c r="M12">
-        <v>0.9835190159497907</v>
+        <v>1.004750799168224</v>
       </c>
       <c r="N12">
-        <v>0.9750240406267957</v>
+        <v>0.9987840612599221</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9477413538377986</v>
+        <v>0.9666615442797228</v>
       </c>
       <c r="D13">
-        <v>0.9778662244788804</v>
+        <v>0.9914913957960942</v>
       </c>
       <c r="E13">
-        <v>0.9588505976389821</v>
+        <v>0.9857169700986312</v>
       </c>
       <c r="F13">
-        <v>0.9683869173116553</v>
+        <v>0.9900029367844405</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024385530260477</v>
+        <v>1.031623126179382</v>
       </c>
       <c r="J13">
-        <v>0.9798333284002902</v>
+        <v>0.9978490102167815</v>
       </c>
       <c r="K13">
-        <v>0.993384616771109</v>
+        <v>1.006738854405725</v>
       </c>
       <c r="L13">
-        <v>0.9747641735102035</v>
+        <v>1.00107805023171</v>
       </c>
       <c r="M13">
-        <v>0.9840997461056834</v>
+        <v>1.005279516925197</v>
       </c>
       <c r="N13">
-        <v>0.9754875571474183</v>
+        <v>0.9992660702661706</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9500101993881882</v>
+        <v>0.9686403079673088</v>
       </c>
       <c r="D14">
-        <v>0.9796636880426813</v>
+        <v>0.9929965266310011</v>
       </c>
       <c r="E14">
-        <v>0.960980818120445</v>
+        <v>0.987591195911136</v>
       </c>
       <c r="F14">
-        <v>0.9704686401813551</v>
+        <v>0.991907761786377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025339004221306</v>
+        <v>1.032248331978401</v>
       </c>
       <c r="J14">
-        <v>0.9816602182582038</v>
+        <v>0.9994161059970241</v>
       </c>
       <c r="K14">
-        <v>0.9949970728518649</v>
+        <v>1.008068881935726</v>
       </c>
       <c r="L14">
-        <v>0.9766960955385374</v>
+        <v>1.00276826224631</v>
       </c>
       <c r="M14">
-        <v>0.9859875561397941</v>
+        <v>1.00700108820265</v>
       </c>
       <c r="N14">
-        <v>0.9769932510261016</v>
+        <v>1.00083539150217</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9513943264926454</v>
+        <v>0.9698500079950695</v>
       </c>
       <c r="D15">
-        <v>0.980760583395524</v>
+        <v>0.9939169293841063</v>
       </c>
       <c r="E15">
-        <v>0.9622806765910382</v>
+        <v>0.9887372837778439</v>
       </c>
       <c r="F15">
-        <v>0.9717391688078314</v>
+        <v>0.9930725781373069</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025920359342377</v>
+        <v>1.032630281012788</v>
       </c>
       <c r="J15">
-        <v>0.9827745919575095</v>
+        <v>1.000374115482102</v>
       </c>
       <c r="K15">
-        <v>0.9959806786826149</v>
+        <v>1.008881911275504</v>
       </c>
       <c r="L15">
-        <v>0.9778746796076903</v>
+        <v>1.003801642055113</v>
       </c>
       <c r="M15">
-        <v>0.9871394563373448</v>
+        <v>1.008053667170243</v>
       </c>
       <c r="N15">
-        <v>0.9779111683751296</v>
+        <v>1.001794761470602</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9592515170488691</v>
+        <v>0.9767526476621426</v>
       </c>
       <c r="D16">
-        <v>0.9869919820696386</v>
+        <v>0.9991723569520754</v>
       </c>
       <c r="E16">
-        <v>0.9696637890117604</v>
+        <v>0.9952812272137762</v>
       </c>
       <c r="F16">
-        <v>0.9789594843196312</v>
+        <v>0.9997237123262571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0292155687605</v>
+        <v>1.034805582616948</v>
       </c>
       <c r="J16">
-        <v>0.9890983173583107</v>
+        <v>1.00584012400258</v>
       </c>
       <c r="K16">
-        <v>1.001562758834198</v>
+        <v>1.013519849107908</v>
       </c>
       <c r="L16">
-        <v>0.9845648988525973</v>
+        <v>1.009699276465904</v>
       </c>
       <c r="M16">
-        <v>0.9936814855379495</v>
+        <v>1.014061264605597</v>
       </c>
       <c r="N16">
-        <v>0.9831120997485435</v>
+        <v>1.007268532350138</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9640162362512898</v>
+        <v>0.9809671845261962</v>
       </c>
       <c r="D17">
-        <v>0.9907745596197777</v>
+        <v>1.002383964883119</v>
       </c>
       <c r="E17">
-        <v>0.974144537268262</v>
+        <v>0.9992803177303858</v>
       </c>
       <c r="F17">
-        <v>0.9833445906392817</v>
+        <v>1.003788528532121</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031209377872373</v>
+        <v>1.036130002353268</v>
       </c>
       <c r="J17">
-        <v>0.9929310744475967</v>
+        <v>1.009176938219923</v>
       </c>
       <c r="K17">
-        <v>1.004946301160741</v>
+        <v>1.016350323277909</v>
       </c>
       <c r="L17">
-        <v>0.9886216201909545</v>
+        <v>1.013300977361475</v>
       </c>
       <c r="M17">
-        <v>0.9976510906937222</v>
+        <v>1.017730455604238</v>
       </c>
       <c r="N17">
-        <v>0.9862573984119094</v>
+        <v>1.010610085226409</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9667404947112465</v>
+        <v>0.9833863122331142</v>
       </c>
       <c r="D18">
-        <v>0.9929384940378202</v>
+        <v>1.004228317601901</v>
       </c>
       <c r="E18">
-        <v>0.976707615943429</v>
+        <v>1.001576994135618</v>
       </c>
       <c r="F18">
-        <v>0.9858540383214224</v>
+        <v>1.006123029283634</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032347695518149</v>
+        <v>1.036888812511975</v>
       </c>
       <c r="J18">
-        <v>0.9951216884325618</v>
+        <v>1.011091998376825</v>
       </c>
       <c r="K18">
-        <v>1.00688024179744</v>
+        <v>1.017974461753506</v>
       </c>
       <c r="L18">
-        <v>0.9909408950352159</v>
+        <v>1.015368562015234</v>
       </c>
       <c r="M18">
-        <v>0.9999215003145391</v>
+        <v>1.019836901698896</v>
       </c>
       <c r="N18">
-        <v>0.9880526051157746</v>
+        <v>1.012527864988393</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9676604416490725</v>
+        <v>0.9842047472659187</v>
       </c>
       <c r="D19">
-        <v>0.9936694224977007</v>
+        <v>1.004852439256226</v>
       </c>
       <c r="E19">
-        <v>0.9775733279540605</v>
+        <v>1.002354201644387</v>
       </c>
       <c r="F19">
-        <v>0.9867018136726075</v>
+        <v>1.0069130499138</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03273180512101</v>
+        <v>1.037145289352929</v>
       </c>
       <c r="J19">
-        <v>0.9958612919083089</v>
+        <v>1.01173984931416</v>
       </c>
       <c r="K19">
-        <v>1.00753319649988</v>
+        <v>1.01852383885946</v>
       </c>
       <c r="L19">
-        <v>0.9917240479338282</v>
+        <v>1.016068095886083</v>
       </c>
       <c r="M19">
-        <v>1.000688308334527</v>
+        <v>1.020549603554483</v>
       </c>
       <c r="N19">
-        <v>0.9886582877232879</v>
+        <v>1.013176635948369</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9635107953874341</v>
+        <v>0.9805191047945115</v>
       </c>
       <c r="D20">
-        <v>0.9903731740825881</v>
+        <v>1.002042417984627</v>
       </c>
       <c r="E20">
-        <v>0.9736690950175373</v>
+        <v>0.9988550159522441</v>
       </c>
       <c r="F20">
-        <v>0.9828791831680443</v>
+        <v>1.003356228703299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030998046201525</v>
+        <v>1.035989337857494</v>
       </c>
       <c r="J20">
-        <v>0.9925245771182791</v>
+        <v>1.008822201553893</v>
       </c>
       <c r="K20">
-        <v>1.004587438479249</v>
+        <v>1.016049448755422</v>
       </c>
       <c r="L20">
-        <v>0.9881913012055341</v>
+        <v>1.012918028447158</v>
       </c>
       <c r="M20">
-        <v>0.9972299136489698</v>
+        <v>1.017340318487044</v>
       </c>
       <c r="N20">
-        <v>0.9859240717315154</v>
+        <v>1.010254844793623</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9493449811799998</v>
+        <v>0.9680596026719784</v>
       </c>
       <c r="D21">
-        <v>0.9791366057180009</v>
+        <v>0.9925547639195169</v>
       </c>
       <c r="E21">
-        <v>0.9603561808062434</v>
+        <v>0.9870411068220143</v>
       </c>
       <c r="F21">
-        <v>0.9698581681254453</v>
+        <v>0.9913486881897284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025059515175916</v>
+        <v>1.032064908717197</v>
       </c>
       <c r="J21">
-        <v>0.9811246078835842</v>
+        <v>0.998956216362987</v>
       </c>
       <c r="K21">
-        <v>0.9945243233269676</v>
+        <v>1.007678574883764</v>
       </c>
       <c r="L21">
-        <v>0.9761296618114721</v>
+        <v>1.002272220003643</v>
       </c>
       <c r="M21">
-        <v>0.9854340080752144</v>
+        <v>1.006495837127782</v>
       </c>
       <c r="N21">
-        <v>0.9765519207790221</v>
+        <v>1.000374848772102</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9398472538795424</v>
+        <v>0.9598180582051192</v>
       </c>
       <c r="D22">
-        <v>0.9716177534698504</v>
+        <v>0.9862900856168632</v>
       </c>
       <c r="E22">
-        <v>0.951443633446298</v>
+        <v>0.9792396845692742</v>
       </c>
       <c r="F22">
-        <v>0.961152751061134</v>
+        <v>0.9834201622846446</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021063368452278</v>
+        <v>1.029457010028816</v>
       </c>
       <c r="J22">
-        <v>0.9734750565565852</v>
+        <v>0.9924291036458338</v>
       </c>
       <c r="K22">
-        <v>0.9877732448606488</v>
+        <v>1.00213812052104</v>
       </c>
       <c r="L22">
-        <v>0.9680425318704176</v>
+        <v>0.9952339390742573</v>
       </c>
       <c r="M22">
-        <v>0.9775351633579706</v>
+        <v>0.9993273829544433</v>
       </c>
       <c r="N22">
-        <v>0.970239072336917</v>
+        <v>0.9938384668062201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9449435669766316</v>
+        <v>0.964228685949589</v>
       </c>
       <c r="D23">
-        <v>0.9756506785683775</v>
+        <v>0.9896415840814641</v>
       </c>
       <c r="E23">
-        <v>0.9562246007044792</v>
+        <v>0.9834134658606229</v>
       </c>
       <c r="F23">
-        <v>0.9658214421949033</v>
+        <v>0.9876618717507074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02320891272113</v>
+        <v>1.030853736788455</v>
       </c>
       <c r="J23">
-        <v>0.9775801783490493</v>
+        <v>0.9959222496101605</v>
       </c>
       <c r="K23">
-        <v>0.9913960328003596</v>
+        <v>1.005103432003269</v>
       </c>
       <c r="L23">
-        <v>0.972381876092958</v>
+        <v>0.9990002059451671</v>
       </c>
       <c r="M23">
-        <v>0.9817724785772104</v>
+        <v>1.003163194144818</v>
       </c>
       <c r="N23">
-        <v>0.9736290893233094</v>
+        <v>0.9973365734384854</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9637393510962432</v>
+        <v>0.9807216931242948</v>
       </c>
       <c r="D24">
-        <v>0.9905546731544334</v>
+        <v>1.002196837308434</v>
       </c>
       <c r="E24">
-        <v>0.9738840819645357</v>
+        <v>0.9990473020241016</v>
       </c>
       <c r="F24">
-        <v>0.9830896292121479</v>
+        <v>1.003551678468606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031093613610318</v>
+        <v>1.036052940253934</v>
       </c>
       <c r="J24">
-        <v>0.9927083939433168</v>
+        <v>1.008982587908159</v>
       </c>
       <c r="K24">
-        <v>1.004749714836514</v>
+        <v>1.016185483543129</v>
       </c>
       <c r="L24">
-        <v>0.9883858880722732</v>
+        <v>1.013091168787801</v>
       </c>
       <c r="M24">
-        <v>0.9974203636831019</v>
+        <v>1.017516708418476</v>
       </c>
       <c r="N24">
-        <v>0.9860748087768713</v>
+        <v>1.010415458914909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9834217300151598</v>
+        <v>0.9983426007989148</v>
       </c>
       <c r="D25">
-        <v>1.006206703796265</v>
+        <v>1.015644064825554</v>
       </c>
       <c r="E25">
-        <v>0.9924204492961949</v>
+        <v>1.015795773577369</v>
       </c>
       <c r="F25">
-        <v>1.001255445798827</v>
+        <v>1.020577326437864</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039287645713458</v>
+        <v>1.041554188151457</v>
       </c>
       <c r="J25">
-        <v>1.0085201961116</v>
+        <v>1.022925872068888</v>
       </c>
       <c r="K25">
-        <v>1.018709426744439</v>
+        <v>1.028004285601282</v>
       </c>
       <c r="L25">
-        <v>1.00513757871562</v>
+        <v>1.028153731088149</v>
       </c>
       <c r="M25">
-        <v>1.013834303800514</v>
+        <v>1.032864388397928</v>
       </c>
       <c r="N25">
-        <v>0.9989894717496635</v>
+        <v>1.024378544138463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011399140376787</v>
+        <v>1.014168158286411</v>
       </c>
       <c r="D2">
-        <v>1.025624720076569</v>
+        <v>1.0309739467895</v>
       </c>
       <c r="E2">
-        <v>1.028235889588802</v>
+        <v>1.031528823513363</v>
       </c>
       <c r="F2">
-        <v>1.033225579811903</v>
+        <v>1.037516801403255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045583127278046</v>
+        <v>1.047178725767176</v>
       </c>
       <c r="J2">
-        <v>1.033244169766719</v>
+        <v>1.035933205374951</v>
       </c>
       <c r="K2">
-        <v>1.036738241758323</v>
+        <v>1.042017993202581</v>
       </c>
       <c r="L2">
-        <v>1.039315384583063</v>
+        <v>1.042565714833815</v>
       </c>
       <c r="M2">
-        <v>1.044240651202618</v>
+        <v>1.04847708633452</v>
       </c>
       <c r="N2">
-        <v>1.03471149500255</v>
+        <v>1.014909690973644</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020389644940972</v>
+        <v>1.020687220415851</v>
       </c>
       <c r="D3">
-        <v>1.032502901544204</v>
+        <v>1.035873708946874</v>
       </c>
       <c r="E3">
-        <v>1.036816819599002</v>
+        <v>1.037517464126568</v>
       </c>
       <c r="F3">
-        <v>1.041951351621567</v>
+        <v>1.043407184269417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048328133920505</v>
+        <v>1.048801374450749</v>
       </c>
       <c r="J3">
-        <v>1.040339489955113</v>
+        <v>1.040629388896024</v>
       </c>
       <c r="K3">
-        <v>1.04273612958471</v>
+        <v>1.046067266890238</v>
       </c>
       <c r="L3">
-        <v>1.046999335468965</v>
+        <v>1.047691792826395</v>
       </c>
       <c r="M3">
-        <v>1.052074184922334</v>
+        <v>1.05351322732838</v>
       </c>
       <c r="N3">
-        <v>1.041816891359456</v>
+        <v>1.016557670269067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026004938062451</v>
+        <v>1.024796361028727</v>
       </c>
       <c r="D4">
-        <v>1.03680039866694</v>
+        <v>1.038964364125628</v>
       </c>
       <c r="E4">
-        <v>1.042182507166109</v>
+        <v>1.041298082480271</v>
       </c>
       <c r="F4">
-        <v>1.047408190118789</v>
+        <v>1.04712575186464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050028525175312</v>
+        <v>1.049812209304305</v>
       </c>
       <c r="J4">
-        <v>1.044766042000102</v>
+        <v>1.043586360133013</v>
       </c>
       <c r="K4">
-        <v>1.046474071738731</v>
+        <v>1.048614211931165</v>
       </c>
       <c r="L4">
-        <v>1.051797147816296</v>
+        <v>1.050922372298761</v>
       </c>
       <c r="M4">
-        <v>1.056966225720875</v>
+        <v>1.056686829157544</v>
       </c>
       <c r="N4">
-        <v>1.046249729616083</v>
+        <v>1.017594199935945</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028320422143966</v>
+        <v>1.026498996008899</v>
       </c>
       <c r="D5">
-        <v>1.038572702139523</v>
+        <v>1.040245421488239</v>
       </c>
       <c r="E5">
-        <v>1.044396466225497</v>
+        <v>1.042865924440413</v>
       </c>
       <c r="F5">
-        <v>1.049659897863455</v>
+        <v>1.048667844614294</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050726227759158</v>
+        <v>1.050228124841669</v>
       </c>
       <c r="J5">
-        <v>1.04659005670948</v>
+        <v>1.044810776196444</v>
       </c>
       <c r="K5">
-        <v>1.048013349206487</v>
+        <v>1.049668174156362</v>
       </c>
       <c r="L5">
-        <v>1.053775114835827</v>
+        <v>1.052260784760619</v>
       </c>
       <c r="M5">
-        <v>1.058983236361159</v>
+        <v>1.058001556093771</v>
       </c>
       <c r="N5">
-        <v>1.048076334635565</v>
+        <v>1.018023118512551</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028706639791094</v>
+        <v>1.026783454307947</v>
       </c>
       <c r="D6">
-        <v>1.038868327139959</v>
+        <v>1.040459469990697</v>
       </c>
       <c r="E6">
-        <v>1.044765829691953</v>
+        <v>1.043127939417248</v>
       </c>
       <c r="F6">
-        <v>1.050035567217516</v>
+        <v>1.04892555514137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050842397305417</v>
+        <v>1.050297437917053</v>
       </c>
       <c r="J6">
-        <v>1.046894220431971</v>
+        <v>1.04501528928573</v>
       </c>
       <c r="K6">
-        <v>1.048269972406561</v>
+        <v>1.049844176348303</v>
       </c>
       <c r="L6">
-        <v>1.054105008039264</v>
+        <v>1.052484379809116</v>
       </c>
       <c r="M6">
-        <v>1.059319652913582</v>
+        <v>1.058221189293179</v>
       </c>
       <c r="N6">
-        <v>1.04838093030543</v>
+        <v>1.018094743185438</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026036051216711</v>
+        <v>1.024819207731822</v>
       </c>
       <c r="D7">
-        <v>1.03682421243222</v>
+        <v>1.038981552315171</v>
       </c>
       <c r="E7">
-        <v>1.042212250690771</v>
+        <v>1.041319115289179</v>
       </c>
       <c r="F7">
-        <v>1.047438440232053</v>
+        <v>1.047146439324085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050037914010121</v>
+        <v>1.049817801889814</v>
       </c>
       <c r="J7">
-        <v>1.044790556483244</v>
+        <v>1.043602793175811</v>
       </c>
       <c r="K7">
-        <v>1.04649476335716</v>
+        <v>1.048628359977449</v>
       </c>
       <c r="L7">
-        <v>1.051823727547268</v>
+        <v>1.050940332527179</v>
       </c>
       <c r="M7">
-        <v>1.056993329340369</v>
+        <v>1.05670447187611</v>
       </c>
       <c r="N7">
-        <v>1.046274278912602</v>
+        <v>1.017599957654393</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014481426191173</v>
+        <v>1.016394700480552</v>
       </c>
       <c r="D8">
-        <v>1.027982403987111</v>
+        <v>1.03264690498512</v>
       </c>
       <c r="E8">
-        <v>1.031176385528055</v>
+        <v>1.033572938477557</v>
       </c>
       <c r="F8">
-        <v>1.036215586342211</v>
+        <v>1.039527374991147</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046527152459665</v>
+        <v>1.047735413853289</v>
       </c>
       <c r="J8">
-        <v>1.035677733307783</v>
+        <v>1.037537785456816</v>
       </c>
       <c r="K8">
-        <v>1.038796220470913</v>
+        <v>1.043402091803372</v>
       </c>
       <c r="L8">
-        <v>1.041949984405418</v>
+        <v>1.044316564131404</v>
       </c>
       <c r="M8">
-        <v>1.046926361072656</v>
+        <v>1.050197274077976</v>
       </c>
       <c r="N8">
-        <v>1.037148514482977</v>
+        <v>1.015472996562155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9924077138106016</v>
+        <v>1.000651258426329</v>
       </c>
       <c r="D9">
-        <v>1.011111617712519</v>
+        <v>1.020831395384965</v>
       </c>
       <c r="E9">
-        <v>1.010149523739477</v>
+        <v>1.019147288136262</v>
       </c>
       <c r="F9">
-        <v>1.014837266412974</v>
+        <v>1.025338855583672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039708622859664</v>
+        <v>1.043750280510608</v>
       </c>
       <c r="J9">
-        <v>1.018231453692175</v>
+        <v>1.026181040021232</v>
       </c>
       <c r="K9">
-        <v>1.024026952872392</v>
+        <v>1.033595302869181</v>
       </c>
       <c r="L9">
-        <v>1.023080050613937</v>
+        <v>1.031937168694358</v>
       </c>
       <c r="M9">
-        <v>1.027694120086913</v>
+        <v>1.038033782111804</v>
       </c>
       <c r="N9">
-        <v>1.019677459149198</v>
+        <v>1.011481880532438</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9762708991224412</v>
+        <v>0.9894550062323297</v>
       </c>
       <c r="D10">
-        <v>0.9988053812488471</v>
+        <v>1.012451131846808</v>
       </c>
       <c r="E10">
-        <v>0.994824277153871</v>
+        <v>1.008927456228178</v>
       </c>
       <c r="F10">
-        <v>0.9992592630160384</v>
+        <v>1.015288189796628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034654004165551</v>
+        <v>1.040856577398348</v>
       </c>
       <c r="J10">
-        <v>1.005458673359396</v>
+        <v>1.018093340372298</v>
       </c>
       <c r="K10">
-        <v>1.013196238457162</v>
+        <v>1.02659915838303</v>
       </c>
       <c r="L10">
-        <v>1.009287613936272</v>
+        <v>1.023137372044793</v>
       </c>
       <c r="M10">
-        <v>1.013641904589671</v>
+        <v>1.029386790728237</v>
       </c>
       <c r="N10">
-        <v>1.006886540003288</v>
+        <v>1.008634981622965</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9688717735449603</v>
+        <v>0.9844160883553694</v>
       </c>
       <c r="D11">
-        <v>0.9931726229072172</v>
+        <v>1.008686732593706</v>
       </c>
       <c r="E11">
-        <v>0.9878104724878408</v>
+        <v>1.004338593432018</v>
       </c>
       <c r="F11">
-        <v>0.9921306206026977</v>
+        <v>1.01077578716112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032321430409223</v>
+        <v>1.039541096678983</v>
       </c>
       <c r="J11">
-        <v>0.9995994141488928</v>
+        <v>1.014451860820804</v>
       </c>
       <c r="K11">
-        <v>1.008224452424221</v>
+        <v>1.023446668356006</v>
       </c>
       <c r="L11">
-        <v>1.002965985695053</v>
+        <v>1.019179151436723</v>
       </c>
       <c r="M11">
-        <v>1.007202483598285</v>
+        <v>1.025497309409819</v>
       </c>
       <c r="N11">
-        <v>1.00101895997264</v>
+        <v>1.007352323786024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9660537857745488</v>
+        <v>0.982513361080963</v>
       </c>
       <c r="D12">
-        <v>0.9910292142253321</v>
+        <v>1.007266519167054</v>
       </c>
       <c r="E12">
-        <v>0.9851414403420137</v>
+        <v>1.002607526480081</v>
       </c>
       <c r="F12">
-        <v>0.9894180176549653</v>
+        <v>1.009073660007001</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031430994966029</v>
+        <v>1.039042478000971</v>
       </c>
       <c r="J12">
-        <v>0.9973676847479078</v>
+        <v>1.013076678049261</v>
       </c>
       <c r="K12">
-        <v>1.006330322323141</v>
+        <v>1.022255815821458</v>
       </c>
       <c r="L12">
-        <v>1.000558952839956</v>
+        <v>1.017684940324104</v>
       </c>
       <c r="M12">
-        <v>1.004750799168224</v>
+        <v>1.024029063465238</v>
       </c>
       <c r="N12">
-        <v>0.9987840612599221</v>
+        <v>1.00686783211879</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9666615442797228</v>
+        <v>0.9829229485499152</v>
       </c>
       <c r="D13">
-        <v>0.9914913957960942</v>
+        <v>1.007572179869837</v>
       </c>
       <c r="E13">
-        <v>0.9857169700986312</v>
+        <v>1.002980082184755</v>
       </c>
       <c r="F13">
-        <v>0.9900029367844405</v>
+        <v>1.009439982643174</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031623126179382</v>
+        <v>1.039149895875299</v>
       </c>
       <c r="J13">
-        <v>0.9978490102167815</v>
+        <v>1.013372709001034</v>
       </c>
       <c r="K13">
-        <v>1.006738854405725</v>
+        <v>1.022512181030164</v>
       </c>
       <c r="L13">
-        <v>1.00107805023171</v>
+        <v>1.018006567529477</v>
       </c>
       <c r="M13">
-        <v>1.005279516925197</v>
+        <v>1.024345100696101</v>
       </c>
       <c r="N13">
-        <v>0.9992660702661706</v>
+        <v>1.006972131297633</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9686403079673088</v>
+        <v>0.9842594563687923</v>
       </c>
       <c r="D14">
-        <v>0.9929965266310011</v>
+        <v>1.008569794665741</v>
       </c>
       <c r="E14">
-        <v>0.987591195911136</v>
+        <v>1.00419605689539</v>
       </c>
       <c r="F14">
-        <v>0.991907761786377</v>
+        <v>1.010635631446571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032248331978401</v>
+        <v>1.039500088221072</v>
       </c>
       <c r="J14">
-        <v>0.9994161059970241</v>
+        <v>1.014338658326507</v>
       </c>
       <c r="K14">
-        <v>1.008068881935726</v>
+        <v>1.023348646120499</v>
       </c>
       <c r="L14">
-        <v>1.00276826224631</v>
+        <v>1.019056138811862</v>
       </c>
       <c r="M14">
-        <v>1.00700108820265</v>
+        <v>1.02537643397061</v>
       </c>
       <c r="N14">
-        <v>1.00083539150217</v>
+        <v>1.00731244329642</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9698500079950695</v>
+        <v>0.985078733240078</v>
       </c>
       <c r="D15">
-        <v>0.9939169293841063</v>
+        <v>1.009181500202091</v>
       </c>
       <c r="E15">
-        <v>0.9887372837778439</v>
+        <v>1.004941676912723</v>
       </c>
       <c r="F15">
-        <v>0.9930725781373069</v>
+        <v>1.011368801253894</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032630281012788</v>
+        <v>1.039714510322619</v>
       </c>
       <c r="J15">
-        <v>1.000374115482102</v>
+        <v>1.014930768602729</v>
       </c>
       <c r="K15">
-        <v>1.008881911275504</v>
+        <v>1.023861342098036</v>
       </c>
       <c r="L15">
-        <v>1.003801642055113</v>
+        <v>1.019699585282583</v>
       </c>
       <c r="M15">
-        <v>1.008053667170243</v>
+        <v>1.026008702150989</v>
       </c>
       <c r="N15">
-        <v>1.001794761470602</v>
+        <v>1.007521035752082</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9767526476621426</v>
+        <v>0.9897852045514981</v>
       </c>
       <c r="D16">
-        <v>0.9991723569520754</v>
+        <v>1.012697974185199</v>
       </c>
       <c r="E16">
-        <v>0.9952812272137762</v>
+        <v>1.00922839277399</v>
       </c>
       <c r="F16">
-        <v>0.9997237123262571</v>
+        <v>1.015584124260155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034805582616948</v>
+        <v>1.040942514986053</v>
       </c>
       <c r="J16">
-        <v>1.00584012400258</v>
+        <v>1.018331940583737</v>
       </c>
       <c r="K16">
-        <v>1.013519849107908</v>
+        <v>1.026805670345403</v>
       </c>
       <c r="L16">
-        <v>1.009699276465904</v>
+        <v>1.023396806837754</v>
       </c>
       <c r="M16">
-        <v>1.014061264605597</v>
+        <v>1.029641721520522</v>
       </c>
       <c r="N16">
-        <v>1.007268532350138</v>
+        <v>1.00871900945855</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809671845261962</v>
+        <v>0.9926847532962559</v>
       </c>
       <c r="D17">
-        <v>1.002383964883119</v>
+        <v>1.014866385198268</v>
       </c>
       <c r="E17">
-        <v>0.9992803177303858</v>
+        <v>1.011872201740511</v>
       </c>
       <c r="F17">
-        <v>1.003788528532121</v>
+        <v>1.018184047806586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036130002353268</v>
+        <v>1.041695674297394</v>
       </c>
       <c r="J17">
-        <v>1.009176938219923</v>
+        <v>1.020426977450199</v>
       </c>
       <c r="K17">
-        <v>1.016350323277909</v>
+        <v>1.02861867887177</v>
       </c>
       <c r="L17">
-        <v>1.013300977361475</v>
+        <v>1.025675221862829</v>
       </c>
       <c r="M17">
-        <v>1.017730455604238</v>
+        <v>1.031880583824151</v>
       </c>
       <c r="N17">
-        <v>1.010610085226409</v>
+        <v>1.009456725722519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9833863122331142</v>
+        <v>0.9943577685648298</v>
       </c>
       <c r="D18">
-        <v>1.004228317601901</v>
+        <v>1.016118204414001</v>
       </c>
       <c r="E18">
-        <v>1.001576994135618</v>
+        <v>1.013398649316928</v>
       </c>
       <c r="F18">
-        <v>1.006123029283634</v>
+        <v>1.019685203304962</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036888812511975</v>
+        <v>1.042128994105616</v>
       </c>
       <c r="J18">
-        <v>1.011091998376825</v>
+        <v>1.021635640392588</v>
       </c>
       <c r="K18">
-        <v>1.017974461753506</v>
+        <v>1.029664398143915</v>
       </c>
       <c r="L18">
-        <v>1.015368562015234</v>
+        <v>1.026990044221439</v>
       </c>
       <c r="M18">
-        <v>1.019836901698896</v>
+        <v>1.033172580705571</v>
       </c>
       <c r="N18">
-        <v>1.012527864988393</v>
+        <v>1.009882245832964</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9842047472659187</v>
+        <v>0.994925197211751</v>
       </c>
       <c r="D19">
-        <v>1.004852439256226</v>
+        <v>1.016542885873148</v>
       </c>
       <c r="E19">
-        <v>1.002354201644387</v>
+        <v>1.013916532129989</v>
       </c>
       <c r="F19">
-        <v>1.0069130499138</v>
+        <v>1.020194512383932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037145289352929</v>
+        <v>1.042275747025755</v>
       </c>
       <c r="J19">
-        <v>1.01173984931416</v>
+        <v>1.02204554762705</v>
       </c>
       <c r="K19">
-        <v>1.01852383885946</v>
+        <v>1.030019003232016</v>
       </c>
       <c r="L19">
-        <v>1.016068095886083</v>
+        <v>1.027436016344227</v>
       </c>
       <c r="M19">
-        <v>1.020549603554483</v>
+        <v>1.033610810178901</v>
       </c>
       <c r="N19">
-        <v>1.013176635948369</v>
+        <v>1.010026542749788</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9805191047945115</v>
+        <v>0.9923755623861554</v>
       </c>
       <c r="D20">
-        <v>1.002042417984627</v>
+        <v>1.014635088383286</v>
       </c>
       <c r="E20">
-        <v>0.9988550159522441</v>
+        <v>1.01159017755709</v>
       </c>
       <c r="F20">
-        <v>1.003356228703299</v>
+        <v>1.017906700120876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035989337857494</v>
+        <v>1.041615490667136</v>
       </c>
       <c r="J20">
-        <v>1.008822201553893</v>
+        <v>1.020203590473793</v>
       </c>
       <c r="K20">
-        <v>1.016049448755422</v>
+        <v>1.028425387974529</v>
       </c>
       <c r="L20">
-        <v>1.012918028447158</v>
+        <v>1.025432243888341</v>
       </c>
       <c r="M20">
-        <v>1.017340318487044</v>
+        <v>1.031641823832548</v>
       </c>
       <c r="N20">
-        <v>1.010254844793623</v>
+        <v>1.009378073702424</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9680596026719784</v>
+        <v>0.9838667656049761</v>
       </c>
       <c r="D21">
-        <v>0.9925547639195169</v>
+        <v>1.008276641226499</v>
       </c>
       <c r="E21">
-        <v>0.9870411068220143</v>
+        <v>1.003838732773672</v>
       </c>
       <c r="F21">
-        <v>0.9913486881897284</v>
+        <v>1.010284277425116</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032064908717197</v>
+        <v>1.039397246254441</v>
       </c>
       <c r="J21">
-        <v>0.998956216362987</v>
+        <v>1.014054847436438</v>
       </c>
       <c r="K21">
-        <v>1.007678574883764</v>
+        <v>1.023102888549884</v>
       </c>
       <c r="L21">
-        <v>1.002272220003643</v>
+        <v>1.018747742323572</v>
       </c>
       <c r="M21">
-        <v>1.006495837127782</v>
+        <v>1.025073395792028</v>
       </c>
       <c r="N21">
-        <v>1.000374848772102</v>
+        <v>1.007212457011272</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9598180582051192</v>
+        <v>0.9783359335413816</v>
       </c>
       <c r="D22">
-        <v>0.9862900856168632</v>
+        <v>1.004150948892456</v>
       </c>
       <c r="E22">
-        <v>0.9792396845692742</v>
+        <v>0.9988102872716796</v>
       </c>
       <c r="F22">
-        <v>0.9834201622846446</v>
+        <v>1.005340105703886</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029457010028816</v>
+        <v>1.03794439826357</v>
       </c>
       <c r="J22">
-        <v>0.9924291036458338</v>
+        <v>1.01005733790137</v>
       </c>
       <c r="K22">
-        <v>1.00213812052104</v>
+        <v>1.019640620748442</v>
       </c>
       <c r="L22">
-        <v>0.9952339390742573</v>
+        <v>1.014405349503425</v>
       </c>
       <c r="M22">
-        <v>0.9993273829544433</v>
+        <v>1.020806511179488</v>
       </c>
       <c r="N22">
-        <v>0.9938384668062201</v>
+        <v>1.005803921999085</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.964228685949589</v>
+        <v>0.9812859536395999</v>
       </c>
       <c r="D23">
-        <v>0.9896415840814641</v>
+        <v>1.006350745010913</v>
       </c>
       <c r="E23">
-        <v>0.9834134658606229</v>
+        <v>1.001491353486603</v>
       </c>
       <c r="F23">
-        <v>0.9876618717507074</v>
+        <v>1.00797617711437</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030853736788455</v>
+        <v>1.038720310962108</v>
       </c>
       <c r="J23">
-        <v>0.9959222496101605</v>
+        <v>1.012189552623342</v>
       </c>
       <c r="K23">
-        <v>1.005103432003269</v>
+        <v>1.021487512272354</v>
       </c>
       <c r="L23">
-        <v>0.9990002059451671</v>
+        <v>1.01672119618162</v>
       </c>
       <c r="M23">
-        <v>1.003163194144818</v>
+        <v>1.02308207314435</v>
       </c>
       <c r="N23">
-        <v>0.9973365734384854</v>
+        <v>1.006555262099562</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9807216931242948</v>
+        <v>0.9925153286483568</v>
       </c>
       <c r="D24">
-        <v>1.002196837308434</v>
+        <v>1.014739641449137</v>
       </c>
       <c r="E24">
-        <v>0.9990473020241016</v>
+        <v>1.011717660336482</v>
       </c>
       <c r="F24">
-        <v>1.003551678468606</v>
+        <v>1.018032068852254</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036052940253934</v>
+        <v>1.04165174064982</v>
       </c>
       <c r="J24">
-        <v>1.008982587908159</v>
+        <v>1.020304570526794</v>
       </c>
       <c r="K24">
-        <v>1.016185483543129</v>
+        <v>1.028512764106012</v>
       </c>
       <c r="L24">
-        <v>1.013091168787801</v>
+        <v>1.025542078739937</v>
       </c>
       <c r="M24">
-        <v>1.017516708418476</v>
+        <v>1.031749752005648</v>
       </c>
       <c r="N24">
-        <v>1.010415458914909</v>
+        <v>1.009413627887111</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9983426007989148</v>
+        <v>1.004837152913964</v>
       </c>
       <c r="D25">
-        <v>1.015644064825554</v>
+        <v>1.023969618548441</v>
       </c>
       <c r="E25">
-        <v>1.015795773577369</v>
+        <v>1.022976489523573</v>
       </c>
       <c r="F25">
-        <v>1.020577326437864</v>
+        <v>1.029104979316211</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041554188151457</v>
+        <v>1.044820344116941</v>
       </c>
       <c r="J25">
-        <v>1.022925872068888</v>
+        <v>1.029202816991914</v>
       </c>
       <c r="K25">
-        <v>1.028004285601282</v>
+        <v>1.036206892869608</v>
       </c>
       <c r="L25">
-        <v>1.028153731088149</v>
+        <v>1.035228296308202</v>
       </c>
       <c r="M25">
-        <v>1.032864388397928</v>
+        <v>1.041267674927406</v>
       </c>
       <c r="N25">
-        <v>1.024378544138463</v>
+        <v>1.012544696836421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014168158286411</v>
+        <v>1.057720695672616</v>
       </c>
       <c r="D2">
-        <v>1.0309739467895</v>
+        <v>1.058854182357834</v>
       </c>
       <c r="E2">
-        <v>1.031528823513363</v>
+        <v>1.070054411905201</v>
       </c>
       <c r="F2">
-        <v>1.037516801403255</v>
+        <v>1.074568326332472</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047178725767176</v>
+        <v>1.040459682596729</v>
       </c>
       <c r="J2">
-        <v>1.035933205374951</v>
+        <v>1.062715647464937</v>
       </c>
       <c r="K2">
-        <v>1.042017993202581</v>
+        <v>1.061585279934077</v>
       </c>
       <c r="L2">
-        <v>1.042565714833815</v>
+        <v>1.072755273275143</v>
       </c>
       <c r="M2">
-        <v>1.04847708633452</v>
+        <v>1.077257194542978</v>
       </c>
       <c r="N2">
-        <v>1.014909690973644</v>
+        <v>1.024530879045038</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020687220415851</v>
+        <v>1.059067513419303</v>
       </c>
       <c r="D3">
-        <v>1.035873708946874</v>
+        <v>1.059878753034176</v>
       </c>
       <c r="E3">
-        <v>1.037517464126568</v>
+        <v>1.071345258861037</v>
       </c>
       <c r="F3">
-        <v>1.043407184269417</v>
+        <v>1.075835263038431</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048801374450749</v>
+        <v>1.040715595236939</v>
       </c>
       <c r="J3">
-        <v>1.040629388896024</v>
+        <v>1.063713136872082</v>
       </c>
       <c r="K3">
-        <v>1.046067266890238</v>
+        <v>1.062423432336208</v>
       </c>
       <c r="L3">
-        <v>1.047691792826395</v>
+        <v>1.073861233716562</v>
       </c>
       <c r="M3">
-        <v>1.05351322732838</v>
+        <v>1.078340177303941</v>
       </c>
       <c r="N3">
-        <v>1.016557670269067</v>
+        <v>1.024873385616457</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024796361028727</v>
+        <v>1.059938565262109</v>
       </c>
       <c r="D4">
-        <v>1.038964364125628</v>
+        <v>1.060541114971</v>
       </c>
       <c r="E4">
-        <v>1.041298082480271</v>
+        <v>1.07218041658044</v>
       </c>
       <c r="F4">
-        <v>1.04712575186464</v>
+        <v>1.076654888986313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049812209304305</v>
+        <v>1.040879559990413</v>
       </c>
       <c r="J4">
-        <v>1.043586360133013</v>
+        <v>1.064357665112678</v>
       </c>
       <c r="K4">
-        <v>1.048614211931165</v>
+        <v>1.062964561864413</v>
       </c>
       <c r="L4">
-        <v>1.050922372298761</v>
+        <v>1.074576201175091</v>
       </c>
       <c r="M4">
-        <v>1.056686829157544</v>
+        <v>1.079040210142609</v>
       </c>
       <c r="N4">
-        <v>1.017594199935945</v>
+        <v>1.025094445407024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026498996008899</v>
+        <v>1.060304656254151</v>
       </c>
       <c r="D5">
-        <v>1.040245421488239</v>
+        <v>1.060819429213237</v>
       </c>
       <c r="E5">
-        <v>1.042865924440413</v>
+        <v>1.072531494113114</v>
       </c>
       <c r="F5">
-        <v>1.048667844614294</v>
+        <v>1.076999422380611</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050228124841669</v>
+        <v>1.040948101666878</v>
       </c>
       <c r="J5">
-        <v>1.044810776196444</v>
+        <v>1.064628408263548</v>
       </c>
       <c r="K5">
-        <v>1.049668174156362</v>
+        <v>1.06319176456648</v>
       </c>
       <c r="L5">
-        <v>1.052260784760619</v>
+        <v>1.074876617255552</v>
       </c>
       <c r="M5">
-        <v>1.058001556093771</v>
+        <v>1.079334331655579</v>
       </c>
       <c r="N5">
-        <v>1.018023118512551</v>
+        <v>1.025187244379746</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026783454307947</v>
+        <v>1.060366118828998</v>
       </c>
       <c r="D6">
-        <v>1.040459469990697</v>
+        <v>1.060866151083412</v>
       </c>
       <c r="E6">
-        <v>1.043127939417248</v>
+        <v>1.072590440319843</v>
       </c>
       <c r="F6">
-        <v>1.04892555514137</v>
+        <v>1.07705726893799</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050297437917053</v>
+        <v>1.040959587316027</v>
       </c>
       <c r="J6">
-        <v>1.04501528928573</v>
+        <v>1.064673854600206</v>
       </c>
       <c r="K6">
-        <v>1.049844176348303</v>
+        <v>1.063229896054542</v>
       </c>
       <c r="L6">
-        <v>1.052484379809116</v>
+        <v>1.074927049346804</v>
       </c>
       <c r="M6">
-        <v>1.058221189293179</v>
+        <v>1.079383705916177</v>
       </c>
       <c r="N6">
-        <v>1.018094743185438</v>
+        <v>1.025202817864053</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024819207731822</v>
+        <v>1.059943457373208</v>
       </c>
       <c r="D7">
-        <v>1.038981552315171</v>
+        <v>1.060544834378026</v>
       </c>
       <c r="E7">
-        <v>1.041319115289179</v>
+        <v>1.072185107781678</v>
       </c>
       <c r="F7">
-        <v>1.047146439324085</v>
+        <v>1.076659492801951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049817801889814</v>
+        <v>1.040880477375824</v>
       </c>
       <c r="J7">
-        <v>1.043602793175811</v>
+        <v>1.064361283643812</v>
       </c>
       <c r="K7">
-        <v>1.048628359977449</v>
+        <v>1.062967598888053</v>
       </c>
       <c r="L7">
-        <v>1.050940332527179</v>
+        <v>1.074580215960313</v>
       </c>
       <c r="M7">
-        <v>1.05670447187611</v>
+        <v>1.079044140882751</v>
       </c>
       <c r="N7">
-        <v>1.017599957654393</v>
+        <v>1.025095685919352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016394700480552</v>
+        <v>1.058175950077262</v>
       </c>
       <c r="D8">
-        <v>1.03264690498512</v>
+        <v>1.059200566943459</v>
       </c>
       <c r="E8">
-        <v>1.033572938477557</v>
+        <v>1.070490683398212</v>
       </c>
       <c r="F8">
-        <v>1.039527374991147</v>
+        <v>1.074996529621768</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047735413853289</v>
+        <v>1.040546506889252</v>
       </c>
       <c r="J8">
-        <v>1.037537785456816</v>
+        <v>1.063052944349056</v>
       </c>
       <c r="K8">
-        <v>1.043402091803372</v>
+        <v>1.061868789315034</v>
       </c>
       <c r="L8">
-        <v>1.044316564131404</v>
+        <v>1.073129176525717</v>
       </c>
       <c r="M8">
-        <v>1.050197274077976</v>
+        <v>1.077623346076555</v>
       </c>
       <c r="N8">
-        <v>1.015472996562155</v>
+        <v>1.024646748105456</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000651258426329</v>
+        <v>1.05505792825001</v>
       </c>
       <c r="D9">
-        <v>1.020831395384965</v>
+        <v>1.056827088769576</v>
       </c>
       <c r="E9">
-        <v>1.019147288136262</v>
+        <v>1.067503951635104</v>
       </c>
       <c r="F9">
-        <v>1.025338855583672</v>
+        <v>1.072064782258586</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043750280510608</v>
+        <v>1.039945513696431</v>
       </c>
       <c r="J9">
-        <v>1.026181040021232</v>
+        <v>1.060740378187661</v>
       </c>
       <c r="K9">
-        <v>1.033595302869181</v>
+        <v>1.059923189901885</v>
       </c>
       <c r="L9">
-        <v>1.031937168694358</v>
+        <v>1.070567071983935</v>
       </c>
       <c r="M9">
-        <v>1.038033782111804</v>
+        <v>1.07511403260705</v>
       </c>
       <c r="N9">
-        <v>1.011481880532438</v>
+        <v>1.023851306035132</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9894550062323297</v>
+        <v>1.052976702765791</v>
       </c>
       <c r="D10">
-        <v>1.012451131846808</v>
+        <v>1.05524148679772</v>
       </c>
       <c r="E10">
-        <v>1.008927456228178</v>
+        <v>1.065511990765251</v>
       </c>
       <c r="F10">
-        <v>1.015288189796628</v>
+        <v>1.070109182082043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040856577398348</v>
+        <v>1.039536411664961</v>
       </c>
       <c r="J10">
-        <v>1.018093340372298</v>
+        <v>1.059193742530816</v>
       </c>
       <c r="K10">
-        <v>1.02659915838303</v>
+        <v>1.058619717664229</v>
       </c>
       <c r="L10">
-        <v>1.023137372044793</v>
+        <v>1.068855357484336</v>
       </c>
       <c r="M10">
-        <v>1.029386790728237</v>
+        <v>1.073437181260755</v>
       </c>
       <c r="N10">
-        <v>1.008634981622965</v>
+        <v>1.023318039298583</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9844160883553694</v>
+        <v>1.052074854823109</v>
       </c>
       <c r="D11">
-        <v>1.008686732593706</v>
+        <v>1.054554097782034</v>
       </c>
       <c r="E11">
-        <v>1.004338593432018</v>
+        <v>1.064649218856421</v>
       </c>
       <c r="F11">
-        <v>1.01077578716112</v>
+        <v>1.069262086807643</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039541096678983</v>
+        <v>1.039357255002106</v>
       </c>
       <c r="J11">
-        <v>1.014451860820804</v>
+        <v>1.058522830566315</v>
       </c>
       <c r="K11">
-        <v>1.023446668356006</v>
+        <v>1.058053754086553</v>
       </c>
       <c r="L11">
-        <v>1.019179151436723</v>
+        <v>1.068113266100116</v>
       </c>
       <c r="M11">
-        <v>1.025497309409819</v>
+        <v>1.07271010924588</v>
       </c>
       <c r="N11">
-        <v>1.007352323786024</v>
+        <v>1.023086414079067</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.982513361080963</v>
+        <v>1.051739764180498</v>
       </c>
       <c r="D12">
-        <v>1.007266519167054</v>
+        <v>1.054298646330393</v>
       </c>
       <c r="E12">
-        <v>1.002607526480081</v>
+        <v>1.06432870743692</v>
       </c>
       <c r="F12">
-        <v>1.009073660007001</v>
+        <v>1.068947388386919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039042478000971</v>
+        <v>1.039290404993391</v>
       </c>
       <c r="J12">
-        <v>1.013076678049261</v>
+        <v>1.05827343944499</v>
       </c>
       <c r="K12">
-        <v>1.022255815821458</v>
+        <v>1.057843294560423</v>
       </c>
       <c r="L12">
-        <v>1.017684940324104</v>
+        <v>1.067837480784674</v>
       </c>
       <c r="M12">
-        <v>1.024029063465238</v>
+        <v>1.072439891429602</v>
       </c>
       <c r="N12">
-        <v>1.00686783211879</v>
+        <v>1.023000269511232</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9829229485499152</v>
+        <v>1.051811647046302</v>
       </c>
       <c r="D13">
-        <v>1.007572179869837</v>
+        <v>1.054353447210037</v>
       </c>
       <c r="E13">
-        <v>1.002980082184755</v>
+        <v>1.064397460069108</v>
       </c>
       <c r="F13">
-        <v>1.009439982643174</v>
+        <v>1.069014894560776</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039149895875299</v>
+        <v>1.03930475828345</v>
       </c>
       <c r="J13">
-        <v>1.013372709001034</v>
+        <v>1.058326943086145</v>
       </c>
       <c r="K13">
-        <v>1.022512181030164</v>
+        <v>1.057888449535995</v>
       </c>
       <c r="L13">
-        <v>1.018006567529477</v>
+        <v>1.067896644036116</v>
       </c>
       <c r="M13">
-        <v>1.024345100696101</v>
+        <v>1.072497860945445</v>
       </c>
       <c r="N13">
-        <v>1.006972131297633</v>
+        <v>1.023018752744474</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9842594563687923</v>
+        <v>1.052047158276835</v>
       </c>
       <c r="D14">
-        <v>1.008569794665741</v>
+        <v>1.054532984640592</v>
       </c>
       <c r="E14">
-        <v>1.00419605689539</v>
+        <v>1.064622726108979</v>
       </c>
       <c r="F14">
-        <v>1.010635631446571</v>
+        <v>1.069236074767457</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039500088221072</v>
+        <v>1.039351735350612</v>
       </c>
       <c r="J14">
-        <v>1.014338658326507</v>
+        <v>1.058502219600381</v>
       </c>
       <c r="K14">
-        <v>1.023348646120499</v>
+        <v>1.058036362253349</v>
       </c>
       <c r="L14">
-        <v>1.019056138811862</v>
+        <v>1.068090472464692</v>
       </c>
       <c r="M14">
-        <v>1.02537643397061</v>
+        <v>1.072687776052637</v>
       </c>
       <c r="N14">
-        <v>1.00731244329642</v>
+        <v>1.023079295563813</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.985078733240078</v>
+        <v>1.052192250582411</v>
       </c>
       <c r="D15">
-        <v>1.009181500202091</v>
+        <v>1.054643586997806</v>
       </c>
       <c r="E15">
-        <v>1.004941676912723</v>
+        <v>1.064761514609279</v>
       </c>
       <c r="F15">
-        <v>1.011368801253894</v>
+        <v>1.069372344531288</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039714510322619</v>
+        <v>1.039380639263449</v>
       </c>
       <c r="J15">
-        <v>1.014930768602729</v>
+        <v>1.058610188702249</v>
       </c>
       <c r="K15">
-        <v>1.023861342098036</v>
+        <v>1.058127464889542</v>
       </c>
       <c r="L15">
-        <v>1.019699585282583</v>
+        <v>1.068209877972308</v>
       </c>
       <c r="M15">
-        <v>1.026008702150989</v>
+        <v>1.072804768932407</v>
       </c>
       <c r="N15">
-        <v>1.007521035752082</v>
+        <v>1.023116583569118</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9897852045514981</v>
+        <v>1.053036541081926</v>
       </c>
       <c r="D16">
-        <v>1.012697974185199</v>
+        <v>1.055287089208365</v>
       </c>
       <c r="E16">
-        <v>1.00922839277399</v>
+        <v>1.065569244746274</v>
       </c>
       <c r="F16">
-        <v>1.015584124260155</v>
+        <v>1.070165394243898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040942514986053</v>
+        <v>1.039548259223226</v>
       </c>
       <c r="J16">
-        <v>1.018331940583737</v>
+        <v>1.059238243032244</v>
       </c>
       <c r="K16">
-        <v>1.026805670345403</v>
+        <v>1.058657245913601</v>
       </c>
       <c r="L16">
-        <v>1.023396806837754</v>
+        <v>1.068904588251651</v>
       </c>
       <c r="M16">
-        <v>1.029641721520522</v>
+        <v>1.073485413640432</v>
       </c>
       <c r="N16">
-        <v>1.00871900945855</v>
+        <v>1.023333396314521</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9926847532962559</v>
+        <v>1.053565961399872</v>
       </c>
       <c r="D17">
-        <v>1.014866385198268</v>
+        <v>1.055690521791932</v>
       </c>
       <c r="E17">
-        <v>1.011872201740511</v>
+        <v>1.066075845875404</v>
       </c>
       <c r="F17">
-        <v>1.018184047806586</v>
+        <v>1.070662768711466</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041695674297394</v>
+        <v>1.039652863318022</v>
       </c>
       <c r="J17">
-        <v>1.020426977450199</v>
+        <v>1.05963187926644</v>
       </c>
       <c r="K17">
-        <v>1.02861867887177</v>
+        <v>1.05898914651168</v>
       </c>
       <c r="L17">
-        <v>1.025675221862829</v>
+        <v>1.069340116408976</v>
       </c>
       <c r="M17">
-        <v>1.031880583824151</v>
+        <v>1.073912098429754</v>
       </c>
       <c r="N17">
-        <v>1.009456725722519</v>
+        <v>1.023469204574564</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9943577685648298</v>
+        <v>1.053874699592638</v>
       </c>
       <c r="D18">
-        <v>1.016118204414001</v>
+        <v>1.055925758925853</v>
       </c>
       <c r="E18">
-        <v>1.013398649316928</v>
+        <v>1.066371314853392</v>
       </c>
       <c r="F18">
-        <v>1.019685203304962</v>
+        <v>1.070952849381192</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042128994105616</v>
+        <v>1.039713682970384</v>
       </c>
       <c r="J18">
-        <v>1.021635640392588</v>
+        <v>1.05986136422038</v>
       </c>
       <c r="K18">
-        <v>1.029664398143915</v>
+        <v>1.059182588979131</v>
       </c>
       <c r="L18">
-        <v>1.026990044221439</v>
+        <v>1.069594065248964</v>
       </c>
       <c r="M18">
-        <v>1.033172580705571</v>
+        <v>1.074160881681578</v>
       </c>
       <c r="N18">
-        <v>1.009882245832964</v>
+        <v>1.023548350096455</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.994925197211751</v>
+        <v>1.053979960664031</v>
       </c>
       <c r="D19">
-        <v>1.016542885873148</v>
+        <v>1.056005955507151</v>
       </c>
       <c r="E19">
-        <v>1.013916532129989</v>
+        <v>1.066472058362122</v>
       </c>
       <c r="F19">
-        <v>1.020194512383932</v>
+        <v>1.071051754499071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042275747025755</v>
+        <v>1.039734387994966</v>
       </c>
       <c r="J19">
-        <v>1.02204554762705</v>
+        <v>1.05993959300504</v>
       </c>
       <c r="K19">
-        <v>1.030019003232016</v>
+        <v>1.059248522568426</v>
       </c>
       <c r="L19">
-        <v>1.027436016344227</v>
+        <v>1.069680640517025</v>
       </c>
       <c r="M19">
-        <v>1.033610810178901</v>
+        <v>1.074245694357776</v>
       </c>
       <c r="N19">
-        <v>1.010026542749788</v>
+        <v>1.023575324973905</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9923755623861554</v>
+        <v>1.053509166234939</v>
       </c>
       <c r="D20">
-        <v>1.014635088383286</v>
+        <v>1.055647245407924</v>
       </c>
       <c r="E20">
-        <v>1.01159017755709</v>
+        <v>1.066021494762915</v>
       </c>
       <c r="F20">
-        <v>1.017906700120876</v>
+        <v>1.070609408208867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041615490667136</v>
+        <v>1.03964166037664</v>
       </c>
       <c r="J20">
-        <v>1.020203590473793</v>
+        <v>1.059589657886479</v>
       </c>
       <c r="K20">
-        <v>1.028425387974529</v>
+        <v>1.05895355220383</v>
       </c>
       <c r="L20">
-        <v>1.025432243888341</v>
+        <v>1.069293397420181</v>
       </c>
       <c r="M20">
-        <v>1.031641823832548</v>
+        <v>1.073866329015119</v>
       </c>
       <c r="N20">
-        <v>1.009378073702424</v>
+        <v>1.023454640791731</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9838667656049761</v>
+        <v>1.051977809000751</v>
       </c>
       <c r="D21">
-        <v>1.008276641226499</v>
+        <v>1.054480118800395</v>
       </c>
       <c r="E21">
-        <v>1.003838732773672</v>
+        <v>1.064556391993951</v>
       </c>
       <c r="F21">
-        <v>1.010284277425116</v>
+        <v>1.069170944103081</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039397246254441</v>
+        <v>1.039337910153156</v>
       </c>
       <c r="J21">
-        <v>1.014054847436438</v>
+        <v>1.05845061015394</v>
       </c>
       <c r="K21">
-        <v>1.023102888549884</v>
+        <v>1.057992812163402</v>
       </c>
       <c r="L21">
-        <v>1.018747742323572</v>
+        <v>1.068033398700792</v>
       </c>
       <c r="M21">
-        <v>1.025073395792028</v>
+        <v>1.07263185497686</v>
       </c>
       <c r="N21">
-        <v>1.007212457011272</v>
+        <v>1.023061470218957</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9783359335413816</v>
+        <v>1.051014379054532</v>
       </c>
       <c r="D22">
-        <v>1.004150948892456</v>
+        <v>1.053745578066215</v>
       </c>
       <c r="E22">
-        <v>0.9988102872716796</v>
+        <v>1.06363499334932</v>
       </c>
       <c r="F22">
-        <v>1.005340105703886</v>
+        <v>1.068266236469808</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03794439826357</v>
+        <v>1.03914517541317</v>
       </c>
       <c r="J22">
-        <v>1.01005733790137</v>
+        <v>1.057733376428005</v>
       </c>
       <c r="K22">
-        <v>1.019640620748442</v>
+        <v>1.057387393327719</v>
       </c>
       <c r="L22">
-        <v>1.014405349503425</v>
+        <v>1.067240378621795</v>
       </c>
       <c r="M22">
-        <v>1.020806511179488</v>
+        <v>1.071854817605509</v>
       </c>
       <c r="N22">
-        <v>1.005803921999085</v>
+        <v>1.022813639221976</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9812859536395999</v>
+        <v>1.051525170328086</v>
       </c>
       <c r="D23">
-        <v>1.006350745010913</v>
+        <v>1.054135041252944</v>
       </c>
       <c r="E23">
-        <v>1.001491353486603</v>
+        <v>1.064123467215509</v>
       </c>
       <c r="F23">
-        <v>1.00797617711437</v>
+        <v>1.068745867530245</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038720310962108</v>
+        <v>1.039247514376036</v>
       </c>
       <c r="J23">
-        <v>1.012189552623342</v>
+        <v>1.058113697942804</v>
       </c>
       <c r="K23">
-        <v>1.021487512272354</v>
+        <v>1.057708467336119</v>
       </c>
       <c r="L23">
-        <v>1.01672119618162</v>
+        <v>1.067660851300496</v>
       </c>
       <c r="M23">
-        <v>1.02308207314435</v>
+        <v>1.07226682372473</v>
       </c>
       <c r="N23">
-        <v>1.006555262099562</v>
+        <v>1.022945079050099</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9925153286483568</v>
+        <v>1.053534829721946</v>
       </c>
       <c r="D24">
-        <v>1.014739641449137</v>
+        <v>1.05566680038485</v>
       </c>
       <c r="E24">
-        <v>1.011717660336482</v>
+        <v>1.066046053761759</v>
       </c>
       <c r="F24">
-        <v>1.018032068852254</v>
+        <v>1.070633519614006</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04165174064982</v>
+        <v>1.039646723103499</v>
       </c>
       <c r="J24">
-        <v>1.020304570526794</v>
+        <v>1.059608736270251</v>
       </c>
       <c r="K24">
-        <v>1.028512764106012</v>
+        <v>1.058969636201394</v>
       </c>
       <c r="L24">
-        <v>1.025542078739937</v>
+        <v>1.069314507990073</v>
       </c>
       <c r="M24">
-        <v>1.031749752005648</v>
+        <v>1.073887010536203</v>
       </c>
       <c r="N24">
-        <v>1.009413627887111</v>
+        <v>1.023461221751918</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004837152913964</v>
+        <v>1.055864443465935</v>
       </c>
       <c r="D25">
-        <v>1.023969618548441</v>
+        <v>1.057441259734685</v>
       </c>
       <c r="E25">
-        <v>1.022976489523573</v>
+        <v>1.068276222661767</v>
       </c>
       <c r="F25">
-        <v>1.029104979316211</v>
+        <v>1.072822891318446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044820344116941</v>
+        <v>1.04010236953703</v>
       </c>
       <c r="J25">
-        <v>1.029202816991914</v>
+        <v>1.061339089142802</v>
       </c>
       <c r="K25">
-        <v>1.036206892869608</v>
+        <v>1.060427294601189</v>
       </c>
       <c r="L25">
-        <v>1.035228296308202</v>
+        <v>1.07123006829704</v>
       </c>
       <c r="M25">
-        <v>1.041267674927406</v>
+        <v>1.075763440060588</v>
       </c>
       <c r="N25">
-        <v>1.012544696836421</v>
+        <v>1.024057467538337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057720695672616</v>
+        <v>1.014168158286411</v>
       </c>
       <c r="D2">
-        <v>1.058854182357834</v>
+        <v>1.030973946789499</v>
       </c>
       <c r="E2">
-        <v>1.070054411905201</v>
+        <v>1.031528823513363</v>
       </c>
       <c r="F2">
-        <v>1.074568326332472</v>
+        <v>1.037516801403255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040459682596729</v>
+        <v>1.047178725767176</v>
       </c>
       <c r="J2">
-        <v>1.062715647464937</v>
+        <v>1.03593320537495</v>
       </c>
       <c r="K2">
-        <v>1.061585279934077</v>
+        <v>1.04201799320258</v>
       </c>
       <c r="L2">
-        <v>1.072755273275143</v>
+        <v>1.042565714833814</v>
       </c>
       <c r="M2">
-        <v>1.077257194542978</v>
+        <v>1.048477086334519</v>
       </c>
       <c r="N2">
-        <v>1.024530879045038</v>
+        <v>1.014909690973644</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059067513419303</v>
+        <v>1.020687220415851</v>
       </c>
       <c r="D3">
-        <v>1.059878753034176</v>
+        <v>1.035873708946875</v>
       </c>
       <c r="E3">
-        <v>1.071345258861037</v>
+        <v>1.037517464126569</v>
       </c>
       <c r="F3">
-        <v>1.075835263038431</v>
+        <v>1.043407184269417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040715595236939</v>
+        <v>1.04880137445075</v>
       </c>
       <c r="J3">
-        <v>1.063713136872082</v>
+        <v>1.040629388896025</v>
       </c>
       <c r="K3">
-        <v>1.062423432336208</v>
+        <v>1.046067266890239</v>
       </c>
       <c r="L3">
-        <v>1.073861233716562</v>
+        <v>1.047691792826396</v>
       </c>
       <c r="M3">
-        <v>1.078340177303941</v>
+        <v>1.053513227328381</v>
       </c>
       <c r="N3">
-        <v>1.024873385616457</v>
+        <v>1.016557670269067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059938565262109</v>
+        <v>1.024796361028727</v>
       </c>
       <c r="D4">
-        <v>1.060541114971</v>
+        <v>1.038964364125628</v>
       </c>
       <c r="E4">
-        <v>1.07218041658044</v>
+        <v>1.041298082480271</v>
       </c>
       <c r="F4">
-        <v>1.076654888986313</v>
+        <v>1.04712575186464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040879559990413</v>
+        <v>1.049812209304305</v>
       </c>
       <c r="J4">
-        <v>1.064357665112678</v>
+        <v>1.043586360133013</v>
       </c>
       <c r="K4">
-        <v>1.062964561864413</v>
+        <v>1.048614211931165</v>
       </c>
       <c r="L4">
-        <v>1.074576201175091</v>
+        <v>1.050922372298761</v>
       </c>
       <c r="M4">
-        <v>1.079040210142609</v>
+        <v>1.056686829157543</v>
       </c>
       <c r="N4">
-        <v>1.025094445407024</v>
+        <v>1.017594199935945</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060304656254151</v>
+        <v>1.0264989960089</v>
       </c>
       <c r="D5">
-        <v>1.060819429213237</v>
+        <v>1.040245421488239</v>
       </c>
       <c r="E5">
-        <v>1.072531494113114</v>
+        <v>1.042865924440415</v>
       </c>
       <c r="F5">
-        <v>1.076999422380611</v>
+        <v>1.048667844614295</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040948101666878</v>
+        <v>1.050228124841669</v>
       </c>
       <c r="J5">
-        <v>1.064628408263548</v>
+        <v>1.044810776196444</v>
       </c>
       <c r="K5">
-        <v>1.06319176456648</v>
+        <v>1.049668174156363</v>
       </c>
       <c r="L5">
-        <v>1.074876617255552</v>
+        <v>1.05226078476062</v>
       </c>
       <c r="M5">
-        <v>1.079334331655579</v>
+        <v>1.058001556093772</v>
       </c>
       <c r="N5">
-        <v>1.025187244379746</v>
+        <v>1.018023118512551</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060366118828998</v>
+        <v>1.026783454307947</v>
       </c>
       <c r="D6">
-        <v>1.060866151083412</v>
+        <v>1.040459469990697</v>
       </c>
       <c r="E6">
-        <v>1.072590440319843</v>
+        <v>1.043127939417249</v>
       </c>
       <c r="F6">
-        <v>1.07705726893799</v>
+        <v>1.04892555514137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040959587316027</v>
+        <v>1.050297437917054</v>
       </c>
       <c r="J6">
-        <v>1.064673854600206</v>
+        <v>1.045015289285731</v>
       </c>
       <c r="K6">
-        <v>1.063229896054542</v>
+        <v>1.049844176348304</v>
       </c>
       <c r="L6">
-        <v>1.074927049346804</v>
+        <v>1.052484379809117</v>
       </c>
       <c r="M6">
-        <v>1.079383705916177</v>
+        <v>1.058221189293179</v>
       </c>
       <c r="N6">
-        <v>1.025202817864053</v>
+        <v>1.018094743185438</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059943457373208</v>
+        <v>1.024819207731822</v>
       </c>
       <c r="D7">
-        <v>1.060544834378026</v>
+        <v>1.038981552315172</v>
       </c>
       <c r="E7">
-        <v>1.072185107781678</v>
+        <v>1.041319115289179</v>
       </c>
       <c r="F7">
-        <v>1.076659492801951</v>
+        <v>1.047146439324085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040880477375824</v>
+        <v>1.049817801889814</v>
       </c>
       <c r="J7">
-        <v>1.064361283643812</v>
+        <v>1.043602793175811</v>
       </c>
       <c r="K7">
-        <v>1.062967598888053</v>
+        <v>1.048628359977449</v>
       </c>
       <c r="L7">
-        <v>1.074580215960313</v>
+        <v>1.050940332527179</v>
       </c>
       <c r="M7">
-        <v>1.079044140882751</v>
+        <v>1.056704471876111</v>
       </c>
       <c r="N7">
-        <v>1.025095685919352</v>
+        <v>1.017599957654393</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058175950077262</v>
+        <v>1.016394700480553</v>
       </c>
       <c r="D8">
-        <v>1.059200566943459</v>
+        <v>1.032646904985121</v>
       </c>
       <c r="E8">
-        <v>1.070490683398212</v>
+        <v>1.033572938477558</v>
       </c>
       <c r="F8">
-        <v>1.074996529621768</v>
+        <v>1.039527374991148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040546506889252</v>
+        <v>1.047735413853289</v>
       </c>
       <c r="J8">
-        <v>1.063052944349056</v>
+        <v>1.037537785456817</v>
       </c>
       <c r="K8">
-        <v>1.061868789315034</v>
+        <v>1.043402091803373</v>
       </c>
       <c r="L8">
-        <v>1.073129176525717</v>
+        <v>1.044316564131405</v>
       </c>
       <c r="M8">
-        <v>1.077623346076555</v>
+        <v>1.050197274077977</v>
       </c>
       <c r="N8">
-        <v>1.024646748105456</v>
+        <v>1.015472996562155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05505792825001</v>
+        <v>1.000651258426329</v>
       </c>
       <c r="D9">
-        <v>1.056827088769576</v>
+        <v>1.020831395384964</v>
       </c>
       <c r="E9">
-        <v>1.067503951635104</v>
+        <v>1.019147288136261</v>
       </c>
       <c r="F9">
-        <v>1.072064782258586</v>
+        <v>1.025338855583671</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039945513696431</v>
+        <v>1.043750280510608</v>
       </c>
       <c r="J9">
-        <v>1.060740378187661</v>
+        <v>1.026181040021231</v>
       </c>
       <c r="K9">
-        <v>1.059923189901885</v>
+        <v>1.033595302869181</v>
       </c>
       <c r="L9">
-        <v>1.070567071983935</v>
+        <v>1.031937168694358</v>
       </c>
       <c r="M9">
-        <v>1.07511403260705</v>
+        <v>1.038033782111804</v>
       </c>
       <c r="N9">
-        <v>1.023851306035132</v>
+        <v>1.011481880532438</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052976702765791</v>
+        <v>0.9894550062323321</v>
       </c>
       <c r="D10">
-        <v>1.05524148679772</v>
+        <v>1.01245113184681</v>
       </c>
       <c r="E10">
-        <v>1.065511990765251</v>
+        <v>1.00892745622818</v>
       </c>
       <c r="F10">
-        <v>1.070109182082043</v>
+        <v>1.015288189796631</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039536411664961</v>
+        <v>1.040856577398349</v>
       </c>
       <c r="J10">
-        <v>1.059193742530816</v>
+        <v>1.0180933403723</v>
       </c>
       <c r="K10">
-        <v>1.058619717664229</v>
+        <v>1.026599158383032</v>
       </c>
       <c r="L10">
-        <v>1.068855357484336</v>
+        <v>1.023137372044796</v>
       </c>
       <c r="M10">
-        <v>1.073437181260755</v>
+        <v>1.029386790728239</v>
       </c>
       <c r="N10">
-        <v>1.023318039298583</v>
+        <v>1.008634981622966</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052074854823109</v>
+        <v>0.9844160883553698</v>
       </c>
       <c r="D11">
-        <v>1.054554097782034</v>
+        <v>1.008686732593707</v>
       </c>
       <c r="E11">
-        <v>1.064649218856421</v>
+        <v>1.004338593432019</v>
       </c>
       <c r="F11">
-        <v>1.069262086807643</v>
+        <v>1.010775787161121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039357255002106</v>
+        <v>1.039541096678983</v>
       </c>
       <c r="J11">
-        <v>1.058522830566315</v>
+        <v>1.014451860820804</v>
       </c>
       <c r="K11">
-        <v>1.058053754086553</v>
+        <v>1.023446668356006</v>
       </c>
       <c r="L11">
-        <v>1.068113266100116</v>
+        <v>1.019179151436723</v>
       </c>
       <c r="M11">
-        <v>1.07271010924588</v>
+        <v>1.02549730940982</v>
       </c>
       <c r="N11">
-        <v>1.023086414079067</v>
+        <v>1.007352323786024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051739764180498</v>
+        <v>0.9825133610809632</v>
       </c>
       <c r="D12">
-        <v>1.054298646330393</v>
+        <v>1.007266519167054</v>
       </c>
       <c r="E12">
-        <v>1.06432870743692</v>
+        <v>1.002607526480081</v>
       </c>
       <c r="F12">
-        <v>1.068947388386919</v>
+        <v>1.009073660007001</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039290404993391</v>
+        <v>1.039042478000971</v>
       </c>
       <c r="J12">
-        <v>1.05827343944499</v>
+        <v>1.013076678049262</v>
       </c>
       <c r="K12">
-        <v>1.057843294560423</v>
+        <v>1.022255815821458</v>
       </c>
       <c r="L12">
-        <v>1.067837480784674</v>
+        <v>1.017684940324104</v>
       </c>
       <c r="M12">
-        <v>1.072439891429602</v>
+        <v>1.024029063465238</v>
       </c>
       <c r="N12">
-        <v>1.023000269511232</v>
+        <v>1.00686783211879</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051811647046302</v>
+        <v>0.9829229485499189</v>
       </c>
       <c r="D13">
-        <v>1.054353447210037</v>
+        <v>1.00757217986984</v>
       </c>
       <c r="E13">
-        <v>1.064397460069108</v>
+        <v>1.002980082184759</v>
       </c>
       <c r="F13">
-        <v>1.069014894560776</v>
+        <v>1.009439982643177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03930475828345</v>
+        <v>1.039149895875301</v>
       </c>
       <c r="J13">
-        <v>1.058326943086145</v>
+        <v>1.013372709001037</v>
       </c>
       <c r="K13">
-        <v>1.057888449535995</v>
+        <v>1.022512181030167</v>
       </c>
       <c r="L13">
-        <v>1.067896644036116</v>
+        <v>1.01800656752948</v>
       </c>
       <c r="M13">
-        <v>1.072497860945445</v>
+        <v>1.024345100696104</v>
       </c>
       <c r="N13">
-        <v>1.023018752744474</v>
+        <v>1.006972131297634</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052047158276835</v>
+        <v>0.9842594563687914</v>
       </c>
       <c r="D14">
-        <v>1.054532984640592</v>
+        <v>1.008569794665741</v>
       </c>
       <c r="E14">
-        <v>1.064622726108979</v>
+        <v>1.00419605689539</v>
       </c>
       <c r="F14">
-        <v>1.069236074767457</v>
+        <v>1.01063563144657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039351735350612</v>
+        <v>1.039500088221071</v>
       </c>
       <c r="J14">
-        <v>1.058502219600381</v>
+        <v>1.014338658326506</v>
       </c>
       <c r="K14">
-        <v>1.058036362253349</v>
+        <v>1.023348646120498</v>
       </c>
       <c r="L14">
-        <v>1.068090472464692</v>
+        <v>1.019056138811862</v>
       </c>
       <c r="M14">
-        <v>1.072687776052637</v>
+        <v>1.02537643397061</v>
       </c>
       <c r="N14">
-        <v>1.023079295563813</v>
+        <v>1.00731244329642</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052192250582411</v>
+        <v>0.9850787332400768</v>
       </c>
       <c r="D15">
-        <v>1.054643586997806</v>
+        <v>1.00918150020209</v>
       </c>
       <c r="E15">
-        <v>1.064761514609279</v>
+        <v>1.004941676912721</v>
       </c>
       <c r="F15">
-        <v>1.069372344531288</v>
+        <v>1.011368801253893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039380639263449</v>
+        <v>1.039714510322618</v>
       </c>
       <c r="J15">
-        <v>1.058610188702249</v>
+        <v>1.014930768602727</v>
       </c>
       <c r="K15">
-        <v>1.058127464889542</v>
+        <v>1.023861342098035</v>
       </c>
       <c r="L15">
-        <v>1.068209877972308</v>
+        <v>1.019699585282581</v>
       </c>
       <c r="M15">
-        <v>1.072804768932407</v>
+        <v>1.026008702150988</v>
       </c>
       <c r="N15">
-        <v>1.023116583569118</v>
+        <v>1.007521035752081</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053036541081926</v>
+        <v>0.9897852045514981</v>
       </c>
       <c r="D16">
-        <v>1.055287089208365</v>
+        <v>1.012697974185199</v>
       </c>
       <c r="E16">
-        <v>1.065569244746274</v>
+        <v>1.00922839277399</v>
       </c>
       <c r="F16">
-        <v>1.070165394243898</v>
+        <v>1.015584124260155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039548259223226</v>
+        <v>1.040942514986053</v>
       </c>
       <c r="J16">
-        <v>1.059238243032244</v>
+        <v>1.018331940583737</v>
       </c>
       <c r="K16">
-        <v>1.058657245913601</v>
+        <v>1.026805670345403</v>
       </c>
       <c r="L16">
-        <v>1.068904588251651</v>
+        <v>1.023396806837754</v>
       </c>
       <c r="M16">
-        <v>1.073485413640432</v>
+        <v>1.029641721520522</v>
       </c>
       <c r="N16">
-        <v>1.023333396314521</v>
+        <v>1.00871900945855</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053565961399872</v>
+        <v>0.9926847532962542</v>
       </c>
       <c r="D17">
-        <v>1.055690521791932</v>
+        <v>1.014866385198267</v>
       </c>
       <c r="E17">
-        <v>1.066075845875404</v>
+        <v>1.011872201740509</v>
       </c>
       <c r="F17">
-        <v>1.070662768711466</v>
+        <v>1.018184047806584</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039652863318022</v>
+        <v>1.041695674297393</v>
       </c>
       <c r="J17">
-        <v>1.05963187926644</v>
+        <v>1.020426977450197</v>
       </c>
       <c r="K17">
-        <v>1.05898914651168</v>
+        <v>1.028618678871769</v>
       </c>
       <c r="L17">
-        <v>1.069340116408976</v>
+        <v>1.025675221862828</v>
       </c>
       <c r="M17">
-        <v>1.073912098429754</v>
+        <v>1.031880583824149</v>
       </c>
       <c r="N17">
-        <v>1.023469204574564</v>
+        <v>1.009456725722518</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053874699592638</v>
+        <v>0.9943577685648314</v>
       </c>
       <c r="D18">
-        <v>1.055925758925853</v>
+        <v>1.016118204414002</v>
       </c>
       <c r="E18">
-        <v>1.066371314853392</v>
+        <v>1.01339864931693</v>
       </c>
       <c r="F18">
-        <v>1.070952849381192</v>
+        <v>1.019685203304964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039713682970384</v>
+        <v>1.042128994105617</v>
       </c>
       <c r="J18">
-        <v>1.05986136422038</v>
+        <v>1.021635640392589</v>
       </c>
       <c r="K18">
-        <v>1.059182588979131</v>
+        <v>1.029664398143916</v>
       </c>
       <c r="L18">
-        <v>1.069594065248964</v>
+        <v>1.026990044221441</v>
       </c>
       <c r="M18">
-        <v>1.074160881681578</v>
+        <v>1.033172580705572</v>
       </c>
       <c r="N18">
-        <v>1.023548350096455</v>
+        <v>1.009882245832965</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053979960664031</v>
+        <v>0.9949251972117518</v>
       </c>
       <c r="D19">
-        <v>1.056005955507151</v>
+        <v>1.016542885873149</v>
       </c>
       <c r="E19">
-        <v>1.066472058362122</v>
+        <v>1.01391653212999</v>
       </c>
       <c r="F19">
-        <v>1.071051754499071</v>
+        <v>1.020194512383933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039734387994966</v>
+        <v>1.042275747025756</v>
       </c>
       <c r="J19">
-        <v>1.05993959300504</v>
+        <v>1.02204554762705</v>
       </c>
       <c r="K19">
-        <v>1.059248522568426</v>
+        <v>1.030019003232017</v>
       </c>
       <c r="L19">
-        <v>1.069680640517025</v>
+        <v>1.027436016344228</v>
       </c>
       <c r="M19">
-        <v>1.074245694357776</v>
+        <v>1.033610810178902</v>
       </c>
       <c r="N19">
-        <v>1.023575324973905</v>
+        <v>1.010026542749788</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053509166234939</v>
+        <v>0.9923755623861545</v>
       </c>
       <c r="D20">
-        <v>1.055647245407924</v>
+        <v>1.014635088383285</v>
       </c>
       <c r="E20">
-        <v>1.066021494762915</v>
+        <v>1.011590177557089</v>
       </c>
       <c r="F20">
-        <v>1.070609408208867</v>
+        <v>1.017906700120875</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03964166037664</v>
+        <v>1.041615490667136</v>
       </c>
       <c r="J20">
-        <v>1.059589657886479</v>
+        <v>1.020203590473792</v>
       </c>
       <c r="K20">
-        <v>1.05895355220383</v>
+        <v>1.028425387974529</v>
       </c>
       <c r="L20">
-        <v>1.069293397420181</v>
+        <v>1.025432243888341</v>
       </c>
       <c r="M20">
-        <v>1.073866329015119</v>
+        <v>1.031641823832547</v>
       </c>
       <c r="N20">
-        <v>1.023454640791731</v>
+        <v>1.009378073702424</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051977809000751</v>
+        <v>0.9838667656049759</v>
       </c>
       <c r="D21">
-        <v>1.054480118800395</v>
+        <v>1.008276641226499</v>
       </c>
       <c r="E21">
-        <v>1.064556391993951</v>
+        <v>1.003838732773672</v>
       </c>
       <c r="F21">
-        <v>1.069170944103081</v>
+        <v>1.010284277425116</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039337910153156</v>
+        <v>1.039397246254441</v>
       </c>
       <c r="J21">
-        <v>1.05845061015394</v>
+        <v>1.014054847436438</v>
       </c>
       <c r="K21">
-        <v>1.057992812163402</v>
+        <v>1.023102888549884</v>
       </c>
       <c r="L21">
-        <v>1.068033398700792</v>
+        <v>1.018747742323572</v>
       </c>
       <c r="M21">
-        <v>1.07263185497686</v>
+        <v>1.025073395792029</v>
       </c>
       <c r="N21">
-        <v>1.023061470218957</v>
+        <v>1.007212457011272</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051014379054532</v>
+        <v>0.9783359335413812</v>
       </c>
       <c r="D22">
-        <v>1.053745578066215</v>
+        <v>1.004150948892455</v>
       </c>
       <c r="E22">
-        <v>1.06363499334932</v>
+        <v>0.9988102872716792</v>
       </c>
       <c r="F22">
-        <v>1.068266236469808</v>
+        <v>1.005340105703885</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03914517541317</v>
+        <v>1.03794439826357</v>
       </c>
       <c r="J22">
-        <v>1.057733376428005</v>
+        <v>1.01005733790137</v>
       </c>
       <c r="K22">
-        <v>1.057387393327719</v>
+        <v>1.019640620748441</v>
       </c>
       <c r="L22">
-        <v>1.067240378621795</v>
+        <v>1.014405349503424</v>
       </c>
       <c r="M22">
-        <v>1.071854817605509</v>
+        <v>1.020806511179488</v>
       </c>
       <c r="N22">
-        <v>1.022813639221976</v>
+        <v>1.005803921999085</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051525170328086</v>
+        <v>0.9812859536395998</v>
       </c>
       <c r="D23">
-        <v>1.054135041252944</v>
+        <v>1.006350745010913</v>
       </c>
       <c r="E23">
-        <v>1.064123467215509</v>
+        <v>1.001491353486603</v>
       </c>
       <c r="F23">
-        <v>1.068745867530245</v>
+        <v>1.007976177114369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039247514376036</v>
+        <v>1.038720310962108</v>
       </c>
       <c r="J23">
-        <v>1.058113697942804</v>
+        <v>1.012189552623342</v>
       </c>
       <c r="K23">
-        <v>1.057708467336119</v>
+        <v>1.021487512272354</v>
       </c>
       <c r="L23">
-        <v>1.067660851300496</v>
+        <v>1.01672119618162</v>
       </c>
       <c r="M23">
-        <v>1.07226682372473</v>
+        <v>1.023082073144349</v>
       </c>
       <c r="N23">
-        <v>1.022945079050099</v>
+        <v>1.006555262099562</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053534829721946</v>
+        <v>0.9925153286483561</v>
       </c>
       <c r="D24">
-        <v>1.05566680038485</v>
+        <v>1.014739641449136</v>
       </c>
       <c r="E24">
-        <v>1.066046053761759</v>
+        <v>1.011717660336482</v>
       </c>
       <c r="F24">
-        <v>1.070633519614006</v>
+        <v>1.018032068852253</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039646723103499</v>
+        <v>1.04165174064982</v>
       </c>
       <c r="J24">
-        <v>1.059608736270251</v>
+        <v>1.020304570526793</v>
       </c>
       <c r="K24">
-        <v>1.058969636201394</v>
+        <v>1.028512764106012</v>
       </c>
       <c r="L24">
-        <v>1.069314507990073</v>
+        <v>1.025542078739937</v>
       </c>
       <c r="M24">
-        <v>1.073887010536203</v>
+        <v>1.031749752005647</v>
       </c>
       <c r="N24">
-        <v>1.023461221751918</v>
+        <v>1.009413627887111</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055864443465935</v>
+        <v>1.004837152913963</v>
       </c>
       <c r="D25">
-        <v>1.057441259734685</v>
+        <v>1.02396961854844</v>
       </c>
       <c r="E25">
-        <v>1.068276222661767</v>
+        <v>1.022976489523572</v>
       </c>
       <c r="F25">
-        <v>1.072822891318446</v>
+        <v>1.02910497931621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04010236953703</v>
+        <v>1.044820344116941</v>
       </c>
       <c r="J25">
-        <v>1.061339089142802</v>
+        <v>1.029202816991914</v>
       </c>
       <c r="K25">
-        <v>1.060427294601189</v>
+        <v>1.036206892869607</v>
       </c>
       <c r="L25">
-        <v>1.07123006829704</v>
+        <v>1.0352282963082</v>
       </c>
       <c r="M25">
-        <v>1.075763440060588</v>
+        <v>1.041267674927405</v>
       </c>
       <c r="N25">
-        <v>1.024057467538337</v>
+        <v>1.012544696836421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014168158286411</v>
+        <v>1.004333572992447</v>
       </c>
       <c r="D2">
-        <v>1.030973946789499</v>
+        <v>1.023051493067711</v>
       </c>
       <c r="E2">
-        <v>1.031528823513363</v>
+        <v>1.023080373287575</v>
       </c>
       <c r="F2">
-        <v>1.037516801403255</v>
+        <v>1.03213235908669</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047178725767176</v>
+        <v>1.045419222756954</v>
       </c>
       <c r="J2">
-        <v>1.03593320537495</v>
+        <v>1.026385435730424</v>
       </c>
       <c r="K2">
-        <v>1.04201799320258</v>
+        <v>1.034198760022616</v>
       </c>
       <c r="L2">
-        <v>1.042565714833814</v>
+        <v>1.034227260326736</v>
       </c>
       <c r="M2">
-        <v>1.048477086334519</v>
+        <v>1.043161478786107</v>
       </c>
       <c r="N2">
-        <v>1.014909690973644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012575625629926</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042731802442349</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035251721636591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020687220415851</v>
+        <v>1.007970383667556</v>
       </c>
       <c r="D3">
-        <v>1.035873708946875</v>
+        <v>1.025367133317848</v>
       </c>
       <c r="E3">
-        <v>1.037517464126569</v>
+        <v>1.026132241749836</v>
       </c>
       <c r="F3">
-        <v>1.043407184269417</v>
+        <v>1.034977839354869</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04880137445075</v>
+        <v>1.046009333087426</v>
       </c>
       <c r="J3">
-        <v>1.040629388896025</v>
+        <v>1.028246101316611</v>
       </c>
       <c r="K3">
-        <v>1.046067266890239</v>
+        <v>1.035685407824688</v>
       </c>
       <c r="L3">
-        <v>1.047691792826396</v>
+        <v>1.036441327204774</v>
       </c>
       <c r="M3">
-        <v>1.053513227328381</v>
+        <v>1.045181909333107</v>
       </c>
       <c r="N3">
-        <v>1.016557670269067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013215322377035</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04433083106745</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036300243009421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024796361028727</v>
+        <v>1.010284481299922</v>
       </c>
       <c r="D4">
-        <v>1.038964364125628</v>
+        <v>1.026843701155015</v>
       </c>
       <c r="E4">
-        <v>1.041298082480271</v>
+        <v>1.02807997015248</v>
       </c>
       <c r="F4">
-        <v>1.04712575186464</v>
+        <v>1.036794821079997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049812209304305</v>
+        <v>1.04637544778867</v>
       </c>
       <c r="J4">
-        <v>1.043586360133013</v>
+        <v>1.029428718144443</v>
       </c>
       <c r="K4">
-        <v>1.048614211931165</v>
+        <v>1.036628591644246</v>
       </c>
       <c r="L4">
-        <v>1.050922372298761</v>
+        <v>1.037850907090771</v>
       </c>
       <c r="M4">
-        <v>1.056686829157543</v>
+        <v>1.046468555718975</v>
       </c>
       <c r="N4">
-        <v>1.017594199935945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013621702555432</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045349119331914</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036968059747525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0264989960089</v>
+        <v>1.011251028092385</v>
       </c>
       <c r="D5">
-        <v>1.040245421488239</v>
+        <v>1.027463250942073</v>
       </c>
       <c r="E5">
-        <v>1.042865924440415</v>
+        <v>1.028895037068648</v>
       </c>
       <c r="F5">
-        <v>1.048667844614295</v>
+        <v>1.037555002113188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050228124841669</v>
+        <v>1.046527431841537</v>
       </c>
       <c r="J5">
-        <v>1.044810776196444</v>
+        <v>1.029923633324961</v>
       </c>
       <c r="K5">
-        <v>1.049668174156363</v>
+        <v>1.037024560560735</v>
       </c>
       <c r="L5">
-        <v>1.05226078476062</v>
+        <v>1.038440616065833</v>
       </c>
       <c r="M5">
-        <v>1.058001556093772</v>
+        <v>1.047006570912771</v>
       </c>
       <c r="N5">
-        <v>1.018023118512551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013791999209144</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045774919322</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037255242275897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026783454307947</v>
+        <v>1.011416205800099</v>
       </c>
       <c r="D6">
-        <v>1.040459469990697</v>
+        <v>1.027571731161726</v>
       </c>
       <c r="E6">
-        <v>1.043127939417249</v>
+        <v>1.029034618210516</v>
       </c>
       <c r="F6">
-        <v>1.04892555514137</v>
+        <v>1.037684713191851</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050297437917054</v>
+        <v>1.046554915733163</v>
       </c>
       <c r="J6">
-        <v>1.045015289285731</v>
+        <v>1.030009777100731</v>
       </c>
       <c r="K6">
-        <v>1.049844176348304</v>
+        <v>1.0370954887871</v>
       </c>
       <c r="L6">
-        <v>1.052484379809117</v>
+        <v>1.038542377039459</v>
       </c>
       <c r="M6">
-        <v>1.058221189293179</v>
+        <v>1.047099000181478</v>
       </c>
       <c r="N6">
-        <v>1.018094743185438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013821980684291</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045848070357108</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037314171425648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024819207731822</v>
+        <v>1.010306622619943</v>
       </c>
       <c r="D7">
-        <v>1.038981552315172</v>
+        <v>1.026864742961666</v>
       </c>
       <c r="E7">
-        <v>1.041319115289179</v>
+        <v>1.028099200877103</v>
       </c>
       <c r="F7">
-        <v>1.047146439324085</v>
+        <v>1.036811456178015</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049817801889814</v>
+        <v>1.046383354131386</v>
       </c>
       <c r="J7">
-        <v>1.043602793175811</v>
+        <v>1.029444312915476</v>
       </c>
       <c r="K7">
-        <v>1.048628359977449</v>
+        <v>1.036646499243394</v>
       </c>
       <c r="L7">
-        <v>1.050940332527179</v>
+        <v>1.037867029370848</v>
       </c>
       <c r="M7">
-        <v>1.056704471876111</v>
+        <v>1.046482147856948</v>
       </c>
       <c r="N7">
-        <v>1.017599957654393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013628004807478</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045359876525981</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037000909044624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016394700480553</v>
+        <v>1.005582421012284</v>
       </c>
       <c r="D8">
-        <v>1.032646904985121</v>
+        <v>1.023854441460638</v>
       </c>
       <c r="E8">
-        <v>1.033572938477558</v>
+        <v>1.024127858690115</v>
       </c>
       <c r="F8">
-        <v>1.039527374991148</v>
+        <v>1.03310718175667</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047735413853289</v>
+        <v>1.045629224031252</v>
       </c>
       <c r="J8">
-        <v>1.037537785456817</v>
+        <v>1.027029919163303</v>
       </c>
       <c r="K8">
-        <v>1.043402091803373</v>
+        <v>1.034720700321757</v>
       </c>
       <c r="L8">
-        <v>1.044316564131405</v>
+        <v>1.034990627676833</v>
       </c>
       <c r="M8">
-        <v>1.050197274077977</v>
+        <v>1.043856618971584</v>
       </c>
       <c r="N8">
-        <v>1.015472996562155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01279847094595</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043281957386685</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035643783353835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000651258426329</v>
+        <v>0.9969304261996668</v>
       </c>
       <c r="D9">
-        <v>1.020831395384964</v>
+        <v>1.018357146698375</v>
       </c>
       <c r="E9">
-        <v>1.019147288136261</v>
+        <v>1.016901306731757</v>
       </c>
       <c r="F9">
-        <v>1.025338855583671</v>
+        <v>1.026376703724851</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043750280510608</v>
+        <v>1.044168577790185</v>
       </c>
       <c r="J9">
-        <v>1.026181040021231</v>
+        <v>1.022592046628178</v>
       </c>
       <c r="K9">
-        <v>1.033595302869181</v>
+        <v>1.03115925099852</v>
       </c>
       <c r="L9">
-        <v>1.031937168694358</v>
+        <v>1.029725996909727</v>
       </c>
       <c r="M9">
-        <v>1.038033782111804</v>
+        <v>1.039055856669723</v>
       </c>
       <c r="N9">
-        <v>1.011481880532438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011270631547537</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039482480537923</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033122391650635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9894550062323321</v>
+        <v>0.9910043360898024</v>
       </c>
       <c r="D10">
-        <v>1.01245113184681</v>
+        <v>1.014622056860227</v>
       </c>
       <c r="E10">
-        <v>1.00892745622818</v>
+        <v>1.012024150568004</v>
       </c>
       <c r="F10">
-        <v>1.015288189796631</v>
+        <v>1.021887719773923</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040856577398349</v>
+        <v>1.043140964257112</v>
       </c>
       <c r="J10">
-        <v>1.0180933403723</v>
+        <v>1.019579464236467</v>
       </c>
       <c r="K10">
-        <v>1.026599158383032</v>
+        <v>1.028732230637405</v>
       </c>
       <c r="L10">
-        <v>1.023137372044796</v>
+        <v>1.026179646808231</v>
       </c>
       <c r="M10">
-        <v>1.029386790728239</v>
+        <v>1.035872718938854</v>
       </c>
       <c r="N10">
-        <v>1.008634981622966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010237735015936</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03701476234596</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031423218356198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9844160883553698</v>
+        <v>0.988943056853769</v>
       </c>
       <c r="D11">
-        <v>1.008686732593707</v>
+        <v>1.013396553123405</v>
       </c>
       <c r="E11">
-        <v>1.004338593432019</v>
+        <v>1.010644421971679</v>
       </c>
       <c r="F11">
-        <v>1.010775787161121</v>
+        <v>1.021003282070431</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039541096678983</v>
+        <v>1.042923067727664</v>
       </c>
       <c r="J11">
-        <v>1.014451860820804</v>
+        <v>1.018783163291755</v>
       </c>
       <c r="K11">
-        <v>1.023446668356006</v>
+        <v>1.028070176223317</v>
       </c>
       <c r="L11">
-        <v>1.019179151436723</v>
+        <v>1.025368353667879</v>
       </c>
       <c r="M11">
-        <v>1.02549730940982</v>
+        <v>1.035539687018101</v>
       </c>
       <c r="N11">
-        <v>1.007352323786024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010006654045294</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037188063394753</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03098813367147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9825133610809632</v>
+        <v>0.9883793223231792</v>
       </c>
       <c r="D12">
-        <v>1.007266519167054</v>
+        <v>1.013089998076091</v>
       </c>
       <c r="E12">
-        <v>1.002607526480081</v>
+        <v>1.010410048620386</v>
       </c>
       <c r="F12">
-        <v>1.009073660007001</v>
+        <v>1.021071644179014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039042478000971</v>
+        <v>1.042930287909569</v>
       </c>
       <c r="J12">
-        <v>1.013076678049262</v>
+        <v>1.018683764653619</v>
       </c>
       <c r="K12">
-        <v>1.022255815821458</v>
+        <v>1.02797063906919</v>
       </c>
       <c r="L12">
-        <v>1.017684940324104</v>
+        <v>1.025340489662439</v>
       </c>
       <c r="M12">
-        <v>1.024029063465238</v>
+        <v>1.035805981049114</v>
       </c>
       <c r="N12">
-        <v>1.00686783211879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010006518143395</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037725445116535</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030917756976532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9829229485499189</v>
+        <v>0.9889416129745673</v>
       </c>
       <c r="D13">
-        <v>1.00757217986984</v>
+        <v>1.013484151670285</v>
       </c>
       <c r="E13">
-        <v>1.002980082184759</v>
+        <v>1.011053734034402</v>
       </c>
       <c r="F13">
-        <v>1.009439982643177</v>
+        <v>1.021897533469357</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039149895875301</v>
+        <v>1.043122609590295</v>
       </c>
       <c r="J13">
-        <v>1.013372709001037</v>
+        <v>1.019127107811233</v>
       </c>
       <c r="K13">
-        <v>1.022512181030167</v>
+        <v>1.028314314933342</v>
       </c>
       <c r="L13">
-        <v>1.01800656752948</v>
+        <v>1.025928848990567</v>
       </c>
       <c r="M13">
-        <v>1.024345100696104</v>
+        <v>1.036574233917431</v>
       </c>
       <c r="N13">
-        <v>1.006972131297634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010189755078069</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038609756558596</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031158243668001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9842594563687914</v>
+        <v>0.9898447187617646</v>
       </c>
       <c r="D14">
-        <v>1.008569794665741</v>
+        <v>1.014078445807318</v>
       </c>
       <c r="E14">
-        <v>1.00419605689539</v>
+        <v>1.01190006658186</v>
       </c>
       <c r="F14">
-        <v>1.01063563144657</v>
+        <v>1.022816467893345</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039500088221071</v>
+        <v>1.043340910923227</v>
       </c>
       <c r="J14">
-        <v>1.014338658326506</v>
+        <v>1.019682425626349</v>
       </c>
       <c r="K14">
-        <v>1.023348646120498</v>
+        <v>1.028756286239401</v>
       </c>
       <c r="L14">
-        <v>1.019056138811862</v>
+        <v>1.026617680329756</v>
       </c>
       <c r="M14">
-        <v>1.02537643397061</v>
+        <v>1.037336977804269</v>
       </c>
       <c r="N14">
-        <v>1.00731244329642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010400891495147</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039386079764553</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031472166938409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9850787332400768</v>
+        <v>0.9903151825746954</v>
       </c>
       <c r="D15">
-        <v>1.00918150020209</v>
+        <v>1.014381880793936</v>
       </c>
       <c r="E15">
-        <v>1.004941676912721</v>
+        <v>1.012307665827035</v>
       </c>
       <c r="F15">
-        <v>1.011368801253893</v>
+        <v>1.02322168536014</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039714510322618</v>
+        <v>1.043437991811856</v>
       </c>
       <c r="J15">
-        <v>1.014930768602727</v>
+        <v>1.01994292121314</v>
       </c>
       <c r="K15">
-        <v>1.023861342098035</v>
+        <v>1.028967128382833</v>
       </c>
       <c r="L15">
-        <v>1.019699585282581</v>
+        <v>1.026930491556397</v>
       </c>
       <c r="M15">
-        <v>1.026008702150988</v>
+        <v>1.037648999204923</v>
       </c>
       <c r="N15">
-        <v>1.007521035752081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010494950280359</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039670246189637</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031627141337905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9897852045514981</v>
+        <v>0.9927115247926244</v>
       </c>
       <c r="D16">
-        <v>1.012697974185199</v>
+        <v>1.015884758019446</v>
       </c>
       <c r="E16">
-        <v>1.00922839277399</v>
+        <v>1.01425168295719</v>
       </c>
       <c r="F16">
-        <v>1.015584124260155</v>
+        <v>1.024992736362274</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040942514986053</v>
+        <v>1.043850067820536</v>
       </c>
       <c r="J16">
-        <v>1.018331940583737</v>
+        <v>1.021139609236228</v>
       </c>
       <c r="K16">
-        <v>1.026805670345403</v>
+        <v>1.029937157939613</v>
       </c>
       <c r="L16">
-        <v>1.023396806837754</v>
+        <v>1.028332363391055</v>
       </c>
       <c r="M16">
-        <v>1.029641721520522</v>
+        <v>1.038889542784579</v>
       </c>
       <c r="N16">
-        <v>1.00871900945855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010899306481504</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040612047612877</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032316176219535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9926847532962542</v>
+        <v>0.994079375587156</v>
       </c>
       <c r="D17">
-        <v>1.014866385198267</v>
+        <v>1.016728988123212</v>
       </c>
       <c r="E17">
-        <v>1.011872201740509</v>
+        <v>1.015301423569565</v>
       </c>
       <c r="F17">
-        <v>1.018184047806584</v>
+        <v>1.025866283490376</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041695674297393</v>
+        <v>1.044049720444215</v>
       </c>
       <c r="J17">
-        <v>1.020426977450197</v>
+        <v>1.021766991459354</v>
       </c>
       <c r="K17">
-        <v>1.028618678871769</v>
+        <v>1.030449920559083</v>
       </c>
       <c r="L17">
-        <v>1.025675221862828</v>
+        <v>1.02904637907907</v>
       </c>
       <c r="M17">
-        <v>1.031880583824149</v>
+        <v>1.039435489820614</v>
       </c>
       <c r="N17">
-        <v>1.009456725722518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011098882787791</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040914534559725</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032681323164255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9943577685648314</v>
+        <v>0.9946753495454573</v>
       </c>
       <c r="D18">
-        <v>1.016118204414002</v>
+        <v>1.017067695550527</v>
       </c>
       <c r="E18">
-        <v>1.01339864931693</v>
+        <v>1.015645915337966</v>
       </c>
       <c r="F18">
-        <v>1.019685203304964</v>
+        <v>1.025995114630837</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042128994105617</v>
+        <v>1.044076111493501</v>
       </c>
       <c r="J18">
-        <v>1.021635640392589</v>
+        <v>1.021941036042262</v>
       </c>
       <c r="K18">
-        <v>1.029664398143916</v>
+        <v>1.03059818124606</v>
       </c>
       <c r="L18">
-        <v>1.026990044221441</v>
+        <v>1.029199936527438</v>
       </c>
       <c r="M18">
-        <v>1.033172580705572</v>
+        <v>1.039379733469596</v>
       </c>
       <c r="N18">
-        <v>1.009882245832965</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011132157379891</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040632740127399</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032774457367492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9949251972117518</v>
+        <v>0.9945855558800538</v>
       </c>
       <c r="D19">
-        <v>1.016542885873149</v>
+        <v>1.01696860669078</v>
       </c>
       <c r="E19">
-        <v>1.01391653212999</v>
+        <v>1.015357518387191</v>
       </c>
       <c r="F19">
-        <v>1.020194512383933</v>
+        <v>1.0254499245138</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042275747025756</v>
+        <v>1.043957052505463</v>
       </c>
       <c r="J19">
-        <v>1.02204554762705</v>
+        <v>1.021718852963768</v>
       </c>
       <c r="K19">
-        <v>1.030019003232017</v>
+        <v>1.030437721600236</v>
       </c>
       <c r="L19">
-        <v>1.027436016344228</v>
+        <v>1.028853173017463</v>
       </c>
       <c r="M19">
-        <v>1.033610810178902</v>
+        <v>1.038781089609238</v>
       </c>
       <c r="N19">
-        <v>1.010026542749788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011023896515032</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039833779961749</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032667432324782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9923755623861545</v>
+        <v>0.9925643025692568</v>
       </c>
       <c r="D20">
-        <v>1.014635088383285</v>
+        <v>1.015620810693138</v>
       </c>
       <c r="E20">
-        <v>1.011590177557089</v>
+        <v>1.013309034834906</v>
       </c>
       <c r="F20">
-        <v>1.017906700120875</v>
+        <v>1.023069281995292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041615490667136</v>
+        <v>1.043426303949704</v>
       </c>
       <c r="J20">
-        <v>1.020203590473792</v>
+        <v>1.020384897917255</v>
       </c>
       <c r="K20">
-        <v>1.028425387974529</v>
+        <v>1.029394437758962</v>
       </c>
       <c r="L20">
-        <v>1.025432243888341</v>
+        <v>1.027121829382583</v>
       </c>
       <c r="M20">
-        <v>1.031641823832547</v>
+        <v>1.036718262629518</v>
       </c>
       <c r="N20">
-        <v>1.009378073702424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01051697679988</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037673354592032</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031933724293186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9838667656049759</v>
+        <v>0.9880129973480438</v>
       </c>
       <c r="D21">
-        <v>1.008276641226499</v>
+        <v>1.012744605600373</v>
       </c>
       <c r="E21">
-        <v>1.003838732773672</v>
+        <v>1.009515745148102</v>
       </c>
       <c r="F21">
-        <v>1.010284277425116</v>
+        <v>1.019505606705082</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039397246254441</v>
+        <v>1.042591572148932</v>
       </c>
       <c r="J21">
-        <v>1.014054847436438</v>
+        <v>1.018020582359418</v>
       </c>
       <c r="K21">
-        <v>1.023102888549884</v>
+        <v>1.027488484409432</v>
       </c>
       <c r="L21">
-        <v>1.018747742323572</v>
+        <v>1.024319053907204</v>
       </c>
       <c r="M21">
-        <v>1.025073395792029</v>
+        <v>1.03412662832845</v>
       </c>
       <c r="N21">
-        <v>1.007212457011272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009698307169617</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035581310636812</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030589374604237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9783359335413812</v>
+        <v>0.9851215771351334</v>
       </c>
       <c r="D22">
-        <v>1.004150948892455</v>
+        <v>1.010919801050353</v>
       </c>
       <c r="E22">
-        <v>0.9988102872716792</v>
+        <v>1.007132410594879</v>
       </c>
       <c r="F22">
-        <v>1.005340105703885</v>
+        <v>1.01729317707886</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03794439826357</v>
+        <v>1.042056769258073</v>
       </c>
       <c r="J22">
-        <v>1.01005733790137</v>
+        <v>1.016528979714936</v>
       </c>
       <c r="K22">
-        <v>1.019640620748441</v>
+        <v>1.026277994600052</v>
       </c>
       <c r="L22">
-        <v>1.014405349503424</v>
+        <v>1.022563884939787</v>
       </c>
       <c r="M22">
-        <v>1.020806511179488</v>
+        <v>1.032529664568286</v>
       </c>
       <c r="N22">
-        <v>1.005803921999085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009182808053489</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034317411061344</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.0297199128352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9812859536395998</v>
+        <v>0.9866509376341956</v>
       </c>
       <c r="D23">
-        <v>1.006350745010913</v>
+        <v>1.011878488734931</v>
       </c>
       <c r="E23">
-        <v>1.001491353486603</v>
+        <v>1.008391627331585</v>
       </c>
       <c r="F23">
-        <v>1.007976177114369</v>
+        <v>1.01846312829898</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038720310962108</v>
+        <v>1.042336711399178</v>
       </c>
       <c r="J23">
-        <v>1.012189552623342</v>
+        <v>1.017314140314618</v>
       </c>
       <c r="K23">
-        <v>1.021487512272354</v>
+        <v>1.02691079828564</v>
       </c>
       <c r="L23">
-        <v>1.01672119618162</v>
+        <v>1.023489653743642</v>
       </c>
       <c r="M23">
-        <v>1.023082073144349</v>
+        <v>1.033372936540898</v>
       </c>
       <c r="N23">
-        <v>1.006555262099562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009453115715373</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034984809761808</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030157645611659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9925153286483561</v>
+        <v>0.9925721122124475</v>
       </c>
       <c r="D24">
-        <v>1.014739641449136</v>
+        <v>1.015610367938976</v>
       </c>
       <c r="E24">
-        <v>1.011717660336482</v>
+        <v>1.013284229210668</v>
       </c>
       <c r="F24">
-        <v>1.018032068852253</v>
+        <v>1.023010040494291</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04165174064982</v>
+        <v>1.04340784450984</v>
       </c>
       <c r="J24">
-        <v>1.020304570526793</v>
+        <v>1.020359121525772</v>
       </c>
       <c r="K24">
-        <v>1.028512764106012</v>
+        <v>1.02936878377846</v>
       </c>
       <c r="L24">
-        <v>1.025542078739937</v>
+        <v>1.027082007039317</v>
       </c>
       <c r="M24">
-        <v>1.031749752005647</v>
+        <v>1.036644774435783</v>
       </c>
       <c r="N24">
-        <v>1.009413627887111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010502877648263</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037574265368251</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031888034866254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004837152913963</v>
+        <v>0.9992208163190418</v>
       </c>
       <c r="D25">
-        <v>1.02396961854844</v>
+        <v>1.01981954546764</v>
       </c>
       <c r="E25">
-        <v>1.022976489523572</v>
+        <v>1.018809535954463</v>
       </c>
       <c r="F25">
-        <v>1.02910497931621</v>
+        <v>1.028150905369443</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044820344116941</v>
+        <v>1.044570261393945</v>
       </c>
       <c r="J25">
-        <v>1.029202816991914</v>
+        <v>1.023774431586924</v>
       </c>
       <c r="K25">
-        <v>1.036206892869607</v>
+        <v>1.032117786643042</v>
       </c>
       <c r="L25">
-        <v>1.0352282963082</v>
+        <v>1.031122710217783</v>
       </c>
       <c r="M25">
-        <v>1.041267674927405</v>
+        <v>1.040327385183472</v>
       </c>
       <c r="N25">
-        <v>1.012544696836421</v>
+        <v>1.011679508946829</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040488810822034</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033828863381611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004333572992447</v>
+        <v>1.004335871941985</v>
       </c>
       <c r="D2">
-        <v>1.023051493067711</v>
+        <v>1.022668959881225</v>
       </c>
       <c r="E2">
-        <v>1.023080373287575</v>
+        <v>1.023077526549327</v>
       </c>
       <c r="F2">
-        <v>1.03213235908669</v>
+        <v>1.032118673375698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045419222756954</v>
+        <v>1.045277646992615</v>
       </c>
       <c r="J2">
-        <v>1.026385435730424</v>
+        <v>1.026387666731656</v>
       </c>
       <c r="K2">
-        <v>1.034198760022616</v>
+        <v>1.033821261551352</v>
       </c>
       <c r="L2">
-        <v>1.034227260326736</v>
+        <v>1.03422445103579</v>
       </c>
       <c r="M2">
-        <v>1.043161478786107</v>
+        <v>1.043147969177655</v>
       </c>
       <c r="N2">
-        <v>1.012575625629926</v>
+        <v>1.014102525471516</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042731802442349</v>
+        <v>1.042721110525951</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035251721636591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034993607881989</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021079092560295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007970383667556</v>
+        <v>1.007843764194367</v>
       </c>
       <c r="D3">
-        <v>1.025367133317848</v>
+        <v>1.024820699076655</v>
       </c>
       <c r="E3">
-        <v>1.026132241749836</v>
+        <v>1.026013234387038</v>
       </c>
       <c r="F3">
-        <v>1.034977839354869</v>
+        <v>1.034874836905115</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046009333087426</v>
+        <v>1.045797388244987</v>
       </c>
       <c r="J3">
-        <v>1.028246101316611</v>
+        <v>1.028122860450807</v>
       </c>
       <c r="K3">
-        <v>1.035685407824688</v>
+        <v>1.035145546753713</v>
       </c>
       <c r="L3">
-        <v>1.036441327204774</v>
+        <v>1.036323748019173</v>
       </c>
       <c r="M3">
-        <v>1.045181909333107</v>
+        <v>1.045080116946623</v>
       </c>
       <c r="N3">
-        <v>1.013215322377035</v>
+        <v>1.014576565457253</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04433083106745</v>
+        <v>1.044250269639278</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036300243009421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035927047055128</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021335014355195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010284481299922</v>
+        <v>1.01007677146891</v>
       </c>
       <c r="D4">
-        <v>1.026843701155015</v>
+        <v>1.026193581421529</v>
       </c>
       <c r="E4">
-        <v>1.02807997015248</v>
+        <v>1.02788777855391</v>
       </c>
       <c r="F4">
-        <v>1.036794821079997</v>
+        <v>1.036635588601633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04637544778867</v>
+        <v>1.046118949841239</v>
       </c>
       <c r="J4">
-        <v>1.029428718144443</v>
+        <v>1.029226178188684</v>
       </c>
       <c r="K4">
-        <v>1.036628591644246</v>
+        <v>1.035985826323268</v>
       </c>
       <c r="L4">
-        <v>1.037850907090771</v>
+        <v>1.03766088201032</v>
       </c>
       <c r="M4">
-        <v>1.046468555718975</v>
+        <v>1.046311081243039</v>
       </c>
       <c r="N4">
-        <v>1.013621702555432</v>
+        <v>1.014877882857058</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045349119331914</v>
+        <v>1.045224489663067</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036968059747525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036522182896787</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021495011507866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011251028092385</v>
+        <v>1.011009651031183</v>
       </c>
       <c r="D5">
-        <v>1.027463250942073</v>
+        <v>1.026770002492443</v>
       </c>
       <c r="E5">
-        <v>1.028895037068648</v>
+        <v>1.028672435407718</v>
       </c>
       <c r="F5">
-        <v>1.037555002113188</v>
+        <v>1.037372414871065</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046527431841537</v>
+        <v>1.046252384473723</v>
       </c>
       <c r="J5">
-        <v>1.029923633324961</v>
+        <v>1.02968808577913</v>
       </c>
       <c r="K5">
-        <v>1.037024560560735</v>
+        <v>1.03633894800315</v>
       </c>
       <c r="L5">
-        <v>1.038440616065833</v>
+        <v>1.038220456533997</v>
       </c>
       <c r="M5">
-        <v>1.047006570912771</v>
+        <v>1.046825945935077</v>
       </c>
       <c r="N5">
-        <v>1.013791999209144</v>
+        <v>1.01500422659475</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045774919322</v>
+        <v>1.045631967784972</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037255242275897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036779779158638</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021562103763983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011416205800099</v>
+        <v>1.011169071313823</v>
       </c>
       <c r="D6">
-        <v>1.027571731161726</v>
+        <v>1.02687116477918</v>
       </c>
       <c r="E6">
-        <v>1.029034618210516</v>
+        <v>1.028806815384025</v>
       </c>
       <c r="F6">
-        <v>1.037684713191851</v>
+        <v>1.037498133172878</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046554915733163</v>
+        <v>1.046276709381221</v>
       </c>
       <c r="J6">
-        <v>1.030009777100731</v>
+        <v>1.029768580685485</v>
       </c>
       <c r="K6">
-        <v>1.0370954887871</v>
+        <v>1.036402603942701</v>
       </c>
       <c r="L6">
-        <v>1.038542377039459</v>
+        <v>1.038317061896175</v>
       </c>
       <c r="M6">
-        <v>1.047099000181478</v>
+        <v>1.046914416175057</v>
       </c>
       <c r="N6">
-        <v>1.013821980684291</v>
+        <v>1.015026512683515</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045848070357108</v>
+        <v>1.045701985550929</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037314171425648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036834434556983</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021574694196768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010306622619943</v>
+        <v>1.010105785333275</v>
       </c>
       <c r="D7">
-        <v>1.026864742961666</v>
+        <v>1.026219125896556</v>
       </c>
       <c r="E7">
-        <v>1.028099200877103</v>
+        <v>1.027913180119918</v>
       </c>
       <c r="F7">
-        <v>1.036811456178015</v>
+        <v>1.03665697324532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046383354131386</v>
+        <v>1.046129046522756</v>
       </c>
       <c r="J7">
-        <v>1.029444312915476</v>
+        <v>1.029248472281152</v>
       </c>
       <c r="K7">
-        <v>1.036646499243394</v>
+        <v>1.036008182808965</v>
       </c>
       <c r="L7">
-        <v>1.037867029370848</v>
+        <v>1.037683104758048</v>
       </c>
       <c r="M7">
-        <v>1.046482147856948</v>
+        <v>1.04632936984491</v>
       </c>
       <c r="N7">
-        <v>1.013628004807478</v>
+        <v>1.014910630816947</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045359876525981</v>
+        <v>1.045238963771028</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037000909044624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036560175852775</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021501268107503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005582421012284</v>
+        <v>1.005563923674078</v>
       </c>
       <c r="D8">
-        <v>1.023854441460638</v>
+        <v>1.023432326054019</v>
       </c>
       <c r="E8">
-        <v>1.024127858690115</v>
+        <v>1.024106220453694</v>
       </c>
       <c r="F8">
-        <v>1.03310718175667</v>
+        <v>1.033079101520671</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045629224031252</v>
+        <v>1.045471536867768</v>
       </c>
       <c r="J8">
-        <v>1.027029919163303</v>
+        <v>1.027011950285689</v>
       </c>
       <c r="K8">
-        <v>1.034720700321757</v>
+        <v>1.034303977336006</v>
       </c>
       <c r="L8">
-        <v>1.034990627676833</v>
+        <v>1.034969265544198</v>
       </c>
       <c r="M8">
-        <v>1.043856618971584</v>
+        <v>1.043828889320384</v>
       </c>
       <c r="N8">
-        <v>1.01279847094595</v>
+        <v>1.014352880466382</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043281957386685</v>
+        <v>1.043260011310924</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035643783353835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035360199677446</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021176389945105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9969304261996668</v>
+        <v>0.9972282372316366</v>
       </c>
       <c r="D9">
-        <v>1.018357146698375</v>
+        <v>1.018331229054266</v>
       </c>
       <c r="E9">
-        <v>1.016901306731757</v>
+        <v>1.017163804502986</v>
       </c>
       <c r="F9">
-        <v>1.026376703724851</v>
+        <v>1.026567482645242</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044168577790185</v>
+        <v>1.044180975539955</v>
       </c>
       <c r="J9">
-        <v>1.022592046628178</v>
+        <v>1.022879254698251</v>
       </c>
       <c r="K9">
-        <v>1.03115925099852</v>
+        <v>1.031133734719121</v>
       </c>
       <c r="L9">
-        <v>1.029725996909727</v>
+        <v>1.029984416189836</v>
       </c>
       <c r="M9">
-        <v>1.039055856669723</v>
+        <v>1.039243740486877</v>
       </c>
       <c r="N9">
-        <v>1.011270631547537</v>
+        <v>1.013232150013866</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039482480537923</v>
+        <v>1.039631178176863</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033122391650635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033115143225564</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020549068819966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9910043360898024</v>
+        <v>0.9915574719761521</v>
       </c>
       <c r="D10">
-        <v>1.014622056860227</v>
+        <v>1.014893740114083</v>
       </c>
       <c r="E10">
-        <v>1.012024150568004</v>
+        <v>1.012514922464364</v>
       </c>
       <c r="F10">
-        <v>1.021887719773923</v>
+        <v>1.022254882164582</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043140964257112</v>
+        <v>1.043282037869015</v>
       </c>
       <c r="J10">
-        <v>1.019579464236467</v>
+        <v>1.020110102453797</v>
       </c>
       <c r="K10">
-        <v>1.028732230637405</v>
+        <v>1.028999191515455</v>
       </c>
       <c r="L10">
-        <v>1.026179646808231</v>
+        <v>1.02666183373419</v>
       </c>
       <c r="M10">
-        <v>1.035872718938854</v>
+        <v>1.036233616769894</v>
       </c>
       <c r="N10">
-        <v>1.010237735015936</v>
+        <v>1.01259575614104</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03701476234596</v>
+        <v>1.037300372251114</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031423218356198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031624451337203</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020121727476613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.988943056853769</v>
+        <v>0.9896237794664418</v>
       </c>
       <c r="D11">
-        <v>1.013396553123405</v>
+        <v>1.013793470156159</v>
       </c>
       <c r="E11">
-        <v>1.010644421971679</v>
+        <v>1.011248721159728</v>
       </c>
       <c r="F11">
-        <v>1.021003282070431</v>
+        <v>1.021458324974018</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042923067727664</v>
+        <v>1.043118036578364</v>
       </c>
       <c r="J11">
-        <v>1.018783163291755</v>
+        <v>1.019434684287209</v>
       </c>
       <c r="K11">
-        <v>1.028070176223317</v>
+        <v>1.028459866991149</v>
       </c>
       <c r="L11">
-        <v>1.025368353667879</v>
+        <v>1.025961575793284</v>
       </c>
       <c r="M11">
-        <v>1.035539687018101</v>
+        <v>1.035986605492364</v>
       </c>
       <c r="N11">
-        <v>1.010006654045294</v>
+        <v>1.012672065929291</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037188063394753</v>
+        <v>1.037541570574345</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03098813367147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.0312793541983</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020050492164084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9883793223231792</v>
+        <v>0.9890958512730049</v>
       </c>
       <c r="D12">
-        <v>1.013089998076091</v>
+        <v>1.013518583293077</v>
       </c>
       <c r="E12">
-        <v>1.010410048620386</v>
+        <v>1.011046036750963</v>
       </c>
       <c r="F12">
-        <v>1.021071644179014</v>
+        <v>1.021551092238974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042930287909569</v>
+        <v>1.043137822231727</v>
       </c>
       <c r="J12">
-        <v>1.018683764653619</v>
+        <v>1.019368972585032</v>
       </c>
       <c r="K12">
-        <v>1.02797063906919</v>
+        <v>1.028391291963862</v>
       </c>
       <c r="L12">
-        <v>1.025340489662439</v>
+        <v>1.025964628399447</v>
       </c>
       <c r="M12">
-        <v>1.035805981049114</v>
+        <v>1.036276735464561</v>
       </c>
       <c r="N12">
-        <v>1.010006518143395</v>
+        <v>1.012780820282851</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037725445116535</v>
+        <v>1.03809767996072</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030917756976532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03123087000946</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02006314600821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9889416129745673</v>
+        <v>0.9896139249645166</v>
       </c>
       <c r="D13">
-        <v>1.013484151670285</v>
+        <v>1.013865875869555</v>
       </c>
       <c r="E13">
-        <v>1.011053734034402</v>
+        <v>1.011650111790449</v>
       </c>
       <c r="F13">
-        <v>1.021897533469357</v>
+        <v>1.022346057155035</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043122609590295</v>
+        <v>1.043307787436237</v>
       </c>
       <c r="J13">
-        <v>1.019127107811233</v>
+        <v>1.019770185091362</v>
       </c>
       <c r="K13">
-        <v>1.028314314933342</v>
+        <v>1.028689004484961</v>
       </c>
       <c r="L13">
-        <v>1.025928848990567</v>
+        <v>1.026514170391159</v>
       </c>
       <c r="M13">
-        <v>1.036574233917431</v>
+        <v>1.037014668563535</v>
       </c>
       <c r="N13">
-        <v>1.010189755078069</v>
+        <v>1.012889578213251</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038609756558596</v>
+        <v>1.038957929363416</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031158243668001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031438612103384</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020144930676564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9898447187617646</v>
+        <v>0.9904506269646581</v>
       </c>
       <c r="D14">
-        <v>1.014078445807318</v>
+        <v>1.014392534458382</v>
       </c>
       <c r="E14">
-        <v>1.01190006658186</v>
+        <v>1.012437121223405</v>
       </c>
       <c r="F14">
-        <v>1.022816467893345</v>
+        <v>1.023218920261584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043340910923227</v>
+        <v>1.04349511480056</v>
       </c>
       <c r="J14">
-        <v>1.019682425626349</v>
+        <v>1.020262369112799</v>
       </c>
       <c r="K14">
-        <v>1.028756286239401</v>
+        <v>1.029064658527298</v>
       </c>
       <c r="L14">
-        <v>1.026617680329756</v>
+        <v>1.027144908615685</v>
       </c>
       <c r="M14">
-        <v>1.037336977804269</v>
+        <v>1.037732267916777</v>
       </c>
       <c r="N14">
-        <v>1.010400891495147</v>
+        <v>1.012966897450539</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039386079764553</v>
+        <v>1.039698522698181</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031472166938409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0317057790659</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02023395677701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9903151825746954</v>
+        <v>0.9908881868553617</v>
       </c>
       <c r="D15">
-        <v>1.014381880793936</v>
+        <v>1.014662834853552</v>
       </c>
       <c r="E15">
-        <v>1.012307665827035</v>
+        <v>1.012815344814872</v>
       </c>
       <c r="F15">
-        <v>1.02322168536014</v>
+        <v>1.023601382741588</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043437991811856</v>
+        <v>1.043577331611842</v>
       </c>
       <c r="J15">
-        <v>1.01994292121314</v>
+        <v>1.020491586579107</v>
       </c>
       <c r="K15">
-        <v>1.028967128382833</v>
+        <v>1.029243007813378</v>
       </c>
       <c r="L15">
-        <v>1.026930491556397</v>
+        <v>1.027428954519963</v>
       </c>
       <c r="M15">
-        <v>1.037648999204923</v>
+        <v>1.038021992064349</v>
       </c>
       <c r="N15">
-        <v>1.010494950280359</v>
+        <v>1.012990826644535</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039670246189637</v>
+        <v>1.039965057308185</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031627141337905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031838347391582</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020272862930213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9927115247926244</v>
+        <v>0.9931331766793979</v>
       </c>
       <c r="D16">
-        <v>1.015884758019446</v>
+        <v>1.01601207763604</v>
       </c>
       <c r="E16">
-        <v>1.01425168295719</v>
+        <v>1.014624259498468</v>
       </c>
       <c r="F16">
-        <v>1.024992736362274</v>
+        <v>1.025268053704445</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043850067820536</v>
+        <v>1.043922145462083</v>
       </c>
       <c r="J16">
-        <v>1.021139609236228</v>
+        <v>1.021544246398188</v>
       </c>
       <c r="K16">
-        <v>1.029937157939613</v>
+        <v>1.030062277660787</v>
       </c>
       <c r="L16">
-        <v>1.028332363391055</v>
+        <v>1.028698477525861</v>
       </c>
       <c r="M16">
-        <v>1.038889542784579</v>
+        <v>1.039160212353154</v>
       </c>
       <c r="N16">
-        <v>1.010899306481504</v>
+        <v>1.013065736871044</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040612047612877</v>
+        <v>1.040825989199246</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032316176219535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032421086127237</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020432996744338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.994079375587156</v>
+        <v>0.9944283881091978</v>
       </c>
       <c r="D17">
-        <v>1.016728988123212</v>
+        <v>1.01677995062435</v>
       </c>
       <c r="E17">
-        <v>1.015301423569565</v>
+        <v>1.01560915532381</v>
       </c>
       <c r="F17">
-        <v>1.025866283490376</v>
+        <v>1.026091611431171</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044049720444215</v>
+        <v>1.044089124517993</v>
       </c>
       <c r="J17">
-        <v>1.021766991459354</v>
+        <v>1.022102371804462</v>
       </c>
       <c r="K17">
-        <v>1.030449920559083</v>
+        <v>1.030500027070497</v>
       </c>
       <c r="L17">
-        <v>1.02904637907907</v>
+        <v>1.02934892495516</v>
       </c>
       <c r="M17">
-        <v>1.039435489820614</v>
+        <v>1.039657120059196</v>
       </c>
       <c r="N17">
-        <v>1.011098882787791</v>
+        <v>1.013111984598331</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040914534559725</v>
+        <v>1.041089732125464</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032681323164255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032733442046948</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020510238758206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9946753495454573</v>
+        <v>0.9950020894505812</v>
       </c>
       <c r="D18">
-        <v>1.017067695550527</v>
+        <v>1.017094505475049</v>
       </c>
       <c r="E18">
-        <v>1.015645915337966</v>
+        <v>1.015933841930881</v>
       </c>
       <c r="F18">
-        <v>1.025995114630837</v>
+        <v>1.02620521006491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044076111493501</v>
+        <v>1.044106139981019</v>
       </c>
       <c r="J18">
-        <v>1.021941036042262</v>
+        <v>1.022255250650294</v>
       </c>
       <c r="K18">
-        <v>1.03059818124606</v>
+        <v>1.03062454818488</v>
       </c>
       <c r="L18">
-        <v>1.029199936527438</v>
+        <v>1.029483090068467</v>
       </c>
       <c r="M18">
-        <v>1.039379733469596</v>
+        <v>1.039586435346446</v>
       </c>
       <c r="N18">
-        <v>1.011132157379891</v>
+        <v>1.013093198152391</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040632740127399</v>
+        <v>1.040796170958664</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032774457367492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032808657450929</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020515956849788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9945855558800538</v>
+        <v>0.9949282828314803</v>
       </c>
       <c r="D19">
-        <v>1.01696860669078</v>
+        <v>1.01701317891626</v>
       </c>
       <c r="E19">
-        <v>1.015357518387191</v>
+        <v>1.015659899757415</v>
       </c>
       <c r="F19">
-        <v>1.0254499245138</v>
+        <v>1.025671226333997</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043957052505463</v>
+        <v>1.04399618835985</v>
       </c>
       <c r="J19">
-        <v>1.021718852963768</v>
+        <v>1.022048515684794</v>
       </c>
       <c r="K19">
-        <v>1.030437721600236</v>
+        <v>1.030481561117525</v>
       </c>
       <c r="L19">
-        <v>1.028853173017463</v>
+        <v>1.029150564951818</v>
       </c>
       <c r="M19">
-        <v>1.038781089609238</v>
+        <v>1.038998831107703</v>
       </c>
       <c r="N19">
-        <v>1.011023896515032</v>
+        <v>1.013001836956855</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039833779961749</v>
+        <v>1.040005995659848</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032667432324782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032714610972303</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020462699212057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9925643025692568</v>
+        <v>0.9930277125916824</v>
       </c>
       <c r="D20">
-        <v>1.015620810693138</v>
+        <v>1.015798397928045</v>
       </c>
       <c r="E20">
-        <v>1.013309034834906</v>
+        <v>1.013719643120999</v>
       </c>
       <c r="F20">
-        <v>1.023069281995292</v>
+        <v>1.02337435718047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043426303949704</v>
+        <v>1.043525699232684</v>
       </c>
       <c r="J20">
-        <v>1.020384897917255</v>
+        <v>1.020830075434943</v>
       </c>
       <c r="K20">
-        <v>1.029394437758962</v>
+        <v>1.029569025717965</v>
       </c>
       <c r="L20">
-        <v>1.027121829382583</v>
+        <v>1.027525464056552</v>
       </c>
       <c r="M20">
-        <v>1.036718262629518</v>
+        <v>1.037018282327308</v>
       </c>
       <c r="N20">
-        <v>1.01051697679988</v>
+        <v>1.012695340416503</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037673354592032</v>
+        <v>1.037910789166373</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031933724293186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032073739974489</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020238698194014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9880129973480438</v>
+        <v>0.9887844940565595</v>
       </c>
       <c r="D21">
-        <v>1.012744605600373</v>
+        <v>1.013232203234978</v>
       </c>
       <c r="E21">
-        <v>1.009515745148102</v>
+        <v>1.010201530992184</v>
       </c>
       <c r="F21">
-        <v>1.019505606705082</v>
+        <v>1.020024448947968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042591572148932</v>
+        <v>1.042829745145313</v>
       </c>
       <c r="J21">
-        <v>1.018020582359418</v>
+        <v>1.018758732066922</v>
       </c>
       <c r="K21">
-        <v>1.027488484409432</v>
+        <v>1.027967150254671</v>
       </c>
       <c r="L21">
-        <v>1.024319053907204</v>
+        <v>1.024992175860303</v>
       </c>
       <c r="M21">
-        <v>1.03412662832845</v>
+        <v>1.034636129899035</v>
       </c>
       <c r="N21">
-        <v>1.009698307169617</v>
+        <v>1.012545197737472</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035581310636812</v>
+        <v>1.035984549630588</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030589374604237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030944718025316</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019914697487597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9851215771351334</v>
+        <v>0.9860889626158692</v>
       </c>
       <c r="D22">
-        <v>1.010919801050353</v>
+        <v>1.011604797748417</v>
       </c>
       <c r="E22">
-        <v>1.007132410594879</v>
+        <v>1.007992790351005</v>
       </c>
       <c r="F22">
-        <v>1.01729317707886</v>
+        <v>1.017948218229248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042056769258073</v>
+        <v>1.042383542744242</v>
       </c>
       <c r="J22">
-        <v>1.016528979714936</v>
+        <v>1.017452104796981</v>
       </c>
       <c r="K22">
-        <v>1.026277994600052</v>
+        <v>1.026949814279013</v>
       </c>
       <c r="L22">
-        <v>1.022563884939787</v>
+        <v>1.023407554165932</v>
       </c>
       <c r="M22">
-        <v>1.032529664568286</v>
+        <v>1.033172309920398</v>
       </c>
       <c r="N22">
-        <v>1.009182808053489</v>
+        <v>1.012446162551614</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034317411061344</v>
+        <v>1.03482602599821</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.0297199128352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030210529986272</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019707472759185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9866509376341956</v>
+        <v>0.9875017184127548</v>
       </c>
       <c r="D23">
-        <v>1.011878488734931</v>
+        <v>1.012449429370629</v>
       </c>
       <c r="E23">
-        <v>1.008391627331585</v>
+        <v>1.009148063939578</v>
       </c>
       <c r="F23">
-        <v>1.01846312829898</v>
+        <v>1.019036954085084</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042336711399178</v>
+        <v>1.042611912477243</v>
       </c>
       <c r="J23">
-        <v>1.017314140314618</v>
+        <v>1.01812714223037</v>
       </c>
       <c r="K23">
-        <v>1.02691079828564</v>
+        <v>1.027471034711392</v>
       </c>
       <c r="L23">
-        <v>1.023489653743642</v>
+        <v>1.024231783383586</v>
       </c>
       <c r="M23">
-        <v>1.033372936540898</v>
+        <v>1.033936184532075</v>
       </c>
       <c r="N23">
-        <v>1.009453115715373</v>
+        <v>1.012453216990876</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034984809761808</v>
+        <v>1.035430586086995</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030157645611659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030568425534067</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019811672717667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9925721122124475</v>
+        <v>0.993036272850144</v>
       </c>
       <c r="D24">
-        <v>1.015610367938976</v>
+        <v>1.015788743069584</v>
       </c>
       <c r="E24">
-        <v>1.013284229210668</v>
+        <v>1.01369553923378</v>
       </c>
       <c r="F24">
-        <v>1.023010040494291</v>
+        <v>1.023315667322154</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04340784450984</v>
+        <v>1.04350782044882</v>
       </c>
       <c r="J24">
-        <v>1.020359121525772</v>
+        <v>1.020805046252928</v>
       </c>
       <c r="K24">
-        <v>1.02936878377846</v>
+        <v>1.029544150116278</v>
       </c>
       <c r="L24">
-        <v>1.027082007039317</v>
+        <v>1.027486340069486</v>
       </c>
       <c r="M24">
-        <v>1.036644774435783</v>
+        <v>1.036945342370749</v>
       </c>
       <c r="N24">
-        <v>1.010502877648263</v>
+        <v>1.012680617545285</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037574265368251</v>
+        <v>1.037812145667347</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031888034866254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03202593144474</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020228542835956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9992208163190418</v>
+        <v>0.9994242573146424</v>
       </c>
       <c r="D25">
-        <v>1.01981954546764</v>
+        <v>1.019681518854929</v>
       </c>
       <c r="E25">
-        <v>1.018809535954463</v>
+        <v>1.018987427493413</v>
       </c>
       <c r="F25">
-        <v>1.028150905369443</v>
+        <v>1.028276429721333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044570261393945</v>
+        <v>1.044534114544543</v>
       </c>
       <c r="J25">
-        <v>1.023774431586924</v>
+        <v>1.023971013044976</v>
       </c>
       <c r="K25">
-        <v>1.032117786643042</v>
+        <v>1.031981798549978</v>
       </c>
       <c r="L25">
-        <v>1.031122710217783</v>
+        <v>1.031297968884001</v>
       </c>
       <c r="M25">
-        <v>1.040327385183472</v>
+        <v>1.040451094141469</v>
       </c>
       <c r="N25">
-        <v>1.011679508946829</v>
+        <v>1.013499071641697</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040488810822034</v>
+        <v>1.040586718162715</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033828863381611</v>
+        <v>1.033746304088658</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020720491573593</v>
       </c>
     </row>
   </sheetData>
